--- a/FAST_models/WindPACT/excel_proc/turbines/5.0A04V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/5.0A04V00_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="150" windowWidth="8070" windowHeight="7575" activeTab="1"/>
+    <workbookView xWindow="105" yWindow="150" windowWidth="8070" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -2566,7 +2566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="375">
+  <cellXfs count="376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3334,51 +3334,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3419,6 +3374,52 @@
     </xf>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4000,11 +4001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="79859072"/>
-        <c:axId val="80283904"/>
+        <c:axId val="129102208"/>
+        <c:axId val="129104128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79859072"/>
+        <c:axId val="129102208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4088,12 +4089,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80283904"/>
+        <c:crossAx val="129104128"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80283904"/>
+        <c:axId val="129104128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4176,7 +4177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79859072"/>
+        <c:crossAx val="129102208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5215,8 +5216,8 @@
   </sheetPr>
   <dimension ref="A1:U142"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5240,14 +5241,14 @@
       <c r="B1" s="184" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="347" t="s">
+      <c r="C1" s="368" t="s">
         <v>398</v>
       </c>
-      <c r="D1" s="348"/>
-      <c r="E1" s="348"/>
-      <c r="F1" s="348"/>
-      <c r="G1" s="348"/>
-      <c r="H1" s="349"/>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="369"/>
+      <c r="G1" s="369"/>
+      <c r="H1" s="370"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5263,17 +5264,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="341" t="s">
+      <c r="B3" s="362" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="342"/>
-      <c r="D3" s="343"/>
+      <c r="C3" s="363"/>
+      <c r="D3" s="364"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="344" t="s">
+      <c r="F3" s="365" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="345"/>
-      <c r="H3" s="346"/>
+      <c r="G3" s="366"/>
+      <c r="H3" s="367"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -5481,8 +5482,8 @@
         <v>43</v>
       </c>
       <c r="B14" s="270">
-        <f>PI()*(B58^4-B59^4)/2/(GECdrivetrain!C7)*GECtwrdata!F7</f>
-        <v>36811088319.662804</v>
+        <f>PI()*(B58^4-B59^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
+        <v>2300693019.9789252</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5">
@@ -5536,11 +5537,11 @@
       <c r="C18" s="335">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D18" s="350" t="s">
+      <c r="D18" s="371" t="s">
         <v>376</v>
       </c>
-      <c r="E18" s="349"/>
-      <c r="F18" s="349"/>
+      <c r="E18" s="370"/>
+      <c r="F18" s="370"/>
     </row>
     <row r="19" spans="1:21" ht="25.5" customHeight="1">
       <c r="A19" s="271" t="s">
@@ -5552,11 +5553,11 @@
       <c r="C19" s="335">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D19" s="350" t="s">
+      <c r="D19" s="371" t="s">
         <v>375</v>
       </c>
-      <c r="E19" s="349"/>
-      <c r="F19" s="349"/>
+      <c r="E19" s="370"/>
+      <c r="F19" s="370"/>
       <c r="I19" s="35" t="s">
         <v>69</v>
       </c>
@@ -6706,7 +6707,7 @@
       <c r="D115" s="308" t="s">
         <v>380</v>
       </c>
-      <c r="E115" s="373">
+      <c r="E115" s="356">
         <v>0.25</v>
       </c>
       <c r="F115" s="307">
@@ -6747,7 +6748,7 @@
       <c r="D116" s="314" t="s">
         <v>380</v>
       </c>
-      <c r="E116" s="373">
+      <c r="E116" s="356">
         <v>0.25</v>
       </c>
       <c r="F116" s="313">
@@ -7052,66 +7053,66 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="12">
-      <c r="A134" s="358" t="s">
+      <c r="A134" s="341" t="s">
         <v>405</v>
       </c>
-      <c r="B134" s="359" t="s">
+      <c r="B134" s="342" t="s">
         <v>406</v>
       </c>
-      <c r="C134" s="360"/>
+      <c r="C134" s="343"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="361">
+      <c r="A135" s="344">
         <v>1</v>
       </c>
-      <c r="B135" s="362"/>
-      <c r="C135" s="363" t="s">
+      <c r="B135" s="345"/>
+      <c r="C135" s="346" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="361">
+      <c r="A136" s="344">
         <v>2</v>
       </c>
-      <c r="B136" s="364"/>
-      <c r="C136" s="365" t="s">
+      <c r="B136" s="347"/>
+      <c r="C136" s="348" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="361">
+      <c r="A137" s="344">
         <v>3</v>
       </c>
-      <c r="B137" s="364"/>
-      <c r="C137" s="365" t="s">
+      <c r="B137" s="347"/>
+      <c r="C137" s="348" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="366">
+      <c r="A138" s="349">
         <v>4</v>
       </c>
-      <c r="B138" s="367"/>
-      <c r="C138" s="368" t="s">
+      <c r="B138" s="350"/>
+      <c r="C138" s="351" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="12" thickBot="1"/>
     <row r="140" spans="1:4" ht="12" thickBot="1">
-      <c r="A140" s="354" t="s">
+      <c r="A140" s="359" t="s">
         <v>408</v>
       </c>
-      <c r="B140" s="355"/>
-      <c r="C140" s="356"/>
+      <c r="B140" s="360"/>
+      <c r="C140" s="361"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B141" s="369" t="s">
+      <c r="B141" s="352" t="s">
         <v>36</v>
       </c>
-      <c r="C141" s="370" t="s">
+      <c r="C141" s="353" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7119,10 +7120,10 @@
       <c r="A142" s="267">
         <v>0.03</v>
       </c>
-      <c r="B142" s="371">
+      <c r="B142" s="354">
         <v>0.03</v>
       </c>
-      <c r="C142" s="372">
+      <c r="C142" s="355">
         <v>0.03</v>
       </c>
     </row>
@@ -7148,7 +7149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6:J11"/>
     </sheetView>
   </sheetViews>
@@ -7207,295 +7208,295 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="374" t="str">
+      <c r="A5" s="357" t="str">
         <f>'Main Page'!A114</f>
         <v>Station</v>
       </c>
-      <c r="B5" s="374" t="str">
+      <c r="B5" s="357" t="str">
         <f>'Main Page'!H113</f>
         <v>Unit Weight</v>
       </c>
-      <c r="C5" s="374" t="str">
+      <c r="C5" s="357" t="str">
         <f>'Main Page'!B125</f>
         <v>Twist</v>
       </c>
-      <c r="D5" s="374" t="str">
+      <c r="D5" s="357" t="str">
         <f>'Main Page'!L113</f>
         <v>GJ</v>
       </c>
-      <c r="E5" s="374" t="str">
+      <c r="E5" s="357" t="str">
         <f>'Main Page'!K113</f>
         <v>EA</v>
       </c>
-      <c r="F5" s="374" t="str">
+      <c r="F5" s="357" t="str">
         <f>'Main Page'!J113</f>
         <v>EIEdge</v>
       </c>
-      <c r="G5" s="374" t="str">
+      <c r="G5" s="357" t="str">
         <f>'Main Page'!I113</f>
         <v>EIFlap</v>
       </c>
-      <c r="H5" s="374" t="str">
+      <c r="H5" s="357" t="str">
         <f>'Main Page'!B113</f>
         <v>Chord</v>
       </c>
-      <c r="I5" s="374" t="str">
+      <c r="I5" s="357" t="str">
         <f>'Main Page'!E113</f>
         <v>Gen. Axis Loc.</v>
       </c>
-      <c r="J5" s="374" t="str">
+      <c r="J5" s="357" t="str">
         <f>'Main Page'!A134</f>
         <v>Airfoil ID</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="374">
+      <c r="A6" s="357">
         <f>'Main Page'!A115</f>
         <v>0.05</v>
       </c>
-      <c r="B6" s="374">
+      <c r="B6" s="357">
         <f>'Main Page'!H115</f>
         <v>3708.4116472912633</v>
       </c>
-      <c r="C6" s="374">
+      <c r="C6" s="357">
         <f>'Main Page'!B127 - 'Main Page'!B$132</f>
         <v>11.1</v>
       </c>
-      <c r="D6" s="374">
+      <c r="D6" s="357">
         <f>'Main Page'!L115</f>
         <v>22057695577.548672</v>
       </c>
-      <c r="E6" s="374">
+      <c r="E6" s="357">
         <f>'Main Page'!K115</f>
         <v>42582928810.746231</v>
       </c>
-      <c r="F6" s="374">
+      <c r="F6" s="357">
         <f>'Main Page'!J115</f>
         <v>63720689411.753181</v>
       </c>
-      <c r="G6" s="374">
+      <c r="G6" s="357">
         <f>'Main Page'!I115</f>
         <v>63720689411.753181</v>
       </c>
-      <c r="H6" s="374">
+      <c r="H6" s="357">
         <f>'Main Page'!B115</f>
         <v>3.456438912877827</v>
       </c>
-      <c r="I6" s="374">
+      <c r="I6" s="357">
         <f>'Main Page'!E115</f>
         <v>0.25</v>
       </c>
-      <c r="J6" s="374">
+      <c r="J6" s="357">
         <f>'Main Page'!D127</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="374">
+      <c r="A7" s="357">
         <f>'Main Page'!A116</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B7" s="374">
+      <c r="B7" s="357">
         <f>'Main Page'!H116</f>
         <v>622.32317170970805</v>
       </c>
-      <c r="C7" s="374">
+      <c r="C7" s="357">
         <f>'Main Page'!B128 - 'Main Page'!B$132</f>
         <v>11.1</v>
       </c>
-      <c r="D7" s="374">
+      <c r="D7" s="357">
         <f>'Main Page'!L116</f>
         <v>4904988079.2989025</v>
       </c>
-      <c r="E7" s="374">
+      <c r="E7" s="357">
         <f>'Main Page'!K116</f>
         <v>9469182296.3330479</v>
       </c>
-      <c r="F7" s="374">
+      <c r="F7" s="357">
         <f>'Main Page'!J116</f>
         <v>14036801421.634676</v>
       </c>
-      <c r="G7" s="374">
+      <c r="G7" s="357">
         <f>'Main Page'!I116</f>
         <v>14036801421.634676</v>
       </c>
-      <c r="H7" s="374">
+      <c r="H7" s="357">
         <f>'Main Page'!B116</f>
         <v>3.4564389128778257</v>
       </c>
-      <c r="I7" s="374">
+      <c r="I7" s="357">
         <f>'Main Page'!E116</f>
         <v>0.25</v>
       </c>
-      <c r="J7" s="374">
+      <c r="J7" s="357">
         <f>'Main Page'!D128</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="374">
+      <c r="A8" s="357">
         <f>'Main Page'!A117</f>
         <v>0.25</v>
       </c>
-      <c r="B8" s="374">
+      <c r="B8" s="357">
         <f>'Main Page'!H117</f>
         <v>684.40053797312055</v>
       </c>
-      <c r="C8" s="374">
+      <c r="C8" s="357">
         <f>'Main Page'!B129 - 'Main Page'!B$132</f>
         <v>11.1</v>
       </c>
-      <c r="D8" s="374">
+      <c r="D8" s="357">
         <f>'Main Page'!L117</f>
         <v>145303921.84035307</v>
       </c>
-      <c r="E8" s="374">
+      <c r="E8" s="357">
         <f>'Main Page'!K117</f>
         <v>9141425662.3435383</v>
       </c>
-      <c r="F8" s="374">
+      <c r="F8" s="357">
         <f>'Main Page'!J117</f>
         <v>12611588173.054085</v>
       </c>
-      <c r="G8" s="374">
+      <c r="G8" s="357">
         <f>'Main Page'!I117</f>
         <v>4203286116.1718955</v>
       </c>
-      <c r="H8" s="374">
+      <c r="H8" s="357">
         <f>'Main Page'!B117</f>
         <v>5.11988823977648</v>
       </c>
-      <c r="I8" s="374">
+      <c r="I8" s="357">
         <f>'Main Page'!E117</f>
         <v>0.34</v>
       </c>
-      <c r="J8" s="374">
+      <c r="J8" s="357">
         <f>'Main Page'!D129</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="374">
+      <c r="A9" s="357">
         <f>'Main Page'!A118</f>
         <v>0.5</v>
       </c>
-      <c r="B9" s="374">
+      <c r="B9" s="357">
         <f>'Main Page'!H118</f>
         <v>516.27028971966695</v>
       </c>
-      <c r="C9" s="374">
+      <c r="C9" s="357">
         <f>'Main Page'!B130 - 'Main Page'!B$132</f>
         <v>3.1</v>
       </c>
-      <c r="D9" s="374">
+      <c r="D9" s="357">
         <f>'Main Page'!L118</f>
         <v>57861076.091574006</v>
       </c>
-      <c r="E9" s="374">
+      <c r="E9" s="357">
         <f>'Main Page'!K118</f>
         <v>6898689157.7993288</v>
       </c>
-      <c r="F9" s="374">
+      <c r="F9" s="357">
         <f>'Main Page'!J118</f>
         <v>2540323261.1101747</v>
       </c>
-      <c r="G9" s="374">
+      <c r="G9" s="357">
         <f>'Main Page'!I118</f>
         <v>1017265797.32573</v>
       </c>
-      <c r="H9" s="374">
+      <c r="H9" s="357">
         <f>'Main Page'!B118</f>
         <v>3.9255778511557029</v>
       </c>
-      <c r="I9" s="374">
+      <c r="I9" s="357">
         <f>'Main Page'!E118</f>
         <v>0.31</v>
       </c>
-      <c r="J9" s="374">
+      <c r="J9" s="357">
         <f>'Main Page'!D130</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="374">
+      <c r="A10" s="357">
         <f>'Main Page'!A119</f>
         <v>0.75</v>
       </c>
-      <c r="B10" s="374">
+      <c r="B10" s="357">
         <f>'Main Page'!H119</f>
         <v>225.15720776799671</v>
       </c>
-      <c r="C10" s="374">
+      <c r="C10" s="357">
         <f>'Main Page'!B131 - 'Main Page'!B$132</f>
         <v>0.6</v>
       </c>
-      <c r="D10" s="374">
+      <c r="D10" s="357">
         <f>'Main Page'!L119</f>
         <v>11605234.21344462</v>
       </c>
-      <c r="E10" s="374">
+      <c r="E10" s="357">
         <f>'Main Page'!K119</f>
         <v>2907294183.0127583</v>
       </c>
-      <c r="F10" s="374">
+      <c r="F10" s="357">
         <f>'Main Page'!J119</f>
         <v>610414304.9755882</v>
       </c>
-      <c r="G10" s="374">
+      <c r="G10" s="357">
         <f>'Main Page'!I119</f>
         <v>159223885.56322324</v>
       </c>
-      <c r="H10" s="374">
+      <c r="H10" s="357">
         <f>'Main Page'!B119</f>
         <v>2.7312674625349254</v>
       </c>
-      <c r="I10" s="374">
+      <c r="I10" s="357">
         <f>'Main Page'!E119</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="J10" s="374">
+      <c r="J10" s="357">
         <f>'Main Page'!D131</f>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="374">
+      <c r="A11" s="357">
         <f>'Main Page'!A120</f>
         <v>1</v>
       </c>
-      <c r="B11" s="374">
+      <c r="B11" s="357">
         <f>'Main Page'!H120</f>
         <v>21.986079158927165</v>
       </c>
-      <c r="C11" s="374">
+      <c r="C11" s="357">
         <f>'Main Page'!B132 - 'Main Page'!B$132</f>
         <v>0</v>
       </c>
-      <c r="D11" s="374">
+      <c r="D11" s="357">
         <f>'Main Page'!L120</f>
         <v>1237516.5813282721</v>
       </c>
-      <c r="E11" s="374">
+      <c r="E11" s="357">
         <f>'Main Page'!K120</f>
         <v>235713983.59357151</v>
       </c>
-      <c r="F11" s="374">
+      <c r="F11" s="357">
         <f>'Main Page'!J120</f>
         <v>53624369.654070929</v>
       </c>
-      <c r="G11" s="374">
+      <c r="G11" s="357">
         <f>'Main Page'!I120</f>
         <v>1559775.5371830396</v>
       </c>
-      <c r="H11" s="374">
+      <c r="H11" s="357">
         <f>'Main Page'!B120</f>
         <v>1.6565913131826264</v>
       </c>
-      <c r="I11" s="374">
+      <c r="I11" s="357">
         <f>'Main Page'!E120</f>
         <v>0.25</v>
       </c>
-      <c r="J11" s="374">
+      <c r="J11" s="357">
         <f>'Main Page'!D132</f>
         <v>4</v>
       </c>
@@ -7557,12 +7558,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="372" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="352"/>
-      <c r="C2" s="352"/>
-      <c r="D2" s="353"/>
+      <c r="B2" s="373"/>
+      <c r="C2" s="373"/>
+      <c r="D2" s="374"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -8362,11 +8363,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>60.8</v>
       </c>
-      <c r="D2" s="354" t="s">
+      <c r="D2" s="359" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="355"/>
-      <c r="F2" s="356"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="361"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
@@ -14088,7 +14089,7 @@
       <selection activeCell="B4" sqref="B4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -14103,8 +14104,10 @@
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="14" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="12.75">
@@ -14293,7 +14296,7 @@
         <f>'Main Page'!B54</f>
         <v>0</v>
       </c>
-      <c r="M5" s="161">
+      <c r="M5" s="358">
         <f>0.4*I5*((E5/2)^5-(E5/2-F5)^5)/((E5/2)^3-(E5/2-F5)^3)</f>
         <v>668484.97012246738</v>
       </c>
@@ -15036,12 +15039,12 @@
       <c r="A19" s="113"/>
       <c r="B19" s="166"/>
       <c r="C19" s="113"/>
-      <c r="D19" s="357" t="s">
+      <c r="D19" s="375" t="s">
         <v>241</v>
       </c>
-      <c r="E19" s="357"/>
-      <c r="F19" s="357"/>
-      <c r="G19" s="357"/>
+      <c r="E19" s="375"/>
+      <c r="F19" s="375"/>
+      <c r="G19" s="375"/>
       <c r="H19" s="113"/>
       <c r="I19" s="113"/>
       <c r="J19" s="122"/>

--- a/FAST_models/WindPACT/excel_proc/turbines/5.0A04V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/5.0A04V00_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="150" windowWidth="8070" windowHeight="7575" activeTab="1"/>
+    <workbookView xWindow="105" yWindow="150" windowWidth="8070" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="464">
   <si>
     <t>number</t>
   </si>
@@ -1705,9 +1705,6 @@
     <t>blade modal damping ratios</t>
   </si>
   <si>
-    <t>Drivetrain natural frequency (rad/s)</t>
-  </si>
-  <si>
     <t>&lt;-- added this (JR)</t>
   </si>
   <si>
@@ -1837,9 +1834,6 @@
     <t>Generator efficiency</t>
   </si>
   <si>
-    <t>Drivetrain natural frequency</t>
-  </si>
-  <si>
     <t>Rated Power (W)</t>
   </si>
   <si>
@@ -1877,6 +1871,18 @@
   </si>
   <si>
     <t>Tower damping (%)</t>
+  </si>
+  <si>
+    <t>&lt;-- fixed this (JR)</t>
+  </si>
+  <si>
+    <t>Rotor inertia (kg-m^2)</t>
+  </si>
+  <si>
+    <t>Drivetrain damping (% critical)</t>
+  </si>
+  <si>
+    <t>Drivetrain damping</t>
   </si>
 </sst>
 </file>
@@ -3563,54 +3569,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3639,9 +3597,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3678,6 +3633,57 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4258,11 +4264,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82249216"/>
-        <c:axId val="83822848"/>
+        <c:axId val="104932096"/>
+        <c:axId val="104934016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82249216"/>
+        <c:axId val="104932096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4346,12 +4352,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83822848"/>
+        <c:crossAx val="104934016"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83822848"/>
+        <c:axId val="104934016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4434,7 +4440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82249216"/>
+        <c:crossAx val="104932096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4540,13 +4546,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4732,7 +4738,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>271670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4788,7 +4794,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>243095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4837,13 +4843,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>415373</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>112229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>132936</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>107260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4998,13 +5004,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>399636</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>58392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>203338</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>58392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5471,15 +5477,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U153"/>
+  <dimension ref="A1:U154"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
@@ -5498,14 +5505,14 @@
       <c r="B1" s="183" t="s">
         <v>400</v>
       </c>
-      <c r="C1" s="357" t="s">
+      <c r="C1" s="389" t="s">
         <v>394</v>
       </c>
-      <c r="D1" s="358"/>
-      <c r="E1" s="358"/>
-      <c r="F1" s="358"/>
-      <c r="G1" s="358"/>
-      <c r="H1" s="359"/>
+      <c r="D1" s="390"/>
+      <c r="E1" s="390"/>
+      <c r="F1" s="390"/>
+      <c r="G1" s="390"/>
+      <c r="H1" s="391"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5521,17 +5528,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="351" t="s">
+      <c r="B3" s="383" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="352"/>
-      <c r="D3" s="353"/>
+      <c r="C3" s="384"/>
+      <c r="D3" s="385"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="354" t="s">
+      <c r="F3" s="386" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="355"/>
-      <c r="H3" s="356"/>
+      <c r="G3" s="387"/>
+      <c r="H3" s="388"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -5739,120 +5746,124 @@
         <v>43</v>
       </c>
       <c r="B14" s="269">
-        <f>PI()*(B63^4-B64^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
+        <f>PI()*(B64^4-B65^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
         <v>2300693019.9789252</v>
       </c>
+      <c r="D14" s="348" t="s">
+        <v>460</v>
+      </c>
+      <c r="E14" s="349"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="378">
+        <v>5</v>
+      </c>
+      <c r="D15" s="348" t="s">
         <v>404</v>
       </c>
-      <c r="B15" s="365">
-        <v>56</v>
-      </c>
-      <c r="D15" s="366" t="s">
-        <v>405</v>
-      </c>
-      <c r="E15" s="367"/>
-    </row>
-    <row r="16" spans="1:8" ht="23.45" customHeight="1">
+      <c r="E15" s="349"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="61" t="s">
+        <v>461</v>
+      </c>
+      <c r="B16" s="378">
+        <v>64807728</v>
+      </c>
+      <c r="D16" s="348" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16" s="349"/>
+    </row>
+    <row r="17" spans="1:21" ht="23.45" customHeight="1">
+      <c r="A17" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="277">
+      <c r="B17" s="277">
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="13.15" customHeight="1">
-      <c r="A17" s="61" t="s">
+    <row r="18" spans="1:21" ht="13.15" customHeight="1">
+      <c r="A18" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="277">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" s="277">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="179" t="s">
+      <c r="I18" s="179" t="s">
         <v>316</v>
       </c>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="P17" s="181" t="s">
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="P18" s="181" t="s">
         <v>317</v>
       </c>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="182"/>
-      <c r="S17" s="182"/>
-      <c r="T17" s="182"/>
-      <c r="U17" s="182"/>
-    </row>
-    <row r="18" spans="1:21" ht="24" customHeight="1" thickBot="1">
-      <c r="A18" s="62" t="s">
+      <c r="Q18" s="182"/>
+      <c r="R18" s="182"/>
+      <c r="S18" s="182"/>
+      <c r="T18" s="182"/>
+      <c r="U18" s="182"/>
+    </row>
+    <row r="19" spans="1:21" ht="24" customHeight="1" thickBot="1">
+      <c r="A19" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="B18" s="277">
+      <c r="B19" s="277">
         <v>0.95</v>
       </c>
-      <c r="C18" s="331">
+      <c r="C19" s="331">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D18" s="360" t="s">
+      <c r="D19" s="392" t="s">
         <v>374</v>
       </c>
-      <c r="E18" s="359"/>
-      <c r="F18" s="359"/>
-    </row>
-    <row r="19" spans="1:21" ht="25.5" customHeight="1">
-      <c r="A19" s="270" t="s">
+      <c r="E19" s="391"/>
+      <c r="F19" s="391"/>
+    </row>
+    <row r="20" spans="1:21" ht="25.5" customHeight="1">
+      <c r="A20" s="270" t="s">
         <v>372</v>
       </c>
-      <c r="B19" s="276">
+      <c r="B20" s="276">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C19" s="331">
+      <c r="C20" s="331">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D19" s="360" t="s">
+      <c r="D20" s="392" t="s">
         <v>373</v>
       </c>
-      <c r="E19" s="359"/>
-      <c r="F19" s="359"/>
-      <c r="I19" s="35" t="s">
+      <c r="E20" s="391"/>
+      <c r="F20" s="391"/>
+      <c r="I20" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="171"/>
-    </row>
-    <row r="20" spans="1:21" ht="11.45" customHeight="1">
-      <c r="A20" s="61" t="s">
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="171"/>
+    </row>
+    <row r="21" spans="1:21" ht="11.45" customHeight="1">
+      <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="277" t="s">
+      <c r="B21" s="277" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="172" t="s">
+      <c r="I21" s="172" t="s">
         <v>318</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="173"/>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="I21" s="172" t="s">
-        <v>319</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -5863,12 +5874,8 @@
       <c r="P21" s="173"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="29"/>
       <c r="I22" s="172" t="s">
-        <v>65</v>
+        <v>319</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -5878,18 +5885,13 @@
       <c r="O22" s="8"/>
       <c r="P22" s="173"/>
     </row>
-    <row r="23" spans="1:21" ht="12.6" customHeight="1">
+    <row r="23" spans="1:21">
       <c r="A23" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="272">
-        <f>B85</f>
-        <v>11.190581936148892</v>
-      </c>
-      <c r="G23" s="89"/>
-      <c r="H23" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="B23" s="29"/>
       <c r="I23" s="172" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -5899,313 +5901,323 @@
       <c r="O23" s="8"/>
       <c r="P23" s="173"/>
     </row>
-    <row r="24" spans="1:21" ht="12" thickBot="1">
+    <row r="24" spans="1:21" ht="12.6" customHeight="1">
       <c r="A24" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="273">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="B24" s="272">
+        <f>B86</f>
+        <v>11.190581936148892</v>
       </c>
       <c r="G24" s="89"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="175"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="175"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="178"/>
-    </row>
-    <row r="25" spans="1:21" ht="9.75" customHeight="1">
+      <c r="I24" s="172" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="173"/>
+    </row>
+    <row r="25" spans="1:21" ht="12" thickBot="1">
       <c r="A25" s="100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="273">
-        <f>B88</f>
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="G25" s="89"/>
       <c r="H25" s="12"/>
-    </row>
-    <row r="27" spans="1:21" ht="12.6" customHeight="1">
-      <c r="A27" s="109" t="s">
+      <c r="I25" s="174" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="178"/>
+    </row>
+    <row r="26" spans="1:21" ht="9.75" customHeight="1">
+      <c r="A26" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="273">
+        <f>B89</f>
+        <v>5000</v>
+      </c>
+      <c r="G26" s="89"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="28" spans="1:21" ht="12.6" customHeight="1">
+      <c r="A28" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="29"/>
-    </row>
-    <row r="28" spans="1:21" ht="21" customHeight="1">
-      <c r="A28" s="100" t="s">
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="1:21" ht="21" customHeight="1">
+      <c r="A29" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="91">
-        <f>B85</f>
+      <c r="B29" s="91">
+        <f>B86</f>
         <v>11.190581936148892</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="9.75" customHeight="1">
-      <c r="A29" s="100" t="s">
+    <row r="30" spans="1:21" ht="9.75" customHeight="1">
+      <c r="A30" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="B29" s="271">
-        <f>B88*1000/(B28*PI()/30)/(B18-C18-B19-C19)</f>
+      <c r="B30" s="271">
+        <f>B89*1000/(B29*PI()/30)/(B19-C19-B20-C20)</f>
         <v>4612612.6126126135</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="9.75" customHeight="1">
-      <c r="A30" s="368" t="s">
+    <row r="31" spans="1:21" ht="9.75" customHeight="1">
+      <c r="A31" s="350" t="s">
+        <v>405</v>
+      </c>
+      <c r="B31" s="271">
+        <f>B89*1000/(B84*PI()/30)/(B19)</f>
+        <v>27921.919840683397</v>
+      </c>
+      <c r="D31" s="348" t="s">
         <v>406</v>
       </c>
-      <c r="B30" s="271">
-        <f>B88*1000/(B83*PI()/30)/(B18)</f>
-        <v>27921.919840683397</v>
-      </c>
-      <c r="D30" s="366" t="s">
-        <v>407</v>
-      </c>
-      <c r="E30" s="367"/>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="B31" s="53"/>
+      <c r="E31" s="349"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="109" t="s">
+      <c r="B32" s="53"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="29"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="277">
-        <v>2.6</v>
-      </c>
+      <c r="B33" s="29"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="277">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="277">
+      <c r="B35" s="277">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12" customHeight="1">
-      <c r="A35" s="100" t="s">
+    <row r="36" spans="1:5" ht="12" customHeight="1">
+      <c r="A36" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="277">
+      <c r="B36" s="277">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A37" s="109" t="s">
-        <v>408</v>
-      </c>
-      <c r="B37" s="29"/>
-      <c r="D37" s="366" t="s">
-        <v>405</v>
-      </c>
-      <c r="E37" s="367"/>
-    </row>
+    <row r="37" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="38" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A38" s="100" t="s">
-        <v>409</v>
-      </c>
-      <c r="B38" s="277">
-        <v>0.45</v>
-      </c>
-      <c r="D38" s="366" t="s">
-        <v>405</v>
-      </c>
-      <c r="E38" s="367"/>
+      <c r="A38" s="109" t="s">
+        <v>407</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="D38" s="348" t="s">
+        <v>404</v>
+      </c>
+      <c r="E38" s="349"/>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1">
       <c r="A39" s="100" t="s">
-        <v>410</v>
-      </c>
-      <c r="B39" s="369">
+        <v>408</v>
+      </c>
+      <c r="B39" s="277">
+        <v>0.45</v>
+      </c>
+      <c r="D39" s="348" t="s">
+        <v>404</v>
+      </c>
+      <c r="E39" s="349"/>
+    </row>
+    <row r="40" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A40" s="100" t="s">
+        <v>409</v>
+      </c>
+      <c r="B40" s="351">
         <v>7</v>
       </c>
-      <c r="D39" s="366" t="s">
-        <v>405</v>
-      </c>
-      <c r="E39" s="367"/>
-    </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="41" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A41" s="109" t="s">
+      <c r="D40" s="348" t="s">
+        <v>404</v>
+      </c>
+      <c r="E40" s="349"/>
+    </row>
+    <row r="41" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A42" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="54"/>
-    </row>
-    <row r="42" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A42" s="100" t="s">
+      <c r="B42" s="54"/>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A43" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="278">
+      <c r="B43" s="278">
         <v>2.9279999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="100" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="279">
+      <c r="B44" s="279">
         <v>4.41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1">
-      <c r="A44" s="100" t="s">
+    <row r="45" spans="1:5" ht="15" customHeight="1">
+      <c r="A45" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="279">
+      <c r="B45" s="279">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A45" s="100" t="s">
+    <row r="46" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A46" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="279">
+      <c r="B46" s="279">
         <v>10.17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A46" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" s="279">
-        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13.5" customHeight="1">
       <c r="A47" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="279">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A48" s="100" t="s">
         <v>386</v>
       </c>
-      <c r="B47" s="332">
+      <c r="B48" s="332">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18" customHeight="1">
-      <c r="A48" s="109" t="s">
+    <row r="49" spans="1:4" ht="18" customHeight="1">
+      <c r="A49" s="109" t="s">
         <v>384</v>
       </c>
-      <c r="B48" s="63"/>
-    </row>
-    <row r="49" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A49" s="100" t="s">
+      <c r="B49" s="63"/>
+    </row>
+    <row r="50" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A50" s="100" t="s">
         <v>385</v>
       </c>
-      <c r="B49" s="105">
-        <f>ABS(B8)+B13/2*(B11+B17)/57.3-0.5*(B43+B13/2/B9*(B45-B43))</f>
+      <c r="B50" s="105">
+        <f>ABS(B8)+B13/2*(B11+B18)/57.3-0.5*(B44+B13/2/B9*(B46-B44))</f>
         <v>8.1827591169737772</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="280">
-        <v>6.4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" t="s">
-        <v>128</v>
-      </c>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="110" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B53" s="280">
-        <v>3.5939999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="C53" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="274" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="10.9" customHeight="1">
+      <c r="D53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="110" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="280">
-        <v>3.09</v>
+        <v>3.5939999999999999</v>
       </c>
       <c r="C54" t="s">
         <v>85</v>
       </c>
-      <c r="D54" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="D54" s="274" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="10.9" customHeight="1">
       <c r="A55" s="110" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B55" s="280">
-        <v>0.1</v>
+        <v>3.09</v>
       </c>
       <c r="C55" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="274" t="s">
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="280">
+        <v>0.1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="274" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56" s="281">
-        <v>7850</v>
-      </c>
-      <c r="C56" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="280">
-        <v>-6</v>
+        <v>133</v>
+      </c>
+      <c r="B57" s="281">
+        <v>7850</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B58" s="280">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="C58" t="s">
         <v>85</v>
       </c>
+      <c r="D58" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B59" s="280">
         <v>0</v>
@@ -6215,82 +6227,79 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="18"/>
-      <c r="B60" s="124"/>
+      <c r="A60" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="280">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="111" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="124"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="125"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B62" s="280">
-        <v>3.6</v>
-      </c>
-      <c r="C62" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" t="s">
-        <v>380</v>
-      </c>
+      <c r="B62" s="125"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B63" s="280">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="C63" t="s">
         <v>85</v>
       </c>
+      <c r="D63" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B64" s="280">
-        <v>0.52</v>
+        <v>1.04</v>
       </c>
       <c r="C64" t="s">
         <v>85</v>
       </c>
-      <c r="D64" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" s="281">
-        <v>7850</v>
+        <v>141</v>
+      </c>
+      <c r="B65" s="280">
+        <v>0.52</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>85</v>
+      </c>
+      <c r="D65" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" s="280">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="B66" s="281">
+        <v>7850</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B67" s="280">
         <v>0</v>
@@ -6298,45 +6307,48 @@
       <c r="C67" t="s">
         <v>85</v>
       </c>
+      <c r="D67" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="18"/>
-      <c r="B68" s="124"/>
+      <c r="A68" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="280">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="111" t="s">
+      <c r="A69" s="18"/>
+      <c r="B69" s="124"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="125"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" s="280">
-        <v>-4.2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" t="s">
-        <v>146</v>
-      </c>
+      <c r="B70" s="125"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B71" s="280">
-        <v>0</v>
+        <v>-4.2</v>
       </c>
       <c r="C71" t="s">
         <v>85</v>
       </c>
+      <c r="D71" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72" s="280">
         <v>0</v>
@@ -6347,32 +6359,32 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B73" s="280">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
-      <c r="D73" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B74" s="280">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
       </c>
+      <c r="D74" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B75" s="280">
         <v>0</v>
@@ -6382,46 +6394,43 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="18"/>
-      <c r="B76" s="125"/>
+      <c r="A76" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="280">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="111" t="s">
+      <c r="A77" s="18"/>
+      <c r="B77" s="125"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="125"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="282">
-        <v>42259</v>
-      </c>
-      <c r="C78" t="s">
-        <v>117</v>
-      </c>
-      <c r="D78" t="s">
-        <v>155</v>
-      </c>
+      <c r="B78" s="125"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B79" s="280">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="B79" s="282">
+        <v>42259</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B80" s="280">
         <v>0</v>
@@ -6429,10 +6438,13 @@
       <c r="C80" t="s">
         <v>85</v>
       </c>
+      <c r="D80" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B81" s="280">
         <v>0</v>
@@ -6443,96 +6455,96 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="18" t="s">
-        <v>395</v>
+        <v>137</v>
       </c>
       <c r="B82" s="280">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>396</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B83" s="280">
-        <v>1800</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B84" s="336">
-        <f>1800/B85</f>
-        <v>160.84954386379741</v>
+        <v>397</v>
+      </c>
+      <c r="B84" s="280">
+        <v>1800</v>
+      </c>
+      <c r="C84" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="336">
+        <f>1800/B86</f>
+        <v>160.84954386379741</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B85" s="336">
-        <f>B82/B13*2*30/PI()</f>
+      <c r="B86" s="336">
+        <f>B83/B13*2*30/PI()</f>
         <v>11.190581936148892</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="18"/>
-      <c r="B86" s="123"/>
-    </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="111" t="s">
+      <c r="A87" s="18"/>
+      <c r="B87" s="123"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="111" t="s">
         <v>159</v>
       </c>
-      <c r="B87" s="125"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B88" s="283">
-        <v>5000</v>
-      </c>
-      <c r="C88" t="s">
-        <v>161</v>
-      </c>
+      <c r="B88" s="125"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B89" s="280">
-        <v>1.5</v>
+        <v>160</v>
+      </c>
+      <c r="B89" s="283">
+        <v>5000</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
-      </c>
-      <c r="D89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90" s="284">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="B90" s="280">
+        <v>1.5</v>
       </c>
       <c r="C90" t="s">
         <v>85</v>
       </c>
+      <c r="D90" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B91" s="284">
         <v>0</v>
@@ -6542,60 +6554,60 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="18"/>
-      <c r="B92" s="126"/>
+      <c r="A92" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="284">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="111" t="s">
+      <c r="A93" s="18"/>
+      <c r="B93" s="126"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="B93" s="126"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B94" s="284">
-        <v>4.2</v>
-      </c>
-      <c r="C94" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" t="s">
-        <v>164</v>
-      </c>
+      <c r="B94" s="126"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" s="280">
-        <v>4.5</v>
+        <v>139</v>
+      </c>
+      <c r="B95" s="284">
+        <v>4.2</v>
       </c>
       <c r="C95" t="s">
         <v>85</v>
       </c>
       <c r="D95" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B96" s="280">
-        <v>2.2080000000000002</v>
+        <v>4.5</v>
       </c>
       <c r="C96" t="s">
         <v>85</v>
       </c>
+      <c r="D96" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B97" s="280">
-        <v>0.39100000000000001</v>
+        <v>2.2080000000000002</v>
       </c>
       <c r="C97" t="s">
         <v>85</v>
@@ -6603,10 +6615,10 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B98" s="280">
-        <v>0.35299999999999998</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="C98" t="s">
         <v>85</v>
@@ -6614,10 +6626,10 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B99" s="281">
-        <v>7850</v>
+        <v>169</v>
+      </c>
+      <c r="B99" s="280">
+        <v>0.35299999999999998</v>
       </c>
       <c r="C99" t="s">
         <v>85</v>
@@ -6625,10 +6637,10 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B100" s="284">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="B100" s="281">
+        <v>7850</v>
       </c>
       <c r="C100" t="s">
         <v>85</v>
@@ -6636,7 +6648,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B101" s="284">
         <v>0</v>
@@ -6647,899 +6659,910 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B102" s="284">
-        <v>-1.464</v>
+        <v>0</v>
       </c>
       <c r="C102" t="s">
         <v>85</v>
       </c>
-      <c r="D102" t="s">
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" s="284">
+        <v>-1.464</v>
+      </c>
+      <c r="C103" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="111" t="s">
+    <row r="105" spans="1:11">
+      <c r="A105" s="111" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="333" t="s">
+    <row r="106" spans="1:11">
+      <c r="A106" s="333" t="s">
         <v>390</v>
       </c>
-      <c r="B105" s="334">
+      <c r="B106" s="334">
         <f>'Blade Data'!R32*B10+E8</f>
         <v>209406.61759284293</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="333" t="s">
+    <row r="107" spans="1:11">
+      <c r="A107" s="333" t="s">
         <v>391</v>
       </c>
-      <c r="B106" s="334">
+      <c r="B107" s="334">
         <f>E5+E6+E7</f>
         <v>270668.70913834521</v>
       </c>
-      <c r="C106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="333" t="s">
-        <v>392</v>
-      </c>
-      <c r="B107" s="334">
-        <f>B105+B106</f>
-        <v>480075.32673118811</v>
-      </c>
       <c r="C107" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="333" t="s">
+        <v>392</v>
+      </c>
+      <c r="B108" s="334">
+        <f>B106+B107</f>
+        <v>480075.32673118811</v>
+      </c>
+      <c r="C108" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="B108" s="334">
+      <c r="B109" s="334">
         <f>GECtwrdata!O26</f>
         <v>775097.181771609</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" t="s">
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
         <v>348</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H110" t="s">
         <v>320</v>
       </c>
-      <c r="I109" s="184"/>
-      <c r="J109" s="184"/>
-    </row>
-    <row r="110" spans="1:11" ht="14.25">
-      <c r="A110" s="185"/>
-      <c r="B110" s="186"/>
-      <c r="C110" s="187" t="s">
+      <c r="I110" s="184"/>
+      <c r="J110" s="184"/>
+    </row>
+    <row r="111" spans="1:11" ht="14.25">
+      <c r="A111" s="185"/>
+      <c r="B111" s="186"/>
+      <c r="C111" s="187" t="s">
         <v>321</v>
       </c>
-      <c r="D110" s="188"/>
-      <c r="E110" s="186"/>
-      <c r="F110" s="189" t="s">
+      <c r="D111" s="188"/>
+      <c r="E111" s="186"/>
+      <c r="F111" s="189" t="s">
         <v>322</v>
       </c>
-      <c r="G110" s="190"/>
-      <c r="H110" s="185"/>
-      <c r="I110" s="191" t="s">
+      <c r="G111" s="190"/>
+      <c r="H111" s="185"/>
+      <c r="I111" s="191" t="s">
         <v>333</v>
       </c>
-      <c r="J110" s="191" t="s">
+      <c r="J111" s="191" t="s">
         <v>334</v>
       </c>
-      <c r="K110" s="192" t="s">
+      <c r="K111" s="192" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="13.5">
-      <c r="A111" s="193" t="s">
+    <row r="112" spans="1:11" ht="13.5">
+      <c r="A112" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="B111" s="176" t="s">
+      <c r="B112" s="176" t="s">
         <v>336</v>
       </c>
-      <c r="C111" s="176" t="s">
+      <c r="C112" s="176" t="s">
         <v>337</v>
       </c>
-      <c r="D111" s="177" t="s">
+      <c r="D112" s="177" t="s">
         <v>338</v>
       </c>
-      <c r="E111" s="177" t="s">
+      <c r="E112" s="177" t="s">
         <v>339</v>
       </c>
-      <c r="F111" s="176" t="s">
+      <c r="F112" s="176" t="s">
         <v>340</v>
       </c>
-      <c r="G111" s="194" t="s">
+      <c r="G112" s="194" t="s">
         <v>341</v>
       </c>
-      <c r="H111" s="193" t="s">
+      <c r="H112" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="I111" s="176" t="s">
+      <c r="I112" s="176" t="s">
         <v>342</v>
       </c>
-      <c r="J111" s="176" t="s">
+      <c r="J112" s="176" t="s">
         <v>342</v>
       </c>
-      <c r="K111" s="195" t="s">
+      <c r="K112" s="195" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="12">
-      <c r="A112" s="285">
+    <row r="113" spans="1:13" ht="12">
+      <c r="A113" s="285">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B112" s="286">
+      <c r="B113" s="286">
         <v>1744.3133922079908</v>
       </c>
-      <c r="C112" s="287">
+      <c r="C113" s="287">
         <v>29122938.297288962</v>
-      </c>
-      <c r="D112" s="288">
-        <v>3620</v>
-      </c>
-      <c r="E112" s="289">
-        <v>3620</v>
-      </c>
-      <c r="F112" s="287">
-        <v>29122938.297288962</v>
-      </c>
-      <c r="G112" s="290">
-        <v>3620</v>
-      </c>
-      <c r="H112" s="291">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I112" s="292">
-        <v>1.2430064449702122E-4</v>
-      </c>
-      <c r="J112" s="292">
-        <v>1.2430064449702122E-4</v>
-      </c>
-      <c r="K112" s="293">
-        <v>1.2430064449702122E-4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="12">
-      <c r="A113" s="294">
-        <v>0.25</v>
-      </c>
-      <c r="B113" s="286">
-        <v>820.83943163266395</v>
-      </c>
-      <c r="C113" s="287">
-        <v>18532000</v>
       </c>
       <c r="D113" s="288">
         <v>3620</v>
       </c>
       <c r="E113" s="289">
-        <v>3831.1603891089389</v>
+        <v>3620</v>
       </c>
       <c r="F113" s="287">
-        <v>3703647.8899118411</v>
+        <v>29122938.297288962</v>
       </c>
       <c r="G113" s="290">
-        <v>975.93034057089426</v>
-      </c>
-      <c r="H113" s="295">
-        <v>0.25</v>
-      </c>
-      <c r="I113" s="287">
-        <v>1.9533779408590547E-4</v>
-      </c>
-      <c r="J113" s="287">
-        <v>2.0673215999940313E-4</v>
-      </c>
-      <c r="K113" s="296">
-        <v>2.6350516290416708E-4</v>
+        <v>3620</v>
+      </c>
+      <c r="H113" s="291">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I113" s="292">
+        <v>1.2430064449702122E-4</v>
+      </c>
+      <c r="J113" s="292">
+        <v>1.2430064449702122E-4</v>
+      </c>
+      <c r="K113" s="293">
+        <v>1.2430064449702122E-4</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="12">
       <c r="A114" s="294">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B114" s="286">
-        <v>461.4693354399289</v>
+        <v>820.83943163266395</v>
       </c>
       <c r="C114" s="287">
-        <v>7977800</v>
+        <v>18532000</v>
       </c>
       <c r="D114" s="288">
         <v>3620</v>
       </c>
       <c r="E114" s="289">
-        <v>3770.5998818939092</v>
+        <v>3831.1603891089389</v>
       </c>
       <c r="F114" s="287">
-        <v>954719.98330712854</v>
+        <v>3703647.8899118411</v>
       </c>
       <c r="G114" s="290">
         <v>975.93034057089426</v>
       </c>
       <c r="H114" s="295">
+        <v>0.25</v>
+      </c>
+      <c r="I114" s="287">
+        <v>1.9533779408590547E-4</v>
+      </c>
+      <c r="J114" s="287">
+        <v>2.0673215999940313E-4</v>
+      </c>
+      <c r="K114" s="296">
+        <v>2.6350516290416708E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="12">
+      <c r="A115" s="294">
         <v>0.5</v>
       </c>
-      <c r="I114" s="287">
+      <c r="B115" s="286">
+        <v>461.4693354399289</v>
+      </c>
+      <c r="C115" s="287">
+        <v>7977800</v>
+      </c>
+      <c r="D115" s="288">
+        <v>3620</v>
+      </c>
+      <c r="E115" s="289">
+        <v>3770.5998818939092</v>
+      </c>
+      <c r="F115" s="287">
+        <v>954719.98330712854</v>
+      </c>
+      <c r="G115" s="290">
+        <v>975.93034057089426</v>
+      </c>
+      <c r="H115" s="295">
+        <v>0.5</v>
+      </c>
+      <c r="I115" s="287">
         <v>4.537591817292988E-4</v>
       </c>
-      <c r="J114" s="287">
+      <c r="J115" s="287">
         <v>4.7263655166761628E-4</v>
       </c>
-      <c r="K114" s="296">
+      <c r="K115" s="296">
         <v>1.0222163122534562E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="12">
-      <c r="A115" s="297">
+    <row r="116" spans="1:13" ht="12">
+      <c r="A116" s="297">
         <v>0.75</v>
       </c>
-      <c r="B115" s="298">
+      <c r="B116" s="298">
         <v>280.18826091065512</v>
       </c>
-      <c r="C115" s="299">
+      <c r="C116" s="299">
         <v>2056600</v>
       </c>
-      <c r="D115" s="300">
+      <c r="D116" s="300">
         <v>3620</v>
       </c>
-      <c r="E115" s="301">
+      <c r="E116" s="301">
         <v>3790.393874645878</v>
       </c>
-      <c r="F115" s="299">
+      <c r="F116" s="299">
         <v>332680.49931206577</v>
       </c>
-      <c r="G115" s="302">
+      <c r="G116" s="302">
         <v>975.93034057089426</v>
       </c>
-      <c r="H115" s="303">
+      <c r="H116" s="303">
         <v>0.75</v>
       </c>
-      <c r="I115" s="299">
+      <c r="I116" s="299">
         <v>1.7601867159389283E-3</v>
       </c>
-      <c r="J115" s="299">
+      <c r="J116" s="299">
         <v>1.8430389354497122E-3</v>
       </c>
-      <c r="K115" s="304">
+      <c r="K116" s="304">
         <v>2.9335363587254869E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
-      <c r="A117" t="s">
+    <row r="118" spans="1:13">
+      <c r="A118" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="13.5">
-      <c r="A118" s="185"/>
-      <c r="B118" s="189" t="s">
+    <row r="119" spans="1:13" ht="13.5">
+      <c r="A119" s="185"/>
+      <c r="B119" s="189" t="s">
         <v>88</v>
       </c>
-      <c r="C118" s="189" t="s">
+      <c r="C119" s="189" t="s">
         <v>323</v>
       </c>
-      <c r="D118" s="189" t="s">
+      <c r="D119" s="189" t="s">
         <v>89</v>
       </c>
-      <c r="E118" s="196" t="s">
+      <c r="E119" s="196" t="s">
         <v>324</v>
       </c>
-      <c r="F118" s="189" t="s">
+      <c r="F119" s="189" t="s">
         <v>325</v>
       </c>
-      <c r="G118" s="189" t="s">
+      <c r="G119" s="189" t="s">
         <v>326</v>
       </c>
-      <c r="H118" s="189" t="s">
+      <c r="H119" s="189" t="s">
         <v>327</v>
       </c>
-      <c r="I118" s="189" t="s">
+      <c r="I119" s="189" t="s">
         <v>343</v>
       </c>
-      <c r="J118" s="189" t="s">
+      <c r="J119" s="189" t="s">
         <v>344</v>
       </c>
-      <c r="K118" s="189" t="s">
+      <c r="K119" s="189" t="s">
         <v>113</v>
       </c>
-      <c r="L118" s="189" t="s">
+      <c r="L119" s="189" t="s">
         <v>112</v>
       </c>
-      <c r="M118" s="197" t="s">
+      <c r="M119" s="197" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="13.5">
-      <c r="A119" s="193" t="s">
+    <row r="120" spans="1:13" ht="13.5">
+      <c r="A120" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="B119" s="176" t="s">
+      <c r="B120" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="C119" s="176" t="s">
+      <c r="C120" s="176" t="s">
         <v>328</v>
       </c>
-      <c r="D119" s="176" t="s">
+      <c r="D120" s="176" t="s">
         <v>329</v>
       </c>
-      <c r="E119" s="176" t="s">
+      <c r="E120" s="176" t="s">
         <v>330</v>
       </c>
-      <c r="F119" s="176" t="s">
+      <c r="F120" s="176" t="s">
         <v>330</v>
       </c>
-      <c r="G119" s="176" t="s">
+      <c r="G120" s="176" t="s">
         <v>330</v>
       </c>
-      <c r="H119" s="176" t="s">
+      <c r="H120" s="176" t="s">
         <v>331</v>
       </c>
-      <c r="I119" s="176" t="s">
+      <c r="I120" s="176" t="s">
         <v>346</v>
       </c>
-      <c r="J119" s="176" t="s">
+      <c r="J120" s="176" t="s">
         <v>346</v>
       </c>
-      <c r="K119" s="176" t="s">
+      <c r="K120" s="176" t="s">
         <v>332</v>
       </c>
-      <c r="L119" s="176" t="s">
+      <c r="L120" s="176" t="s">
         <v>346</v>
       </c>
-      <c r="M119" s="195" t="s">
+      <c r="M120" s="195" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="305">
+    <row r="121" spans="1:13">
+      <c r="A121" s="305">
         <v>0.05</v>
       </c>
-      <c r="B120" s="306">
+      <c r="B121" s="306">
         <v>3.456438912877827</v>
       </c>
-      <c r="C120" s="307">
+      <c r="C121" s="307">
         <v>1</v>
       </c>
-      <c r="D120" s="307" t="s">
-        <v>378</v>
-      </c>
-      <c r="E120" s="346">
-        <v>0.25</v>
-      </c>
-      <c r="F120" s="306">
-        <v>0.5</v>
-      </c>
-      <c r="G120" s="306">
-        <v>0.5</v>
-      </c>
-      <c r="H120" s="309">
-        <v>3708.4116472912633</v>
-      </c>
-      <c r="I120" s="310">
-        <v>63720689411.753181</v>
-      </c>
-      <c r="J120" s="310">
-        <v>63720689411.753181</v>
-      </c>
-      <c r="K120" s="310">
-        <v>42582928810.746231</v>
-      </c>
-      <c r="L120" s="310">
-        <v>22057695577.548672</v>
-      </c>
-      <c r="M120" s="311">
-        <v>11076.026331706065</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="285">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B121" s="312">
-        <v>3.4564389128778257</v>
-      </c>
-      <c r="C121" s="313">
-        <v>1</v>
-      </c>
-      <c r="D121" s="313" t="s">
+      <c r="D121" s="307" t="s">
         <v>378</v>
       </c>
       <c r="E121" s="346">
         <v>0.25</v>
       </c>
-      <c r="F121" s="312">
+      <c r="F121" s="306">
         <v>0.5</v>
       </c>
-      <c r="G121" s="312">
+      <c r="G121" s="306">
         <v>0.5</v>
       </c>
-      <c r="H121" s="314">
+      <c r="H121" s="309">
+        <v>3708.4116472912633</v>
+      </c>
+      <c r="I121" s="310">
+        <v>63720689411.753181</v>
+      </c>
+      <c r="J121" s="310">
+        <v>63720689411.753181</v>
+      </c>
+      <c r="K121" s="310">
+        <v>42582928810.746231</v>
+      </c>
+      <c r="L121" s="310">
+        <v>22057695577.548672</v>
+      </c>
+      <c r="M121" s="311">
+        <v>11076.026331706065</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="285">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B122" s="312">
+        <v>3.4564389128778257</v>
+      </c>
+      <c r="C122" s="313">
+        <v>1</v>
+      </c>
+      <c r="D122" s="313" t="s">
+        <v>378</v>
+      </c>
+      <c r="E122" s="346">
+        <v>0.25</v>
+      </c>
+      <c r="F122" s="312">
+        <v>0.5</v>
+      </c>
+      <c r="G122" s="312">
+        <v>0.5</v>
+      </c>
+      <c r="H122" s="314">
         <v>622.32317170970805</v>
       </c>
-      <c r="I121" s="315">
+      <c r="I122" s="315">
         <v>14036801421.634676</v>
       </c>
-      <c r="J121" s="315">
+      <c r="J122" s="315">
         <v>14036801421.634676</v>
       </c>
-      <c r="K121" s="315">
+      <c r="K122" s="315">
         <v>9469182296.3330479</v>
       </c>
-      <c r="L121" s="315">
+      <c r="L122" s="315">
         <v>4904988079.2989025</v>
       </c>
-      <c r="M121" s="316">
+      <c r="M122" s="316">
         <v>1858.7116243479393</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="294">
-        <v>0.25</v>
-      </c>
-      <c r="B122" s="312">
-        <v>5.11988823977648</v>
-      </c>
-      <c r="C122" s="313">
-        <v>0.33</v>
-      </c>
-      <c r="D122" s="313">
-        <v>4.4774839135584772</v>
-      </c>
-      <c r="E122" s="308">
-        <v>0.34</v>
-      </c>
-      <c r="F122" s="312">
-        <v>0.40155924806474785</v>
-      </c>
-      <c r="G122" s="312">
-        <v>0.32671302753123166</v>
-      </c>
-      <c r="H122" s="314">
-        <v>684.40053797312055</v>
-      </c>
-      <c r="I122" s="315">
-        <v>4203286116.1718955</v>
-      </c>
-      <c r="J122" s="315">
-        <v>12611588173.054085</v>
-      </c>
-      <c r="K122" s="317">
-        <v>9141425662.3435383</v>
-      </c>
-      <c r="L122" s="317">
-        <v>145303921.84035307</v>
-      </c>
-      <c r="M122" s="318">
-        <v>959.83453034575007</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="294">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B123" s="312">
-        <v>3.9255778511557029</v>
+        <v>5.11988823977648</v>
       </c>
       <c r="C123" s="313">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="D123" s="313">
-        <v>8.9761837714735897</v>
+        <v>4.4774839135584772</v>
       </c>
       <c r="E123" s="308">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="F123" s="312">
-        <v>0.37588941559495792</v>
+        <v>0.40155924806474785</v>
       </c>
       <c r="G123" s="312">
-        <v>0.32336301372350362</v>
+        <v>0.32671302753123166</v>
       </c>
       <c r="H123" s="314">
-        <v>516.27028971966695</v>
+        <v>684.40053797312055</v>
       </c>
       <c r="I123" s="315">
-        <v>1017265797.32573</v>
+        <v>4203286116.1718955</v>
       </c>
       <c r="J123" s="315">
-        <v>2540323261.1101747</v>
+        <v>12611588173.054085</v>
       </c>
       <c r="K123" s="317">
-        <v>6898689157.7993288</v>
+        <v>9141425662.3435383</v>
       </c>
       <c r="L123" s="317">
-        <v>57861076.091574006</v>
+        <v>145303921.84035307</v>
       </c>
       <c r="M123" s="318">
-        <v>304.44012217310359</v>
+        <v>959.83453034575007</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="294">
+        <v>0.5</v>
+      </c>
+      <c r="B124" s="312">
+        <v>3.9255778511557029</v>
+      </c>
+      <c r="C124" s="313">
+        <v>0.24</v>
+      </c>
+      <c r="D124" s="313">
+        <v>8.9761837714735897</v>
+      </c>
+      <c r="E124" s="308">
+        <v>0.31</v>
+      </c>
+      <c r="F124" s="312">
+        <v>0.37588941559495792</v>
+      </c>
+      <c r="G124" s="312">
+        <v>0.32336301372350362</v>
+      </c>
+      <c r="H124" s="314">
+        <v>516.27028971966695</v>
+      </c>
+      <c r="I124" s="315">
+        <v>1017265797.32573</v>
+      </c>
+      <c r="J124" s="315">
+        <v>2540323261.1101747</v>
+      </c>
+      <c r="K124" s="317">
+        <v>6898689157.7993288</v>
+      </c>
+      <c r="L124" s="317">
+        <v>57861076.091574006</v>
+      </c>
+      <c r="M124" s="318">
+        <v>304.44012217310359</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="294">
         <v>0.75</v>
       </c>
-      <c r="B124" s="312">
+      <c r="B125" s="312">
         <v>2.7312674625349254</v>
       </c>
-      <c r="C124" s="313">
+      <c r="C125" s="313">
         <v>0.21</v>
       </c>
-      <c r="D124" s="313">
+      <c r="D125" s="313">
         <v>8.8011309411295144</v>
       </c>
-      <c r="E124" s="308">
+      <c r="E125" s="308">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F124" s="312">
+      <c r="F125" s="312">
         <v>0.38745755696890288</v>
       </c>
-      <c r="G124" s="312">
+      <c r="G125" s="312">
         <v>0.3261326391065098</v>
       </c>
-      <c r="H124" s="314">
+      <c r="H125" s="314">
         <v>225.15720776799671</v>
       </c>
-      <c r="I124" s="315">
+      <c r="I125" s="315">
         <v>159223885.56322324</v>
       </c>
-      <c r="J124" s="315">
+      <c r="J125" s="315">
         <v>610414304.9755882</v>
       </c>
-      <c r="K124" s="317">
+      <c r="K125" s="317">
         <v>2907294183.0127583</v>
       </c>
-      <c r="L124" s="317">
+      <c r="L125" s="317">
         <v>11605234.21344462</v>
       </c>
-      <c r="M124" s="318">
+      <c r="M125" s="318">
         <v>65.910007513233523</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="319">
+    <row r="126" spans="1:13">
+      <c r="A126" s="319">
         <v>1</v>
       </c>
-      <c r="B125" s="320">
+      <c r="B126" s="320">
         <v>1.6565913131826264</v>
       </c>
-      <c r="C125" s="321">
+      <c r="C126" s="321">
         <v>0.16</v>
       </c>
-      <c r="D125" s="321">
-        <v>0</v>
-      </c>
-      <c r="E125" s="320">
+      <c r="D126" s="321">
+        <v>0</v>
+      </c>
+      <c r="E126" s="320">
         <v>0.25</v>
       </c>
-      <c r="F125" s="320">
+      <c r="F126" s="320">
         <v>0.49249999999999999</v>
       </c>
-      <c r="G125" s="320">
+      <c r="G126" s="320">
         <v>0.35780000000000001</v>
       </c>
-      <c r="H125" s="322">
+      <c r="H126" s="322">
         <v>21.986079158927165</v>
       </c>
-      <c r="I125" s="323">
+      <c r="I126" s="323">
         <v>1559775.5371830396</v>
       </c>
-      <c r="J125" s="323">
+      <c r="J126" s="323">
         <v>53624369.654070929</v>
       </c>
-      <c r="K125" s="324">
+      <c r="K126" s="324">
         <v>235713983.59357151</v>
       </c>
-      <c r="L125" s="324">
+      <c r="L126" s="324">
         <v>1237516.5813282721</v>
       </c>
-      <c r="M125" s="325">
+      <c r="M126" s="325">
         <v>5.4492188866567579</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
-      <c r="B127" s="18" t="s">
+    <row r="128" spans="1:13">
+      <c r="B128" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="C127" s="200"/>
-      <c r="D127" t="s">
+      <c r="C128" s="200"/>
+      <c r="D128" t="s">
         <v>351</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H128" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="185"/>
+      <c r="B131" s="231" t="s">
+        <v>364</v>
+      </c>
+      <c r="C131" s="352" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="185"/>
-      <c r="B130" s="231" t="s">
-        <v>364</v>
-      </c>
-      <c r="C130" s="370" t="s">
-        <v>412</v>
-      </c>
-      <c r="D130" s="190"/>
-    </row>
-    <row r="131" spans="1:7" ht="12">
-      <c r="A131" s="193" t="s">
+      <c r="D131" s="190"/>
+    </row>
+    <row r="132" spans="1:7" ht="12">
+      <c r="A132" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="B131" s="234" t="s">
+      <c r="B132" s="234" t="s">
         <v>367</v>
       </c>
-      <c r="C131" s="226"/>
-      <c r="D131" s="227"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="237">
-        <f t="shared" ref="A132:A137" si="0">A120</f>
+      <c r="C132" s="226"/>
+      <c r="D132" s="227"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="237">
+        <f t="shared" ref="A133:A138" si="0">A121</f>
         <v>0.05</v>
       </c>
-      <c r="B132" s="257">
+      <c r="B133" s="257">
         <v>10.5</v>
       </c>
-      <c r="C132" s="326"/>
-      <c r="D132" s="342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="242">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B133" s="258">
-        <v>10.5</v>
-      </c>
-      <c r="C133" s="327"/>
-      <c r="D133" s="344">
+      <c r="C133" s="326"/>
+      <c r="D133" s="342">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="242">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="B134" s="329">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B134" s="258">
         <v>10.5</v>
       </c>
-      <c r="C134" s="371"/>
+      <c r="C134" s="327"/>
       <c r="D134" s="344">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="242">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B135" s="329">
-        <v>2.5</v>
-      </c>
-      <c r="C135" s="327"/>
+        <v>10.5</v>
+      </c>
+      <c r="C135" s="353"/>
       <c r="D135" s="344">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="242">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B136" s="329">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C136" s="327"/>
       <c r="D136" s="344">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="242">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="B137" s="329">
+        <v>0</v>
+      </c>
+      <c r="C137" s="327"/>
+      <c r="D137" s="344">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="248">
+    <row r="138" spans="1:7">
+      <c r="A138" s="248">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B137" s="330">
+      <c r="B138" s="330">
         <v>-0.6</v>
       </c>
-      <c r="C137" s="328"/>
-      <c r="D137" s="372">
+      <c r="C138" s="328"/>
+      <c r="D138" s="354">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="12">
-      <c r="A139" s="337" t="s">
+    <row r="140" spans="1:7" ht="12">
+      <c r="A140" s="337" t="s">
         <v>401</v>
       </c>
-      <c r="B139" s="338" t="s">
+      <c r="B140" s="338" t="s">
         <v>402</v>
       </c>
-      <c r="C139" s="339"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="340">
-        <v>1</v>
-      </c>
-      <c r="B140" s="341"/>
-      <c r="C140" s="342" t="s">
-        <v>379</v>
-      </c>
-      <c r="E140" s="373"/>
+      <c r="C140" s="339"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="340">
-        <v>2</v>
-      </c>
-      <c r="B141" s="343"/>
-      <c r="C141" s="344" t="s">
-        <v>413</v>
-      </c>
-      <c r="E141" s="366" t="s">
-        <v>414</v>
-      </c>
-      <c r="F141" s="367"/>
-      <c r="G141" s="367"/>
+        <v>1</v>
+      </c>
+      <c r="B141" s="341"/>
+      <c r="C141" s="342" t="s">
+        <v>379</v>
+      </c>
+      <c r="E141" s="355"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="340">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B142" s="343"/>
       <c r="C142" s="344" t="s">
+        <v>412</v>
+      </c>
+      <c r="E142" s="348" t="s">
+        <v>413</v>
+      </c>
+      <c r="F142" s="349"/>
+      <c r="G142" s="349"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="340">
+        <v>3</v>
+      </c>
+      <c r="B143" s="343"/>
+      <c r="C143" s="344" t="s">
+        <v>414</v>
+      </c>
+      <c r="E143" s="348" t="s">
+        <v>413</v>
+      </c>
+      <c r="F143" s="349"/>
+      <c r="G143" s="349"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="345">
+        <v>4</v>
+      </c>
+      <c r="B144" s="356"/>
+      <c r="C144" s="354" t="s">
         <v>415</v>
       </c>
-      <c r="E142" s="366" t="s">
-        <v>414</v>
-      </c>
-      <c r="F142" s="367"/>
-      <c r="G142" s="367"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="345">
-        <v>4</v>
-      </c>
-      <c r="B143" s="374"/>
-      <c r="C143" s="372" t="s">
+      <c r="E144" s="348" t="s">
+        <v>413</v>
+      </c>
+      <c r="F144" s="349"/>
+      <c r="G144" s="349"/>
+    </row>
+    <row r="145" spans="1:6" ht="12" thickBot="1"/>
+    <row r="146" spans="1:6" ht="12" thickBot="1">
+      <c r="A146" s="379" t="s">
+        <v>403</v>
+      </c>
+      <c r="B146" s="381"/>
+      <c r="C146" s="382"/>
+      <c r="E146" s="348" t="s">
+        <v>404</v>
+      </c>
+      <c r="F146" s="349"/>
+    </row>
+    <row r="147" spans="1:6" ht="12" thickBot="1">
+      <c r="A147" s="357" t="s">
+        <v>35</v>
+      </c>
+      <c r="B147" s="358" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" s="358" t="s">
+        <v>37</v>
+      </c>
+      <c r="E147" s="348" t="s">
+        <v>404</v>
+      </c>
+      <c r="F147" s="349"/>
+    </row>
+    <row r="148" spans="1:6" ht="12" thickBot="1">
+      <c r="A148" s="359">
+        <v>3.882E-2</v>
+      </c>
+      <c r="B148" s="360">
+        <v>3.882E-2</v>
+      </c>
+      <c r="C148" s="361">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E148" s="348" t="s">
+        <v>404</v>
+      </c>
+      <c r="F148" s="349"/>
+    </row>
+    <row r="149" spans="1:6" ht="12" thickBot="1"/>
+    <row r="150" spans="1:6" ht="12" thickBot="1">
+      <c r="A150" s="379" t="s">
         <v>416</v>
       </c>
-      <c r="E143" s="366" t="s">
-        <v>414</v>
-      </c>
-      <c r="F143" s="367"/>
-      <c r="G143" s="367"/>
-    </row>
-    <row r="144" spans="1:7" ht="12" thickBot="1"/>
-    <row r="145" spans="1:6" ht="12" thickBot="1">
-      <c r="A145" s="348" t="s">
-        <v>403</v>
-      </c>
-      <c r="B145" s="349"/>
-      <c r="C145" s="350"/>
-      <c r="E145" s="366" t="s">
-        <v>405</v>
-      </c>
-      <c r="F145" s="367"/>
-    </row>
-    <row r="146" spans="1:6" ht="12" thickBot="1">
-      <c r="A146" s="375" t="s">
-        <v>35</v>
-      </c>
-      <c r="B146" s="376" t="s">
-        <v>36</v>
-      </c>
-      <c r="C146" s="376" t="s">
-        <v>37</v>
-      </c>
-      <c r="E146" s="366" t="s">
-        <v>405</v>
-      </c>
-      <c r="F146" s="367"/>
-    </row>
-    <row r="147" spans="1:6" ht="12" thickBot="1">
-      <c r="A147" s="377">
-        <v>3.882E-2</v>
-      </c>
-      <c r="B147" s="378">
-        <v>3.882E-2</v>
-      </c>
-      <c r="C147" s="379">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E147" s="366" t="s">
-        <v>405</v>
-      </c>
-      <c r="F147" s="367"/>
-    </row>
-    <row r="148" spans="1:6" ht="12" thickBot="1"/>
-    <row r="149" spans="1:6" ht="12" thickBot="1">
-      <c r="A149" s="348" t="s">
-        <v>417</v>
-      </c>
-      <c r="B149" s="380"/>
-      <c r="C149" s="381"/>
-      <c r="E149" s="366" t="s">
-        <v>405</v>
-      </c>
-      <c r="F149" s="367"/>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="382" t="s">
+      <c r="B150" s="380"/>
+      <c r="C150" s="362"/>
+      <c r="E150" s="348" t="s">
+        <v>404</v>
+      </c>
+      <c r="F150" s="349"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="363" t="s">
         <v>50</v>
       </c>
-      <c r="B150" s="383">
+      <c r="B151" s="364">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="C150" s="384"/>
-      <c r="E150" s="366" t="s">
-        <v>405</v>
-      </c>
-      <c r="F150" s="367"/>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="385" t="s">
+      <c r="C151" s="365"/>
+      <c r="E151" s="348" t="s">
+        <v>404</v>
+      </c>
+      <c r="F151" s="349"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="366" t="s">
         <v>51</v>
       </c>
-      <c r="B151" s="386">
+      <c r="B152" s="367">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="C151" s="387"/>
-      <c r="E151" s="366" t="s">
-        <v>405</v>
-      </c>
-      <c r="F151" s="367"/>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="388" t="s">
+      <c r="C152" s="368"/>
+      <c r="E152" s="348" t="s">
+        <v>404</v>
+      </c>
+      <c r="F152" s="349"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="369" t="s">
         <v>52</v>
       </c>
-      <c r="B152" s="386">
+      <c r="B153" s="367">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="E152" s="366" t="s">
-        <v>405</v>
-      </c>
-      <c r="F152" s="367"/>
-    </row>
-    <row r="153" spans="1:6" ht="12" thickBot="1">
-      <c r="A153" s="389" t="s">
+      <c r="E153" s="348" t="s">
+        <v>404</v>
+      </c>
+      <c r="F153" s="349"/>
+    </row>
+    <row r="154" spans="1:6" ht="12" thickBot="1">
+      <c r="A154" s="370" t="s">
         <v>53</v>
       </c>
-      <c r="B153" s="390">
+      <c r="B154" s="371">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="E153" s="366" t="s">
-        <v>405</v>
-      </c>
-      <c r="F153" s="367"/>
+      <c r="E154" s="348" t="s">
+        <v>404</v>
+      </c>
+      <c r="F154" s="349"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A146:C146"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C1:H1"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D18:F18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7552,10 +7575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7578,422 +7601,405 @@
         <v>128</v>
       </c>
       <c r="W1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <f>'Main Page'!B52</f>
+        <f>'Main Page'!B53</f>
         <v>6.4</v>
       </c>
       <c r="W2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="str">
-        <f>'Main Page'!C140</f>
+        <f>'Main Page'!C141</f>
         <v>cylinder</v>
       </c>
       <c r="B3" t="str">
-        <f>'Main Page'!C141</f>
+        <f>'Main Page'!C142</f>
         <v>s818_2703.dat</v>
       </c>
       <c r="C3" t="str">
-        <f>'Main Page'!C142</f>
+        <f>'Main Page'!C143</f>
         <v>s825_2103.dat</v>
       </c>
       <c r="D3" t="str">
-        <f>'Main Page'!C143</f>
+        <f>'Main Page'!C144</f>
         <v>s826_1603.dat</v>
       </c>
       <c r="W3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
-        <f>'Main Page'!A147*100</f>
+        <f>'Main Page'!A148*100</f>
         <v>3.8820000000000001</v>
       </c>
       <c r="B4">
-        <f>'Main Page'!B147*100</f>
+        <f>'Main Page'!B148*100</f>
         <v>3.8820000000000001</v>
       </c>
       <c r="C4" s="103">
-        <f>'Main Page'!C147*100</f>
+        <f>'Main Page'!C148*100</f>
         <v>5.8999999999999995</v>
       </c>
-      <c r="W4" s="391" t="s">
+      <c r="W4" s="372" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="373">
+        <v>0.05</v>
+      </c>
+      <c r="B5" s="373">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C5" s="373">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="373">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="373">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="373">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="373">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="373">
+        <v>0.35</v>
+      </c>
+      <c r="I5" s="373">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="373">
+        <v>0.45</v>
+      </c>
+      <c r="K5" s="373">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="373">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M5" s="373">
+        <v>0.6</v>
+      </c>
+      <c r="N5" s="373">
+        <v>0.65</v>
+      </c>
+      <c r="O5" s="373">
+        <v>0.7</v>
+      </c>
+      <c r="P5" s="373">
+        <v>0.75</v>
+      </c>
+      <c r="Q5" s="373">
+        <v>0.8</v>
+      </c>
+      <c r="R5" s="373">
+        <v>0.85</v>
+      </c>
+      <c r="S5" s="373">
+        <v>0.9</v>
+      </c>
+      <c r="T5" s="373">
+        <v>0.95</v>
+      </c>
+      <c r="U5" s="373">
+        <v>1</v>
+      </c>
+      <c r="W5" s="372" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="392">
+    <row r="6" spans="1:23">
+      <c r="A6" s="374">
         <v>0.05</v>
       </c>
-      <c r="B5" s="392">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C5" s="392">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="392">
-        <v>0.15</v>
-      </c>
-      <c r="E5" s="392">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="392">
-        <v>0.25</v>
-      </c>
-      <c r="G5" s="392">
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="392">
-        <v>0.35</v>
-      </c>
-      <c r="I5" s="392">
-        <v>0.4</v>
-      </c>
-      <c r="J5" s="392">
-        <v>0.45</v>
-      </c>
-      <c r="K5" s="392">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="392">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M5" s="392">
-        <v>0.6</v>
-      </c>
-      <c r="N5" s="392">
-        <v>0.65</v>
-      </c>
-      <c r="O5" s="392">
-        <v>0.7</v>
-      </c>
-      <c r="P5" s="392">
-        <v>0.75</v>
-      </c>
-      <c r="Q5" s="392">
-        <v>0.8</v>
-      </c>
-      <c r="R5" s="392">
-        <v>0.85</v>
-      </c>
-      <c r="S5" s="392">
-        <v>0.9</v>
-      </c>
-      <c r="T5" s="392">
-        <v>0.95</v>
-      </c>
-      <c r="U5" s="392">
+      <c r="B6" s="374">
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="C6" s="374">
+        <v>0.17666666666666664</v>
+      </c>
+      <c r="D6" s="374">
+        <v>0.24</v>
+      </c>
+      <c r="E6" s="374">
+        <v>0.30333333333333329</v>
+      </c>
+      <c r="F6" s="374">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="G6" s="374">
+        <v>0.43</v>
+      </c>
+      <c r="H6" s="374">
+        <v>0.49333333333333329</v>
+      </c>
+      <c r="I6" s="374">
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="J6" s="374">
+        <v>0.62</v>
+      </c>
+      <c r="K6" s="374">
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="L6" s="374">
+        <v>0.74666666666666659</v>
+      </c>
+      <c r="M6" s="374">
+        <v>0.81</v>
+      </c>
+      <c r="N6" s="374">
+        <v>0.87333333333333341</v>
+      </c>
+      <c r="O6" s="374">
+        <v>0.93666666666666665</v>
+      </c>
+      <c r="P6" s="374">
         <v>1</v>
       </c>
-      <c r="W5" s="391" t="s">
+      <c r="Q6" s="101"/>
+      <c r="W6" s="372" t="s">
         <v>422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="393">
-        <v>0.05</v>
-      </c>
-      <c r="B6" s="393">
-        <v>0.11333333333333333</v>
-      </c>
-      <c r="C6" s="393">
-        <v>0.17666666666666664</v>
-      </c>
-      <c r="D6" s="393">
-        <v>0.24</v>
-      </c>
-      <c r="E6" s="393">
-        <v>0.30333333333333329</v>
-      </c>
-      <c r="F6" s="393">
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="G6" s="393">
-        <v>0.43</v>
-      </c>
-      <c r="H6" s="393">
-        <v>0.49333333333333329</v>
-      </c>
-      <c r="I6" s="393">
-        <v>0.55666666666666664</v>
-      </c>
-      <c r="J6" s="393">
-        <v>0.62</v>
-      </c>
-      <c r="K6" s="393">
-        <v>0.68333333333333335</v>
-      </c>
-      <c r="L6" s="393">
-        <v>0.74666666666666659</v>
-      </c>
-      <c r="M6" s="393">
-        <v>0.81</v>
-      </c>
-      <c r="N6" s="393">
-        <v>0.87333333333333341</v>
-      </c>
-      <c r="O6" s="393">
-        <v>0.93666666666666665</v>
-      </c>
-      <c r="P6" s="393">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="101"/>
-      <c r="W6" s="391" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7">
-        <f>'Main Page'!B33</f>
+        <f>'Main Page'!B34</f>
         <v>2.6</v>
       </c>
-      <c r="B7" s="394"/>
-      <c r="C7" s="394"/>
-      <c r="D7" s="394"/>
-      <c r="E7" s="394"/>
-      <c r="F7" s="394"/>
-      <c r="G7" s="394"/>
-      <c r="H7" s="394"/>
-      <c r="I7" s="394"/>
-      <c r="J7" s="394"/>
-      <c r="K7" s="394"/>
-      <c r="L7" s="394"/>
-      <c r="M7" s="394"/>
-      <c r="N7" s="394"/>
-      <c r="O7" s="394"/>
-      <c r="P7" s="394"/>
+      <c r="B7" s="375"/>
+      <c r="C7" s="375"/>
+      <c r="D7" s="375"/>
+      <c r="E7" s="375"/>
+      <c r="F7" s="375"/>
+      <c r="G7" s="375"/>
+      <c r="H7" s="375"/>
+      <c r="I7" s="375"/>
+      <c r="J7" s="375"/>
+      <c r="K7" s="375"/>
+      <c r="L7" s="375"/>
+      <c r="M7" s="375"/>
+      <c r="N7" s="375"/>
+      <c r="O7" s="375"/>
+      <c r="P7" s="375"/>
       <c r="Q7" s="101"/>
-      <c r="W7" s="391" t="s">
-        <v>424</v>
+      <c r="W7" s="372" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8">
-        <f>'Main Page'!B34</f>
+        <f>'Main Page'!B35</f>
         <v>90</v>
       </c>
-      <c r="B8" s="394"/>
-      <c r="C8" s="394"/>
-      <c r="D8" s="394"/>
-      <c r="E8" s="394"/>
-      <c r="F8" s="394"/>
-      <c r="G8" s="394"/>
-      <c r="H8" s="394"/>
-      <c r="I8" s="394"/>
-      <c r="J8" s="394"/>
-      <c r="K8" s="394"/>
-      <c r="L8" s="394"/>
-      <c r="M8" s="394"/>
-      <c r="N8" s="394"/>
-      <c r="O8" s="394"/>
-      <c r="P8" s="394"/>
+      <c r="B8" s="375"/>
+      <c r="C8" s="375"/>
+      <c r="D8" s="375"/>
+      <c r="E8" s="375"/>
+      <c r="F8" s="375"/>
+      <c r="G8" s="375"/>
+      <c r="H8" s="375"/>
+      <c r="I8" s="375"/>
+      <c r="J8" s="375"/>
+      <c r="K8" s="375"/>
+      <c r="L8" s="375"/>
+      <c r="M8" s="375"/>
+      <c r="N8" s="375"/>
+      <c r="O8" s="375"/>
+      <c r="P8" s="375"/>
       <c r="Q8" s="101"/>
-      <c r="W8" s="391" t="s">
-        <v>425</v>
+      <c r="W8" s="372" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9">
-        <f>'Main Page'!B16</f>
+        <f>'Main Page'!B17</f>
         <v>1.2250000000000001</v>
       </c>
-      <c r="B9" s="394"/>
-      <c r="C9" s="394"/>
-      <c r="D9" s="394"/>
-      <c r="E9" s="394"/>
-      <c r="F9" s="394"/>
-      <c r="G9" s="394"/>
-      <c r="H9" s="394"/>
-      <c r="I9" s="394"/>
-      <c r="J9" s="394"/>
-      <c r="K9" s="394"/>
-      <c r="L9" s="394"/>
-      <c r="M9" s="394"/>
-      <c r="N9" s="394"/>
-      <c r="O9" s="394"/>
-      <c r="P9" s="394"/>
+      <c r="B9" s="375"/>
+      <c r="C9" s="375"/>
+      <c r="D9" s="375"/>
+      <c r="E9" s="375"/>
+      <c r="F9" s="375"/>
+      <c r="G9" s="375"/>
+      <c r="H9" s="375"/>
+      <c r="I9" s="375"/>
+      <c r="J9" s="375"/>
+      <c r="K9" s="375"/>
+      <c r="L9" s="375"/>
+      <c r="M9" s="375"/>
+      <c r="N9" s="375"/>
+      <c r="O9" s="375"/>
+      <c r="P9" s="375"/>
       <c r="Q9" s="101"/>
-      <c r="W9" s="391" t="s">
-        <v>426</v>
+      <c r="W9" s="372" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10">
-        <f>'Main Page'!B38</f>
+        <f>'Main Page'!B39</f>
         <v>0.45</v>
       </c>
-      <c r="B10" s="394"/>
-      <c r="C10" s="394"/>
-      <c r="D10" s="394"/>
-      <c r="E10" s="394"/>
-      <c r="F10" s="394"/>
-      <c r="G10" s="394"/>
-      <c r="H10" s="394"/>
-      <c r="I10" s="394"/>
-      <c r="J10" s="394"/>
-      <c r="K10" s="394"/>
-      <c r="L10" s="394"/>
-      <c r="M10" s="394"/>
-      <c r="N10" s="394"/>
-      <c r="O10" s="394"/>
-      <c r="P10" s="394"/>
+      <c r="B10" s="375"/>
+      <c r="C10" s="375"/>
+      <c r="D10" s="375"/>
+      <c r="E10" s="375"/>
+      <c r="F10" s="375"/>
+      <c r="G10" s="375"/>
+      <c r="H10" s="375"/>
+      <c r="I10" s="375"/>
+      <c r="J10" s="375"/>
+      <c r="K10" s="375"/>
+      <c r="L10" s="375"/>
+      <c r="M10" s="375"/>
+      <c r="N10" s="375"/>
+      <c r="O10" s="375"/>
+      <c r="P10" s="375"/>
       <c r="Q10" s="101"/>
-      <c r="W10" s="391" t="s">
+      <c r="W10" s="372" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="376">
+        <f>'Main Page'!B40</f>
+        <v>7</v>
+      </c>
+      <c r="B11" s="375"/>
+      <c r="C11" s="375"/>
+      <c r="D11" s="375"/>
+      <c r="E11" s="375"/>
+      <c r="F11" s="375"/>
+      <c r="G11" s="375"/>
+      <c r="H11" s="375"/>
+      <c r="I11" s="375"/>
+      <c r="J11" s="375"/>
+      <c r="K11" s="375"/>
+      <c r="L11" s="375"/>
+      <c r="M11" s="375"/>
+      <c r="N11" s="375"/>
+      <c r="O11" s="375"/>
+      <c r="P11" s="375"/>
+      <c r="Q11" s="101"/>
+      <c r="W11" s="372" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="395">
-        <f>'Main Page'!B39</f>
-        <v>7</v>
-      </c>
-      <c r="B11" s="394"/>
-      <c r="C11" s="394"/>
-      <c r="D11" s="394"/>
-      <c r="E11" s="394"/>
-      <c r="F11" s="394"/>
-      <c r="G11" s="394"/>
-      <c r="H11" s="394"/>
-      <c r="I11" s="394"/>
-      <c r="J11" s="394"/>
-      <c r="K11" s="394"/>
-      <c r="L11" s="394"/>
-      <c r="M11" s="394"/>
-      <c r="N11" s="394"/>
-      <c r="O11" s="394"/>
-      <c r="P11" s="394"/>
-      <c r="Q11" s="101"/>
-      <c r="W11" s="391" t="s">
+    <row r="12" spans="1:23">
+      <c r="A12" s="103">
+        <f>'Main Page'!B16</f>
+        <v>64807728</v>
+      </c>
+      <c r="B12" s="375"/>
+      <c r="C12" s="375"/>
+      <c r="D12" s="375"/>
+      <c r="E12" s="375"/>
+      <c r="F12" s="375"/>
+      <c r="G12" s="375"/>
+      <c r="H12" s="375"/>
+      <c r="I12" s="375"/>
+      <c r="J12" s="375"/>
+      <c r="K12" s="375"/>
+      <c r="L12" s="375"/>
+      <c r="M12" s="375"/>
+      <c r="N12" s="375"/>
+      <c r="O12" s="375"/>
+      <c r="P12" s="375"/>
+      <c r="Q12" s="101"/>
+      <c r="W12" s="372" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="102" t="str">
+        <f>'Main Page'!A120</f>
+        <v>Station</v>
+      </c>
+      <c r="B13" s="102" t="str">
+        <f>'Main Page'!H119</f>
+        <v>Unit Weight</v>
+      </c>
+      <c r="C13" s="102" t="str">
+        <f>'Main Page'!B131</f>
+        <v>Twist</v>
+      </c>
+      <c r="D13" s="102" t="str">
+        <f>'Main Page'!L119</f>
+        <v>GJ</v>
+      </c>
+      <c r="E13" s="102" t="str">
+        <f>'Main Page'!K119</f>
+        <v>EA</v>
+      </c>
+      <c r="F13" s="102" t="str">
+        <f>'Main Page'!J119</f>
+        <v>EIEdge</v>
+      </c>
+      <c r="G13" s="102" t="str">
+        <f>'Main Page'!I119</f>
+        <v>EIFlap</v>
+      </c>
+      <c r="H13" s="102" t="str">
+        <f>'Main Page'!B119</f>
+        <v>Chord</v>
+      </c>
+      <c r="I13" s="102" t="str">
+        <f>'Main Page'!E119</f>
+        <v>Gen. Axis Loc.</v>
+      </c>
+      <c r="J13" s="102" t="str">
+        <f>'Main Page'!A140</f>
+        <v>Airfoil ID</v>
+      </c>
+      <c r="W13" s="372" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="102" t="str">
-        <f>'Main Page'!A119</f>
-        <v>Station</v>
-      </c>
-      <c r="B12" s="102" t="str">
-        <f>'Main Page'!H118</f>
-        <v>Unit Weight</v>
-      </c>
-      <c r="C12" s="102" t="str">
-        <f>'Main Page'!B130</f>
-        <v>Twist</v>
-      </c>
-      <c r="D12" s="102" t="str">
-        <f>'Main Page'!L118</f>
-        <v>GJ</v>
-      </c>
-      <c r="E12" s="102" t="str">
-        <f>'Main Page'!K118</f>
-        <v>EA</v>
-      </c>
-      <c r="F12" s="102" t="str">
-        <f>'Main Page'!J118</f>
-        <v>EIEdge</v>
-      </c>
-      <c r="G12" s="102" t="str">
-        <f>'Main Page'!I118</f>
-        <v>EIFlap</v>
-      </c>
-      <c r="H12" s="102" t="str">
-        <f>'Main Page'!B118</f>
-        <v>Chord</v>
-      </c>
-      <c r="I12" s="102" t="str">
-        <f>'Main Page'!E118</f>
-        <v>Gen. Axis Loc.</v>
-      </c>
-      <c r="J12" s="102" t="str">
-        <f>'Main Page'!A139</f>
-        <v>Airfoil ID</v>
-      </c>
-      <c r="W12" s="391" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="102">
-        <f>'Main Page'!A120</f>
-        <v>0.05</v>
-      </c>
-      <c r="B13" s="102">
-        <f>'Main Page'!H120</f>
-        <v>3708.4116472912633</v>
-      </c>
-      <c r="C13" s="102">
-        <f>'Main Page'!B132 - 'Main Page'!B$137</f>
-        <v>11.1</v>
-      </c>
-      <c r="D13" s="102">
-        <f>'Main Page'!L120</f>
-        <v>22057695577.548672</v>
-      </c>
-      <c r="E13" s="102">
-        <f>'Main Page'!K120</f>
-        <v>42582928810.746231</v>
-      </c>
-      <c r="F13" s="102">
-        <f>'Main Page'!J120</f>
-        <v>63720689411.753181</v>
-      </c>
-      <c r="G13" s="102">
-        <f>'Main Page'!I120</f>
-        <v>63720689411.753181</v>
-      </c>
-      <c r="H13" s="102">
-        <f>'Main Page'!B120</f>
-        <v>3.456438912877827</v>
-      </c>
-      <c r="I13" s="102">
-        <f>'Main Page'!E120</f>
-        <v>0.25</v>
-      </c>
-      <c r="J13" s="102">
-        <f>'Main Page'!D132</f>
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="102">
         <f>'Main Page'!A121</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="B14" s="102">
         <f>'Main Page'!H121</f>
-        <v>622.32317170970805</v>
+        <v>3708.4116472912633</v>
       </c>
       <c r="C14" s="102">
-        <f>'Main Page'!B133 - 'Main Page'!B$137</f>
+        <f>'Main Page'!B133 - 'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="D14" s="102">
         <f>'Main Page'!L121</f>
-        <v>4904988079.2989025</v>
+        <v>22057695577.548672</v>
       </c>
       <c r="E14" s="102">
         <f>'Main Page'!K121</f>
-        <v>9469182296.3330479</v>
+        <v>42582928810.746231</v>
       </c>
       <c r="F14" s="102">
         <f>'Main Page'!J121</f>
-        <v>14036801421.634676</v>
+        <v>63720689411.753181</v>
       </c>
       <c r="G14" s="102">
         <f>'Main Page'!I121</f>
-        <v>14036801421.634676</v>
+        <v>63720689411.753181</v>
       </c>
       <c r="H14" s="102">
         <f>'Main Page'!B121</f>
-        <v>3.4564389128778257</v>
+        <v>3.456438912877827</v>
       </c>
       <c r="I14" s="102">
         <f>'Main Page'!E121</f>
@@ -8007,291 +8013,333 @@
     <row r="15" spans="1:23">
       <c r="A15" s="102">
         <f>'Main Page'!A122</f>
-        <v>0.25</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B15" s="102">
         <f>'Main Page'!H122</f>
-        <v>684.40053797312055</v>
+        <v>622.32317170970805</v>
       </c>
       <c r="C15" s="102">
-        <f>'Main Page'!B134 - 'Main Page'!B$137</f>
+        <f>'Main Page'!B134 - 'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="D15" s="102">
         <f>'Main Page'!L122</f>
-        <v>145303921.84035307</v>
+        <v>4904988079.2989025</v>
       </c>
       <c r="E15" s="102">
         <f>'Main Page'!K122</f>
-        <v>9141425662.3435383</v>
+        <v>9469182296.3330479</v>
       </c>
       <c r="F15" s="102">
         <f>'Main Page'!J122</f>
-        <v>12611588173.054085</v>
+        <v>14036801421.634676</v>
       </c>
       <c r="G15" s="102">
         <f>'Main Page'!I122</f>
-        <v>4203286116.1718955</v>
+        <v>14036801421.634676</v>
       </c>
       <c r="H15" s="102">
         <f>'Main Page'!B122</f>
-        <v>5.11988823977648</v>
+        <v>3.4564389128778257</v>
       </c>
       <c r="I15" s="102">
         <f>'Main Page'!E122</f>
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="J15" s="102">
         <f>'Main Page'!D134</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="102">
         <f>'Main Page'!A123</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B16" s="102">
         <f>'Main Page'!H123</f>
-        <v>516.27028971966695</v>
+        <v>684.40053797312055</v>
       </c>
       <c r="C16" s="102">
-        <f>'Main Page'!B135 - 'Main Page'!B$137</f>
-        <v>3.1</v>
+        <f>'Main Page'!B135 - 'Main Page'!B$138</f>
+        <v>11.1</v>
       </c>
       <c r="D16" s="102">
         <f>'Main Page'!L123</f>
-        <v>57861076.091574006</v>
+        <v>145303921.84035307</v>
       </c>
       <c r="E16" s="102">
         <f>'Main Page'!K123</f>
-        <v>6898689157.7993288</v>
+        <v>9141425662.3435383</v>
       </c>
       <c r="F16" s="102">
         <f>'Main Page'!J123</f>
-        <v>2540323261.1101747</v>
+        <v>12611588173.054085</v>
       </c>
       <c r="G16" s="102">
         <f>'Main Page'!I123</f>
-        <v>1017265797.32573</v>
+        <v>4203286116.1718955</v>
       </c>
       <c r="H16" s="102">
         <f>'Main Page'!B123</f>
-        <v>3.9255778511557029</v>
+        <v>5.11988823977648</v>
       </c>
       <c r="I16" s="102">
         <f>'Main Page'!E123</f>
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="J16" s="102">
         <f>'Main Page'!D135</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="102">
         <f>'Main Page'!A124</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B17" s="102">
         <f>'Main Page'!H124</f>
-        <v>225.15720776799671</v>
+        <v>516.27028971966695</v>
       </c>
       <c r="C17" s="102">
-        <f>'Main Page'!B136 - 'Main Page'!B$137</f>
-        <v>0.6</v>
+        <f>'Main Page'!B136 - 'Main Page'!B$138</f>
+        <v>3.1</v>
       </c>
       <c r="D17" s="102">
         <f>'Main Page'!L124</f>
-        <v>11605234.21344462</v>
+        <v>57861076.091574006</v>
       </c>
       <c r="E17" s="102">
         <f>'Main Page'!K124</f>
-        <v>2907294183.0127583</v>
+        <v>6898689157.7993288</v>
       </c>
       <c r="F17" s="102">
         <f>'Main Page'!J124</f>
-        <v>610414304.9755882</v>
+        <v>2540323261.1101747</v>
       </c>
       <c r="G17" s="102">
         <f>'Main Page'!I124</f>
-        <v>159223885.56322324</v>
+        <v>1017265797.32573</v>
       </c>
       <c r="H17" s="102">
         <f>'Main Page'!B124</f>
-        <v>2.7312674625349254</v>
+        <v>3.9255778511557029</v>
       </c>
       <c r="I17" s="102">
         <f>'Main Page'!E124</f>
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="J17" s="102">
         <f>'Main Page'!D136</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="102">
         <f>'Main Page'!A125</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B18" s="102">
         <f>'Main Page'!H125</f>
-        <v>21.986079158927165</v>
+        <v>225.15720776799671</v>
       </c>
       <c r="C18" s="102">
-        <f>'Main Page'!B137 - 'Main Page'!B$137</f>
-        <v>0</v>
+        <f>'Main Page'!B137 - 'Main Page'!B$138</f>
+        <v>0.6</v>
       </c>
       <c r="D18" s="102">
         <f>'Main Page'!L125</f>
-        <v>1237516.5813282721</v>
+        <v>11605234.21344462</v>
       </c>
       <c r="E18" s="102">
         <f>'Main Page'!K125</f>
-        <v>235713983.59357151</v>
+        <v>2907294183.0127583</v>
       </c>
       <c r="F18" s="102">
         <f>'Main Page'!J125</f>
-        <v>53624369.654070929</v>
+        <v>610414304.9755882</v>
       </c>
       <c r="G18" s="102">
         <f>'Main Page'!I125</f>
-        <v>1559775.5371830396</v>
+        <v>159223885.56322324</v>
       </c>
       <c r="H18" s="102">
         <f>'Main Page'!B125</f>
-        <v>1.6565913131826264</v>
+        <v>2.7312674625349254</v>
       </c>
       <c r="I18" s="102">
         <f>'Main Page'!E125</f>
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J18" s="102">
         <f>'Main Page'!D137</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="102">
+        <f>'Main Page'!A126</f>
+        <v>1</v>
+      </c>
+      <c r="B19" s="102">
+        <f>'Main Page'!H126</f>
+        <v>21.986079158927165</v>
+      </c>
+      <c r="C19" s="102">
+        <f>'Main Page'!B138 - 'Main Page'!B$138</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="102">
+        <f>'Main Page'!L126</f>
+        <v>1237516.5813282721</v>
+      </c>
+      <c r="E19" s="102">
+        <f>'Main Page'!K126</f>
+        <v>235713983.59357151</v>
+      </c>
+      <c r="F19" s="102">
+        <f>'Main Page'!J126</f>
+        <v>53624369.654070929</v>
+      </c>
+      <c r="G19" s="102">
+        <f>'Main Page'!I126</f>
+        <v>1559775.5371830396</v>
+      </c>
+      <c r="H19" s="102">
+        <f>'Main Page'!B126</f>
+        <v>1.6565913131826264</v>
+      </c>
+      <c r="I19" s="102">
+        <f>'Main Page'!E126</f>
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="102">
+        <f>'Main Page'!D138</f>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="391" t="s">
-        <v>430</v>
-      </c>
-      <c r="B26">
-        <v>15</v>
-      </c>
-    </row>
     <row r="27" spans="1:16">
-      <c r="A27">
-        <v>0</v>
+      <c r="A27" s="372" t="s">
+        <v>429</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-      <c r="H27">
-        <v>7</v>
-      </c>
-      <c r="I27">
-        <v>8</v>
-      </c>
-      <c r="J27">
-        <v>9</v>
-      </c>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27">
-        <v>11</v>
-      </c>
-      <c r="M27">
-        <v>12</v>
-      </c>
-      <c r="N27">
-        <v>13</v>
-      </c>
-      <c r="O27">
-        <v>14</v>
-      </c>
-      <c r="P27">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28">
-        <f>A27/$B$26*0.95+0.05</f>
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>11</v>
+      </c>
+      <c r="M28">
+        <v>12</v>
+      </c>
+      <c r="N28">
+        <v>13</v>
+      </c>
+      <c r="O28">
+        <v>14</v>
+      </c>
+      <c r="P28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <f>A28/$B$27*0.95+0.05</f>
         <v>0.05</v>
       </c>
-      <c r="B28">
-        <f t="shared" ref="B28:P28" si="0">B27/$B$26*0.95+0.05</f>
+      <c r="B29">
+        <f t="shared" ref="B29:P29" si="0">B28/$B$27*0.95+0.05</f>
         <v>0.11333333333333333</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <f t="shared" si="0"/>
         <v>0.17666666666666664</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>0.30333333333333329</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>0.49333333333333329</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>0.55666666666666664</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <f t="shared" si="0"/>
         <v>0.68333333333333335</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <f t="shared" si="0"/>
         <v>0.74666666666666659</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <f t="shared" si="0"/>
         <v>0.87333333333333341</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <f t="shared" si="0"/>
         <v>0.93666666666666665</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8306,7 +8354,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8316,11 +8364,11 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <f>'Main Page'!B82</f>
+        <f>'Main Page'!B83</f>
         <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8329,16 +8377,16 @@
         <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="102">
-        <f>'Main Page'!B57</f>
+        <f>'Main Page'!B58</f>
         <v>-6</v>
       </c>
       <c r="E3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8355,7 +8403,7 @@
         <v>-0.74355337983144754</v>
       </c>
       <c r="E4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8372,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8389,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8398,7 +8446,7 @@
         <v>-5</v>
       </c>
       <c r="E7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8406,8 +8454,8 @@
         <f>'Main Page'!E5</f>
         <v>212987.97104381188</v>
       </c>
-      <c r="E8" s="391" t="s">
-        <v>438</v>
+      <c r="E8" s="372" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8415,8 +8463,8 @@
         <f>'Main Page'!E6</f>
         <v>6651.7160682454805</v>
       </c>
-      <c r="E9" s="391" t="s">
-        <v>439</v>
+      <c r="E9" s="372" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8424,17 +8472,17 @@
         <f>'Main Page'!E7</f>
         <v>51029.022026287843</v>
       </c>
-      <c r="E10" s="391" t="s">
-        <v>440</v>
+      <c r="E10" s="372" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="103">
-        <f>-'Main Page'!B17</f>
+        <f>-'Main Page'!B18</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8443,7 +8491,7 @@
         <v>125969.62234646481</v>
       </c>
       <c r="E12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8452,7 +8500,7 @@
         <v>739595.80544436211</v>
       </c>
       <c r="E13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8461,16 +8509,16 @@
         <v>668484.97012246738</v>
       </c>
       <c r="E14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="103">
-        <f>'Main Page'!B83</f>
+        <f>'Main Page'!B84</f>
         <v>1800</v>
       </c>
       <c r="E15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8479,43 +8527,43 @@
         <v>2300693019.9789252</v>
       </c>
       <c r="E16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="103">
-        <f>'Main Page'!B18</f>
+        <f>'Main Page'!B19</f>
         <v>0.95</v>
       </c>
       <c r="E17" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="335">
+        <f>'Main Page'!B89*1000</f>
+        <v>5000000</v>
+      </c>
+      <c r="E18" s="372" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="103">
-        <f>'Main Page'!B15</f>
-        <v>56</v>
-      </c>
-      <c r="E18" s="391" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="103">
+        <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)</f>
+        <v>11354296.893486619</v>
+      </c>
+      <c r="E19" s="372" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="335">
-        <f>'Main Page'!B88*1000</f>
-        <v>5000000</v>
-      </c>
-      <c r="E19" s="391" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="103">
-        <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)</f>
-        <v>11354296.893486619</v>
-      </c>
-      <c r="E20" s="391" t="s">
-        <v>450</v>
+        <f>'Main Page'!B15/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="372" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -8537,57 +8585,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="396">
-        <f>'Main Page'!B42</f>
+      <c r="A1" s="377">
+        <f>'Main Page'!B43</f>
         <v>2.9279999999999999</v>
       </c>
-      <c r="L1" s="391" t="s">
+      <c r="L1" s="372" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="377">
+        <f>'Main Page'!B44</f>
+        <v>4.41</v>
+      </c>
+      <c r="L2" s="372" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="377">
+        <f>'Main Page'!B45/1000</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="L3" s="372" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="396">
-        <f>'Main Page'!B43</f>
-        <v>4.41</v>
-      </c>
-      <c r="L2" s="391" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="377">
+        <f>'Main Page'!B46</f>
+        <v>10.17</v>
+      </c>
+      <c r="L4" s="372" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="396">
-        <f>'Main Page'!B44/1000</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="L3" s="391" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="377">
+        <f>'Main Page'!B47/1000</f>
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="L5" s="372" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="396">
-        <f>'Main Page'!B45</f>
-        <v>10.17</v>
-      </c>
-      <c r="L4" s="391" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="377">
+        <f>'Main Page'!B48/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="L6" s="372" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="396">
-        <f>'Main Page'!B46/1000</f>
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="L5" s="391" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="396">
-        <f>'Main Page'!B47/100</f>
-        <v>0.05</v>
-      </c>
-      <c r="L6" s="391" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8595,8 +8643,8 @@
         <f>GECtwrdata!F5</f>
         <v>7850</v>
       </c>
-      <c r="L7" s="391" t="s">
-        <v>457</v>
+      <c r="L7" s="372" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8604,8 +8652,8 @@
         <f>GECtwrdata!F6</f>
         <v>200000000000</v>
       </c>
-      <c r="L8" s="391" t="s">
-        <v>458</v>
+      <c r="L8" s="372" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8613,74 +8661,74 @@
         <f>GECtwrdata!F7</f>
         <v>76923076923.07692</v>
       </c>
-      <c r="L9" s="391" t="s">
-        <v>459</v>
+      <c r="L9" s="372" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="392">
+      <c r="A10" s="373">
         <f>0/9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="392">
+      <c r="B10" s="373">
         <f>1/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="C10" s="392">
+      <c r="C10" s="373">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D10" s="392">
+      <c r="D10" s="373">
         <f>3/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E10" s="392">
+      <c r="E10" s="373">
         <f>4/9</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F10" s="392">
+      <c r="F10" s="373">
         <f>5/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="G10" s="392">
+      <c r="G10" s="373">
         <f>6/9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H10" s="392">
+      <c r="H10" s="373">
         <f>7/9</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="I10" s="392">
+      <c r="I10" s="373">
         <f>8/9</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="J10" s="392">
+      <c r="J10" s="373">
         <f>9/9</f>
         <v>1</v>
       </c>
-      <c r="L10" s="391" t="s">
-        <v>460</v>
+      <c r="L10" s="372" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="103">
-        <f>'Main Page'!B150*100</f>
-        <v>3.4350000000000001</v>
-      </c>
-      <c r="B11" s="103">
         <f>'Main Page'!B151*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="C11" s="103">
+      <c r="B11" s="103">
         <f>'Main Page'!B152*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="D11" s="103">
+      <c r="C11" s="103">
         <f>'Main Page'!B153*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="L11" s="391" t="s">
-        <v>461</v>
+      <c r="D11" s="103">
+        <f>'Main Page'!B154*100</f>
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="L11" s="372" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -8719,12 +8767,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="361" t="s">
+      <c r="A2" s="393" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="362"/>
-      <c r="C2" s="362"/>
-      <c r="D2" s="363"/>
+      <c r="B2" s="394"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="395"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -9524,11 +9572,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>60.8</v>
       </c>
-      <c r="D2" s="348" t="s">
+      <c r="D2" s="379" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="349"/>
-      <c r="F2" s="350"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="382"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
@@ -11814,325 +11862,325 @@
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="201">
-        <f>'Main Page'!A120</f>
+        <f>'Main Page'!A121</f>
         <v>0.05</v>
       </c>
       <c r="C5" s="202">
-        <f>'Main Page'!B120</f>
+        <f>'Main Page'!B121</f>
         <v>3.456438912877827</v>
       </c>
       <c r="D5" s="203">
-        <f>'Main Page'!C120</f>
+        <f>'Main Page'!C121</f>
         <v>1</v>
       </c>
       <c r="E5" s="203" t="str">
-        <f>'Main Page'!D120</f>
+        <f>'Main Page'!D121</f>
         <v>NA</v>
       </c>
       <c r="F5" s="204">
-        <f>'Main Page'!E120</f>
+        <f>'Main Page'!E121</f>
         <v>0.25</v>
       </c>
       <c r="G5" s="202">
-        <f>'Main Page'!F120</f>
+        <f>'Main Page'!F121</f>
         <v>0.5</v>
       </c>
       <c r="H5" s="202">
-        <f>'Main Page'!G120</f>
+        <f>'Main Page'!G121</f>
         <v>0.5</v>
       </c>
       <c r="I5" s="205">
-        <f>'Main Page'!H120</f>
+        <f>'Main Page'!H121</f>
         <v>3708.4116472912633</v>
       </c>
       <c r="J5" s="206">
-        <f>'Main Page'!I120</f>
+        <f>'Main Page'!I121</f>
         <v>63720689411.753181</v>
       </c>
       <c r="K5" s="206">
-        <f>'Main Page'!J120</f>
+        <f>'Main Page'!J121</f>
         <v>63720689411.753181</v>
       </c>
       <c r="L5" s="206">
-        <f>'Main Page'!K120</f>
+        <f>'Main Page'!K121</f>
         <v>42582928810.746231</v>
       </c>
       <c r="M5" s="206">
-        <f>'Main Page'!L120</f>
+        <f>'Main Page'!L121</f>
         <v>22057695577.548672</v>
       </c>
       <c r="N5" s="207">
-        <f>'Main Page'!M120</f>
+        <f>'Main Page'!M121</f>
         <v>11076.026331706065</v>
       </c>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="208">
-        <f>'Main Page'!A121</f>
+        <f>'Main Page'!A122</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6" s="209">
-        <f>'Main Page'!B121</f>
+        <f>'Main Page'!B122</f>
         <v>3.4564389128778257</v>
       </c>
       <c r="D6" s="210">
-        <f>'Main Page'!C121</f>
+        <f>'Main Page'!C122</f>
         <v>1</v>
       </c>
       <c r="E6" s="210" t="str">
-        <f>'Main Page'!D121</f>
+        <f>'Main Page'!D122</f>
         <v>NA</v>
       </c>
       <c r="F6" s="204">
-        <f>'Main Page'!E121</f>
+        <f>'Main Page'!E122</f>
         <v>0.25</v>
       </c>
       <c r="G6" s="209">
-        <f>'Main Page'!F121</f>
+        <f>'Main Page'!F122</f>
         <v>0.5</v>
       </c>
       <c r="H6" s="209">
-        <f>'Main Page'!G121</f>
+        <f>'Main Page'!G122</f>
         <v>0.5</v>
       </c>
       <c r="I6" s="211">
-        <f>'Main Page'!H121</f>
+        <f>'Main Page'!H122</f>
         <v>622.32317170970805</v>
       </c>
       <c r="J6" s="212">
-        <f>'Main Page'!I121</f>
+        <f>'Main Page'!I122</f>
         <v>14036801421.634676</v>
       </c>
       <c r="K6" s="212">
-        <f>'Main Page'!J121</f>
+        <f>'Main Page'!J122</f>
         <v>14036801421.634676</v>
       </c>
       <c r="L6" s="212">
-        <f>'Main Page'!K121</f>
+        <f>'Main Page'!K122</f>
         <v>9469182296.3330479</v>
       </c>
       <c r="M6" s="212">
-        <f>'Main Page'!L121</f>
+        <f>'Main Page'!L122</f>
         <v>4904988079.2989025</v>
       </c>
       <c r="N6" s="213">
-        <f>'Main Page'!M121</f>
+        <f>'Main Page'!M122</f>
         <v>1858.7116243479393</v>
       </c>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="198">
-        <f>'Main Page'!A122</f>
+        <f>'Main Page'!A123</f>
         <v>0.25</v>
       </c>
       <c r="C7" s="209">
-        <f>'Main Page'!B122</f>
+        <f>'Main Page'!B123</f>
         <v>5.11988823977648</v>
       </c>
       <c r="D7" s="210">
-        <f>'Main Page'!C122</f>
+        <f>'Main Page'!C123</f>
         <v>0.33</v>
       </c>
       <c r="E7" s="210">
-        <f>'Main Page'!D122</f>
+        <f>'Main Page'!D123</f>
         <v>4.4774839135584772</v>
       </c>
       <c r="F7" s="204">
-        <f>'Main Page'!E122</f>
+        <f>'Main Page'!E123</f>
         <v>0.34</v>
       </c>
       <c r="G7" s="209">
-        <f>'Main Page'!F122</f>
+        <f>'Main Page'!F123</f>
         <v>0.40155924806474785</v>
       </c>
       <c r="H7" s="209">
-        <f>'Main Page'!G122</f>
+        <f>'Main Page'!G123</f>
         <v>0.32671302753123166</v>
       </c>
       <c r="I7" s="211">
-        <f>'Main Page'!H122</f>
+        <f>'Main Page'!H123</f>
         <v>684.40053797312055</v>
       </c>
       <c r="J7" s="212">
-        <f>'Main Page'!I122</f>
+        <f>'Main Page'!I123</f>
         <v>4203286116.1718955</v>
       </c>
       <c r="K7" s="212">
-        <f>'Main Page'!J122</f>
+        <f>'Main Page'!J123</f>
         <v>12611588173.054085</v>
       </c>
       <c r="L7" s="199">
-        <f>'Main Page'!K122</f>
+        <f>'Main Page'!K123</f>
         <v>9141425662.3435383</v>
       </c>
       <c r="M7" s="199">
-        <f>'Main Page'!L122</f>
+        <f>'Main Page'!L123</f>
         <v>145303921.84035307</v>
       </c>
       <c r="N7" s="214">
-        <f>'Main Page'!M122</f>
+        <f>'Main Page'!M123</f>
         <v>959.83453034575007</v>
       </c>
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="198">
-        <f>'Main Page'!A123</f>
+        <f>'Main Page'!A124</f>
         <v>0.5</v>
       </c>
       <c r="C8" s="209">
-        <f>'Main Page'!B123</f>
+        <f>'Main Page'!B124</f>
         <v>3.9255778511557029</v>
       </c>
       <c r="D8" s="215">
-        <f>'Main Page'!C123</f>
+        <f>'Main Page'!C124</f>
         <v>0.24</v>
       </c>
       <c r="E8" s="210">
-        <f>'Main Page'!D123</f>
+        <f>'Main Page'!D124</f>
         <v>8.9761837714735897</v>
       </c>
       <c r="F8" s="204">
-        <f>'Main Page'!E123</f>
+        <f>'Main Page'!E124</f>
         <v>0.31</v>
       </c>
       <c r="G8" s="209">
-        <f>'Main Page'!F123</f>
+        <f>'Main Page'!F124</f>
         <v>0.37588941559495792</v>
       </c>
       <c r="H8" s="209">
-        <f>'Main Page'!G123</f>
+        <f>'Main Page'!G124</f>
         <v>0.32336301372350362</v>
       </c>
       <c r="I8" s="211">
-        <f>'Main Page'!H123</f>
+        <f>'Main Page'!H124</f>
         <v>516.27028971966695</v>
       </c>
       <c r="J8" s="212">
-        <f>'Main Page'!I123</f>
+        <f>'Main Page'!I124</f>
         <v>1017265797.32573</v>
       </c>
       <c r="K8" s="212">
-        <f>'Main Page'!J123</f>
+        <f>'Main Page'!J124</f>
         <v>2540323261.1101747</v>
       </c>
       <c r="L8" s="199">
-        <f>'Main Page'!K123</f>
+        <f>'Main Page'!K124</f>
         <v>6898689157.7993288</v>
       </c>
       <c r="M8" s="199">
-        <f>'Main Page'!L123</f>
+        <f>'Main Page'!L124</f>
         <v>57861076.091574006</v>
       </c>
       <c r="N8" s="214">
-        <f>'Main Page'!M123</f>
+        <f>'Main Page'!M124</f>
         <v>304.44012217310359</v>
       </c>
     </row>
     <row r="9" spans="2:21">
       <c r="B9" s="198">
-        <f>'Main Page'!A124</f>
+        <f>'Main Page'!A125</f>
         <v>0.75</v>
       </c>
       <c r="C9" s="209">
-        <f>'Main Page'!B124</f>
+        <f>'Main Page'!B125</f>
         <v>2.7312674625349254</v>
       </c>
       <c r="D9" s="215">
-        <f>'Main Page'!C124</f>
+        <f>'Main Page'!C125</f>
         <v>0.21</v>
       </c>
       <c r="E9" s="210">
-        <f>'Main Page'!D124</f>
+        <f>'Main Page'!D125</f>
         <v>8.8011309411295144</v>
       </c>
       <c r="F9" s="204">
-        <f>'Main Page'!E124</f>
+        <f>'Main Page'!E125</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="G9" s="209">
-        <f>'Main Page'!F124</f>
+        <f>'Main Page'!F125</f>
         <v>0.38745755696890288</v>
       </c>
       <c r="H9" s="209">
-        <f>'Main Page'!G124</f>
+        <f>'Main Page'!G125</f>
         <v>0.3261326391065098</v>
       </c>
       <c r="I9" s="211">
-        <f>'Main Page'!H124</f>
+        <f>'Main Page'!H125</f>
         <v>225.15720776799671</v>
       </c>
       <c r="J9" s="212">
-        <f>'Main Page'!I124</f>
+        <f>'Main Page'!I125</f>
         <v>159223885.56322324</v>
       </c>
       <c r="K9" s="212">
-        <f>'Main Page'!J124</f>
+        <f>'Main Page'!J125</f>
         <v>610414304.9755882</v>
       </c>
       <c r="L9" s="199">
-        <f>'Main Page'!K124</f>
+        <f>'Main Page'!K125</f>
         <v>2907294183.0127583</v>
       </c>
       <c r="M9" s="199">
-        <f>'Main Page'!L124</f>
+        <f>'Main Page'!L125</f>
         <v>11605234.21344462</v>
       </c>
       <c r="N9" s="214">
-        <f>'Main Page'!M124</f>
+        <f>'Main Page'!M125</f>
         <v>65.910007513233523</v>
       </c>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="216">
-        <f>'Main Page'!A125</f>
+        <f>'Main Page'!A126</f>
         <v>1</v>
       </c>
       <c r="C10" s="217">
-        <f>'Main Page'!B125</f>
+        <f>'Main Page'!B126</f>
         <v>1.6565913131826264</v>
       </c>
       <c r="D10" s="218">
-        <f>'Main Page'!C125</f>
+        <f>'Main Page'!C126</f>
         <v>0.16</v>
       </c>
       <c r="E10" s="218">
-        <f>'Main Page'!D125</f>
+        <f>'Main Page'!D126</f>
         <v>0</v>
       </c>
       <c r="F10" s="217">
-        <f>'Main Page'!E125</f>
+        <f>'Main Page'!E126</f>
         <v>0.25</v>
       </c>
       <c r="G10" s="217">
-        <f>'Main Page'!F125</f>
+        <f>'Main Page'!F126</f>
         <v>0.49249999999999999</v>
       </c>
       <c r="H10" s="217">
-        <f>'Main Page'!G125</f>
+        <f>'Main Page'!G126</f>
         <v>0.35780000000000001</v>
       </c>
       <c r="I10" s="219">
-        <f>'Main Page'!H125</f>
+        <f>'Main Page'!H126</f>
         <v>21.986079158927165</v>
       </c>
       <c r="J10" s="220">
-        <f>'Main Page'!I125</f>
+        <f>'Main Page'!I126</f>
         <v>1559775.5371830396</v>
       </c>
       <c r="K10" s="220">
-        <f>'Main Page'!J125</f>
+        <f>'Main Page'!J126</f>
         <v>53624369.654070929</v>
       </c>
       <c r="L10" s="221">
-        <f>'Main Page'!K125</f>
+        <f>'Main Page'!K126</f>
         <v>235713983.59357151</v>
       </c>
       <c r="M10" s="221">
-        <f>'Main Page'!L125</f>
+        <f>'Main Page'!L126</f>
         <v>1237516.5813282721</v>
       </c>
       <c r="N10" s="222">
-        <f>'Main Page'!M125</f>
+        <f>'Main Page'!M126</f>
         <v>5.4492188866567579</v>
       </c>
     </row>
@@ -12175,7 +12223,7 @@
         <v>354</v>
       </c>
       <c r="D13" s="229">
-        <f>'Main Page'!B52/2</f>
+        <f>'Main Page'!B53/2</f>
         <v>3.2</v>
       </c>
       <c r="E13" s="227" t="s">
@@ -12342,7 +12390,7 @@
         <v>3708.4116472912633</v>
       </c>
       <c r="E18" s="239">
-        <f>N5*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N5*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F18" s="239">
@@ -12364,7 +12412,7 @@
         <v>0.86410972821945675</v>
       </c>
       <c r="K18" s="239">
-        <f>'Main Page'!B132-'Main Page'!B$137</f>
+        <f>'Main Page'!B133-'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="L18" s="241">
@@ -12391,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="265">
-        <f>'Main Page'!D132</f>
+        <f>'Main Page'!D133</f>
         <v>1</v>
       </c>
       <c r="S18" s="108"/>
@@ -12412,7 +12460,7 @@
         <v>622.32317170970805</v>
       </c>
       <c r="E19" s="244">
-        <f>N6*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N6*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F19" s="244">
@@ -12434,7 +12482,7 @@
         <v>0.86410972821945642</v>
       </c>
       <c r="K19" s="244">
-        <f>'Main Page'!B133-'Main Page'!B$137</f>
+        <f>'Main Page'!B134-'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="L19" s="247">
@@ -12461,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="263">
-        <f>'Main Page'!D133</f>
+        <f>'Main Page'!D134</f>
         <v>1</v>
       </c>
       <c r="S19" s="108"/>
@@ -12482,7 +12530,7 @@
         <v>684.40053797312055</v>
       </c>
       <c r="E20" s="244">
-        <f>N7*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N7*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F20" s="244">
@@ -12504,7 +12552,7 @@
         <v>-6.8027814085081018E-2</v>
       </c>
       <c r="K20" s="244">
-        <f>'Main Page'!B134-'Main Page'!B$137</f>
+        <f>'Main Page'!B135-'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="L20" s="247">
@@ -12532,7 +12580,7 @@
         <v>-0.46078994157988334</v>
       </c>
       <c r="R20" s="263">
-        <f>'Main Page'!D134</f>
+        <f>'Main Page'!D135</f>
         <v>2</v>
       </c>
       <c r="S20" s="108"/>
@@ -12553,7 +12601,7 @@
         <v>516.27028971966695</v>
       </c>
       <c r="E21" s="244">
-        <f>N8*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N8*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F21" s="244">
@@ -12575,7 +12623,7 @@
         <v>5.2457550697675527E-2</v>
       </c>
       <c r="K21" s="244">
-        <f>'Main Page'!B135-'Main Page'!B$137</f>
+        <f>'Main Page'!B136-'Main Page'!B$138</f>
         <v>3.1</v>
       </c>
       <c r="L21" s="247">
@@ -12621,7 +12669,7 @@
         <v>225.15720776799671</v>
       </c>
       <c r="E22" s="244">
-        <f>N9*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N9*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F22" s="244">
@@ -12643,7 +12691,7 @@
         <v>0.12600057615247642</v>
       </c>
       <c r="K22" s="244">
-        <f>'Main Page'!B136-'Main Page'!B$137</f>
+        <f>'Main Page'!B137-'Main Page'!B$138</f>
         <v>0.6</v>
       </c>
       <c r="L22" s="247">
@@ -12671,7 +12719,7 @@
         <v>-8.193802387604783E-2</v>
       </c>
       <c r="R22" s="263">
-        <f>'Main Page'!D136</f>
+        <f>'Main Page'!D137</f>
         <v>3</v>
       </c>
       <c r="S22" s="108"/>
@@ -12692,7 +12740,7 @@
         <v>21.986079158927165</v>
       </c>
       <c r="E23" s="250">
-        <f>N10*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N10*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F23" s="250">
@@ -12714,7 +12762,7 @@
         <v>0.17858054356108713</v>
       </c>
       <c r="K23" s="250">
-        <f>'Main Page'!B137-'Main Page'!B$137</f>
+        <f>'Main Page'!B138-'Main Page'!B$138</f>
         <v>0</v>
       </c>
       <c r="L23" s="252">
@@ -12742,7 +12790,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="264">
-        <f>'Main Page'!D137</f>
+        <f>'Main Page'!D138</f>
         <v>4</v>
       </c>
       <c r="S23" s="108"/>
@@ -14472,7 +14520,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="153">
-        <f>C5-'Main Page'!B42</f>
+        <f>C5-'Main Page'!B43</f>
         <v>151.072</v>
       </c>
       <c r="D6" t="s">
@@ -14493,7 +14541,7 @@
         <v>96</v>
       </c>
       <c r="C7" s="154">
-        <f>'Main Page'!B45</f>
+        <f>'Main Page'!B46</f>
         <v>10.17</v>
       </c>
       <c r="D7" t="s">
@@ -14515,7 +14563,7 @@
         <v>98</v>
       </c>
       <c r="C8" s="154">
-        <f>'Main Page'!B43</f>
+        <f>'Main Page'!B44</f>
         <v>4.41</v>
       </c>
       <c r="D8" t="s">
@@ -14527,7 +14575,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="154">
-        <f>'Main Page'!B46</f>
+        <f>'Main Page'!B47</f>
         <v>35.700000000000003</v>
       </c>
       <c r="D9" t="s">
@@ -14539,7 +14587,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="154">
-        <f>'Main Page'!B44</f>
+        <f>'Main Page'!B45</f>
         <v>16</v>
       </c>
       <c r="D10" t="s">
@@ -14551,7 +14599,7 @@
         <v>387</v>
       </c>
       <c r="C11" s="154">
-        <f>'Main Page'!B47</f>
+        <f>'Main Page'!B48</f>
         <v>5</v>
       </c>
       <c r="D11" t="s">
@@ -15309,7 +15357,7 @@
         <v>172</v>
       </c>
       <c r="C2" s="127">
-        <f>'Main Page'!B84*'Main Page'!B85</f>
+        <f>'Main Page'!B85*'Main Page'!B86</f>
         <v>1800</v>
       </c>
       <c r="D2" s="114"/>
@@ -15429,16 +15477,16 @@
       <c r="C5" s="131"/>
       <c r="D5" s="131"/>
       <c r="E5" s="132">
-        <f>'Main Page'!B52</f>
+        <f>'Main Page'!B53</f>
         <v>6.4</v>
       </c>
       <c r="F5" s="132">
-        <f>'Main Page'!B55</f>
+        <f>'Main Page'!B56</f>
         <v>0.1</v>
       </c>
       <c r="G5" s="131"/>
       <c r="H5" s="135">
-        <f>'Main Page'!B56</f>
+        <f>'Main Page'!B57</f>
         <v>7850</v>
       </c>
       <c r="I5" s="136">
@@ -15446,15 +15494,15 @@
         <v>101013.5135464648</v>
       </c>
       <c r="J5" s="132">
-        <f>'Main Page'!B57</f>
+        <f>'Main Page'!B58</f>
         <v>-6</v>
       </c>
       <c r="K5" s="132">
-        <f>'Main Page'!B58</f>
+        <f>'Main Page'!B59</f>
         <v>0</v>
       </c>
       <c r="L5" s="132">
-        <f>'Main Page'!B59</f>
+        <f>'Main Page'!B60</f>
         <v>0</v>
       </c>
       <c r="M5" s="347">
@@ -15507,15 +15555,15 @@
         <v>24956.108800000002</v>
       </c>
       <c r="J6" s="132">
-        <f>'Main Page'!B57</f>
+        <f>'Main Page'!B58</f>
         <v>-6</v>
       </c>
       <c r="K6" s="132">
-        <f>'Main Page'!B58</f>
+        <f>'Main Page'!B59</f>
         <v>0</v>
       </c>
       <c r="L6" s="132">
-        <f>'Main Page'!B59</f>
+        <f>'Main Page'!B60</f>
         <v>0</v>
       </c>
       <c r="M6" s="160">
@@ -15558,21 +15606,21 @@
         <v>138</v>
       </c>
       <c r="C7" s="132">
-        <f>'Main Page'!B62</f>
+        <f>'Main Page'!B63</f>
         <v>3.6</v>
       </c>
       <c r="D7" s="132">
+        <f>'Main Page'!B65</f>
+        <v>0.52</v>
+      </c>
+      <c r="E7" s="132">
         <f>'Main Page'!B64</f>
-        <v>0.52</v>
-      </c>
-      <c r="E7" s="132">
-        <f>'Main Page'!B63</f>
         <v>1.04</v>
       </c>
       <c r="F7" s="131"/>
       <c r="G7" s="136"/>
       <c r="H7" s="135">
-        <f>'Main Page'!B65</f>
+        <f>'Main Page'!B66</f>
         <v>7850</v>
       </c>
       <c r="I7" s="136">
@@ -15580,15 +15628,15 @@
         <v>18004.869621582769</v>
       </c>
       <c r="J7" s="132">
-        <f>0.5*('Main Page'!B70+'Main Page'!B73)</f>
+        <f>0.5*('Main Page'!B71+'Main Page'!B74)</f>
         <v>-2.7</v>
       </c>
       <c r="K7" s="132">
-        <f>'Main Page'!B66</f>
+        <f>'Main Page'!B67</f>
         <v>0</v>
       </c>
       <c r="L7" s="132">
-        <f>'Main Page'!B67</f>
+        <f>'Main Page'!B68</f>
         <v>0</v>
       </c>
       <c r="M7" s="160">
@@ -15643,15 +15691,15 @@
         <v>5947.3262023525358</v>
       </c>
       <c r="J8" s="132">
-        <f>'Main Page'!B70</f>
+        <f>'Main Page'!B71</f>
         <v>-4.2</v>
       </c>
       <c r="K8" s="132">
-        <f>'Main Page'!B71</f>
+        <f>'Main Page'!B72</f>
         <v>0</v>
       </c>
       <c r="L8" s="132">
-        <f>'Main Page'!B72</f>
+        <f>'Main Page'!B73</f>
         <v>0</v>
       </c>
       <c r="M8" s="160">
@@ -15706,15 +15754,15 @@
         <v>5947.3262023525358</v>
       </c>
       <c r="J9" s="132">
-        <f>'Main Page'!B73</f>
+        <f>'Main Page'!B74</f>
         <v>-1.2</v>
       </c>
       <c r="K9" s="132">
-        <f>'Main Page'!B74</f>
+        <f>'Main Page'!B75</f>
         <v>0</v>
       </c>
       <c r="L9" s="132">
-        <f>'Main Page'!B75</f>
+        <f>'Main Page'!B76</f>
         <v>0</v>
       </c>
       <c r="M9" s="160">
@@ -15769,19 +15817,19 @@
       <c r="G10" s="128"/>
       <c r="H10" s="137"/>
       <c r="I10" s="136">
-        <f>'Main Page'!B78/2</f>
+        <f>'Main Page'!B79/2</f>
         <v>21129.5</v>
       </c>
       <c r="J10" s="132">
-        <f>'Main Page'!B79</f>
+        <f>'Main Page'!B80</f>
         <v>0</v>
       </c>
       <c r="K10" s="132">
-        <f>'Main Page'!B80</f>
+        <f>'Main Page'!B81</f>
         <v>0</v>
       </c>
       <c r="L10" s="132">
-        <f>'Main Page'!B81</f>
+        <f>'Main Page'!B82</f>
         <v>0</v>
       </c>
       <c r="M10" s="160">
@@ -15833,19 +15881,19 @@
       <c r="G11" s="128"/>
       <c r="H11" s="137"/>
       <c r="I11" s="139">
-        <f>(3.3*'Main Page'!B88+471)/3</f>
+        <f>(3.3*'Main Page'!B89+471)/3</f>
         <v>5657</v>
       </c>
       <c r="J11" s="132">
-        <f>'Main Page'!B89</f>
+        <f>'Main Page'!B90</f>
         <v>1.5</v>
       </c>
       <c r="K11" s="132">
-        <f>'Main Page'!B90</f>
+        <f>'Main Page'!B91</f>
         <v>0</v>
       </c>
       <c r="L11" s="132">
-        <f>'Main Page'!B91</f>
+        <f>'Main Page'!B92</f>
         <v>0</v>
       </c>
       <c r="M11" s="160">
@@ -15853,7 +15901,7 @@
         <v>8402084.3541007079</v>
       </c>
       <c r="N11" s="160">
-        <f>M11/2/('Main Page'!B84^2)+I11*C11^2/12</f>
+        <f>M11/2/('Main Page'!B85^2)+I11*C11^2/12</f>
         <v>4611.2201548678149</v>
       </c>
       <c r="O11" s="160">
@@ -15900,7 +15948,7 @@
         <v>7850</v>
       </c>
       <c r="I12" s="139">
-        <f>1.5*0.025*1000*'Main Page'!B88/0.10472/C2</f>
+        <f>1.5*0.025*1000*'Main Page'!B89/0.10472/C2</f>
         <v>994.71606824548019</v>
       </c>
       <c r="J12" s="132">
@@ -15916,7 +15964,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="160">
-        <f>0.25*C12*PI()*H12*E12^2*'Main Page'!B84^2*E12^2/8</f>
+        <f>0.25*C12*PI()*H12*E12^2*'Main Page'!B85^2*E12^2/8</f>
         <v>2952212.5393859111</v>
       </c>
       <c r="N12" s="160">
@@ -16200,12 +16248,12 @@
       <c r="A19" s="112"/>
       <c r="B19" s="165"/>
       <c r="C19" s="112"/>
-      <c r="D19" s="364" t="s">
+      <c r="D19" s="396" t="s">
         <v>240</v>
       </c>
-      <c r="E19" s="364"/>
-      <c r="F19" s="364"/>
-      <c r="G19" s="364"/>
+      <c r="E19" s="396"/>
+      <c r="F19" s="396"/>
+      <c r="G19" s="396"/>
       <c r="H19" s="112"/>
       <c r="I19" s="112"/>
       <c r="J19" s="121"/>
@@ -16270,27 +16318,27 @@
         <v>163</v>
       </c>
       <c r="C21" s="132">
-        <f>'Main Page'!B94</f>
+        <f>'Main Page'!B95</f>
         <v>4.2</v>
       </c>
       <c r="D21" s="132">
-        <f>'Main Page'!B95</f>
+        <f>'Main Page'!B96</f>
         <v>4.5</v>
       </c>
       <c r="E21" s="132">
-        <f>'Main Page'!B96</f>
+        <f>'Main Page'!B97</f>
         <v>2.2080000000000002</v>
       </c>
       <c r="F21" s="132">
-        <f>'Main Page'!B97</f>
+        <f>'Main Page'!B98</f>
         <v>0.39100000000000001</v>
       </c>
       <c r="G21" s="132">
-        <f>'Main Page'!B98</f>
+        <f>'Main Page'!B99</f>
         <v>0.35299999999999998</v>
       </c>
       <c r="H21" s="136">
-        <f>'Main Page'!B99</f>
+        <f>'Main Page'!B100</f>
         <v>7850</v>
       </c>
       <c r="I21" s="139">
@@ -16298,15 +16346,15 @@
         <v>108174.81265920002</v>
       </c>
       <c r="J21" s="132">
-        <f>'Main Page'!B100</f>
+        <f>'Main Page'!B101</f>
         <v>0</v>
       </c>
       <c r="K21" s="132">
-        <f>'Main Page'!B101</f>
+        <f>'Main Page'!B102</f>
         <v>0</v>
       </c>
       <c r="L21" s="132">
-        <f>'Main Page'!B102</f>
+        <f>'Main Page'!B103</f>
         <v>-1.464</v>
       </c>
       <c r="M21" s="160">
@@ -16482,7 +16530,7 @@
       <c r="G24" s="130"/>
       <c r="H24" s="129"/>
       <c r="I24" s="140">
-        <f>'Main Page'!B78/2</f>
+        <f>'Main Page'!B79/2</f>
         <v>21129.5</v>
       </c>
       <c r="J24" s="132">
@@ -16550,7 +16598,7 @@
       <c r="G25" s="130"/>
       <c r="H25" s="129"/>
       <c r="I25" s="139">
-        <f>2*(3.3*'Main Page'!B88+471)/3</f>
+        <f>2*(3.3*'Main Page'!B89+471)/3</f>
         <v>11314</v>
       </c>
       <c r="J25" s="132">
@@ -16675,7 +16723,7 @@
       <c r="G27" s="129"/>
       <c r="H27" s="129"/>
       <c r="I27" s="139">
-        <f>2.6*'Main Page'!B88+0.002168*C1^3.4</f>
+        <f>2.6*'Main Page'!B89+0.002168*C1^3.4</f>
         <v>44664.539371690742</v>
       </c>
       <c r="J27" s="132">

--- a/FAST_models/WindPACT/excel_proc/turbines/5.0A04V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/5.0A04V00_proc.xlsx
@@ -4264,11 +4264,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104932096"/>
-        <c:axId val="104934016"/>
+        <c:axId val="112748800"/>
+        <c:axId val="112750976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104932096"/>
+        <c:axId val="112748800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4352,12 +4352,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104934016"/>
+        <c:crossAx val="112750976"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104934016"/>
+        <c:axId val="112750976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4440,7 +4440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104932096"/>
+        <c:crossAx val="112748800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5479,8 +5479,8 @@
   </sheetPr>
   <dimension ref="A1:U154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/FAST_models/WindPACT/excel_proc/turbines/5.0A04V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/5.0A04V00_proc.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrinker\Documents\GitHub\dissertation\FAST_models\WindPACT\excel_proc\turbines\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="110" yWindow="150" windowWidth="8070" windowHeight="7580" activeTab="5"/>
+    <workbookView xWindow="105" yWindow="150" windowWidth="8070" windowHeight="7575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -27,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Blade Data'!$A$6:$Q$32</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -37,7 +32,7 @@
     <author>Jeff Minnema</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="514">
   <si>
     <t>number</t>
   </si>
@@ -2029,6 +2024,18 @@
   <si>
     <t>TwEAStif</t>
   </si>
+  <si>
+    <t>P2P_Num</t>
+  </si>
+  <si>
+    <t>numerator blade pitch actuator TF</t>
+  </si>
+  <si>
+    <t>P2P_Den</t>
+  </si>
+  <si>
+    <t>denominator blade pitch actuator TF</t>
+  </si>
 </sst>
 </file>
 
@@ -2040,11 +2047,11 @@
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.000000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000"/>
-    <numFmt numFmtId="172" formatCode="0.000000"/>
-    <numFmt numFmtId="173" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="174" formatCode="0.00000000E+00"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="173" formatCode="0.00000000E+00"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -3779,24 +3786,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4430,11 +4437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="363063520"/>
-        <c:axId val="363061168"/>
+        <c:axId val="121399936"/>
+        <c:axId val="121414400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="363063520"/>
+        <c:axId val="121399936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4518,12 +4525,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363061168"/>
+        <c:crossAx val="121414400"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="363061168"/>
+        <c:axId val="121414400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4606,7 +4613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363063520"/>
+        <c:crossAx val="121399936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5649,19 +5656,19 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" thickBot="1">
@@ -5706,7 +5713,7 @@
       <c r="G3" s="395"/>
       <c r="H3" s="396"/>
     </row>
-    <row r="4" spans="1:8" ht="11" thickBot="1">
+    <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
@@ -5831,7 +5838,7 @@
         <v>146483.84444078518</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="10.5" thickBot="1">
+    <row r="8" spans="1:8" ht="12" thickBot="1">
       <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
@@ -5864,7 +5871,7 @@
         <v>924035.52423446742</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="10.5" thickBot="1">
+    <row r="9" spans="1:8" ht="12" thickBot="1">
       <c r="A9" s="106" t="s">
         <v>120</v>
       </c>
@@ -5907,7 +5914,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20">
+    <row r="14" spans="1:8" ht="22.5">
       <c r="A14" s="61" t="s">
         <v>43</v>
       </c>
@@ -5944,7 +5951,7 @@
       </c>
       <c r="E16" s="349"/>
     </row>
-    <row r="17" spans="1:21" ht="23.5" customHeight="1">
+    <row r="17" spans="1:21" ht="23.45" customHeight="1">
       <c r="A17" s="61" t="s">
         <v>42</v>
       </c>
@@ -6021,7 +6028,7 @@
       <c r="O20" s="170"/>
       <c r="P20" s="171"/>
     </row>
-    <row r="21" spans="1:21" ht="11.5" customHeight="1">
+    <row r="21" spans="1:21" ht="11.45" customHeight="1">
       <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
@@ -6067,7 +6074,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="173"/>
     </row>
-    <row r="24" spans="1:21" ht="12.65" customHeight="1">
+    <row r="24" spans="1:21" ht="12.6" customHeight="1">
       <c r="A24" s="100" t="s">
         <v>74</v>
       </c>
@@ -6088,7 +6095,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="173"/>
     </row>
-    <row r="25" spans="1:21" ht="10.5" thickBot="1">
+    <row r="25" spans="1:21" ht="12" thickBot="1">
       <c r="A25" s="100" t="s">
         <v>75</v>
       </c>
@@ -6119,7 +6126,7 @@
       <c r="G26" s="89"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="28" spans="1:21" ht="12.65" customHeight="1">
+    <row r="28" spans="1:21" ht="12.6" customHeight="1">
       <c r="A28" s="109" t="s">
         <v>78</v>
       </c>
@@ -6159,7 +6166,7 @@
     <row r="32" spans="1:21">
       <c r="B32" s="53"/>
     </row>
-    <row r="33" spans="1:5" ht="10.5">
+    <row r="33" spans="1:5">
       <c r="A33" s="109" t="s">
         <v>80</v>
       </c>
@@ -6331,7 +6338,7 @@
         <v>8.1827591169737772</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="10.5">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -6444,7 +6451,7 @@
       <c r="A64" s="18"/>
       <c r="B64" s="124"/>
     </row>
-    <row r="65" spans="1:4" ht="10.5">
+    <row r="65" spans="1:4">
       <c r="A65" s="111" t="s">
         <v>138</v>
       </c>
@@ -6529,7 +6536,7 @@
       <c r="A72" s="18"/>
       <c r="B72" s="124"/>
     </row>
-    <row r="73" spans="1:4" ht="10.5">
+    <row r="73" spans="1:4">
       <c r="A73" s="111" t="s">
         <v>144</v>
       </c>
@@ -6611,7 +6618,7 @@
       <c r="A80" s="18"/>
       <c r="B80" s="125"/>
     </row>
-    <row r="81" spans="1:4" ht="10.5">
+    <row r="81" spans="1:4">
       <c r="A81" s="111" t="s">
         <v>153</v>
       </c>
@@ -6714,7 +6721,7 @@
       <c r="A90" s="18"/>
       <c r="B90" s="123"/>
     </row>
-    <row r="91" spans="1:4" ht="10.5">
+    <row r="91" spans="1:4">
       <c r="A91" s="111" t="s">
         <v>159</v>
       </c>
@@ -6771,7 +6778,7 @@
       <c r="A96" s="18"/>
       <c r="B96" s="126"/>
     </row>
-    <row r="97" spans="1:4" ht="10.5">
+    <row r="97" spans="1:4">
       <c r="A97" s="111" t="s">
         <v>163</v>
       </c>
@@ -6885,7 +6892,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="10.5">
+    <row r="108" spans="1:4">
       <c r="A108" s="111" t="s">
         <v>389</v>
       </c>
@@ -6948,7 +6955,7 @@
       <c r="I113" s="184"/>
       <c r="J113" s="184"/>
     </row>
-    <row r="114" spans="1:13" ht="15">
+    <row r="114" spans="1:13" ht="14.25">
       <c r="A114" s="185"/>
       <c r="B114" s="186"/>
       <c r="C114" s="187" t="s">
@@ -7006,7 +7013,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="11.5">
+    <row r="116" spans="1:13" ht="12">
       <c r="A116" s="285">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7041,7 +7048,7 @@
         <v>1.2430064449702122E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="11.5">
+    <row r="117" spans="1:13" ht="12">
       <c r="A117" s="294">
         <v>0.25</v>
       </c>
@@ -7076,7 +7083,7 @@
         <v>2.6350516290416708E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="11.5">
+    <row r="118" spans="1:13" ht="12">
       <c r="A118" s="294">
         <v>0.5</v>
       </c>
@@ -7111,7 +7118,7 @@
         <v>1.0222163122534562E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="11.5">
+    <row r="119" spans="1:13" ht="12">
       <c r="A119" s="297">
         <v>0.75</v>
       </c>
@@ -7477,7 +7484,7 @@
         <v>5.4492188866567579</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="13">
+    <row r="131" spans="1:13">
       <c r="B131" s="18" t="s">
         <v>350</v>
       </c>
@@ -7494,7 +7501,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="10.5">
+    <row r="134" spans="1:13">
       <c r="A134" s="185"/>
       <c r="B134" s="231" t="s">
         <v>364</v>
@@ -7504,7 +7511,7 @@
       </c>
       <c r="D134" s="190"/>
     </row>
-    <row r="135" spans="1:13" ht="11.5">
+    <row r="135" spans="1:13" ht="12">
       <c r="A135" s="193" t="s">
         <v>87</v>
       </c>
@@ -7592,7 +7599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="11.5">
+    <row r="143" spans="1:13" ht="12">
       <c r="A143" s="337" t="s">
         <v>401</v>
       </c>
@@ -7653,8 +7660,8 @@
       <c r="F147" s="349"/>
       <c r="G147" s="349"/>
     </row>
-    <row r="148" spans="1:7" ht="10.5" thickBot="1"/>
-    <row r="149" spans="1:7" ht="10.5" thickBot="1">
+    <row r="148" spans="1:7" ht="12" thickBot="1"/>
+    <row r="149" spans="1:7" ht="12" thickBot="1">
       <c r="A149" s="387" t="s">
         <v>403</v>
       </c>
@@ -7665,7 +7672,7 @@
       </c>
       <c r="F149" s="349"/>
     </row>
-    <row r="150" spans="1:7" ht="10.5" thickBot="1">
+    <row r="150" spans="1:7" ht="12" thickBot="1">
       <c r="A150" s="356" t="s">
         <v>35</v>
       </c>
@@ -7680,7 +7687,7 @@
       </c>
       <c r="F150" s="349"/>
     </row>
-    <row r="151" spans="1:7" ht="11" thickBot="1">
+    <row r="151" spans="1:7" ht="12" thickBot="1">
       <c r="A151" s="358">
         <v>3.882E-2</v>
       </c>
@@ -7695,8 +7702,8 @@
       </c>
       <c r="F151" s="349"/>
     </row>
-    <row r="152" spans="1:7" ht="10.5" thickBot="1"/>
-    <row r="153" spans="1:7" ht="10.5" thickBot="1">
+    <row r="152" spans="1:7" ht="12" thickBot="1"/>
+    <row r="153" spans="1:7" ht="12" thickBot="1">
       <c r="A153" s="387" t="s">
         <v>414</v>
       </c>
@@ -7707,7 +7714,7 @@
       </c>
       <c r="F153" s="349"/>
     </row>
-    <row r="154" spans="1:7" ht="10.5">
+    <row r="154" spans="1:7">
       <c r="A154" s="362" t="s">
         <v>50</v>
       </c>
@@ -7720,7 +7727,7 @@
       </c>
       <c r="F154" s="349"/>
     </row>
-    <row r="155" spans="1:7" ht="10.5">
+    <row r="155" spans="1:7">
       <c r="A155" s="365" t="s">
         <v>51</v>
       </c>
@@ -7733,7 +7740,7 @@
       </c>
       <c r="F155" s="349"/>
     </row>
-    <row r="156" spans="1:7" ht="10.5">
+    <row r="156" spans="1:7">
       <c r="A156" s="368" t="s">
         <v>52</v>
       </c>
@@ -7745,7 +7752,7 @@
       </c>
       <c r="F156" s="349"/>
     </row>
-    <row r="157" spans="1:7" ht="11" thickBot="1">
+    <row r="157" spans="1:7" ht="12" thickBot="1">
       <c r="A157" s="369" t="s">
         <v>53</v>
       </c>
@@ -7784,10 +7791,10 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
@@ -8617,25 +8624,25 @@
       <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="10" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.5">
+    <row r="1" spans="1:25" ht="12.75">
       <c r="A1" s="112"/>
       <c r="B1" s="112" t="s">
         <v>171</v>
@@ -8667,7 +8674,7 @@
       <c r="X1" s="112"/>
       <c r="Y1" s="112"/>
     </row>
-    <row r="2" spans="1:25" ht="12.5">
+    <row r="2" spans="1:25" ht="12.75">
       <c r="A2" s="112"/>
       <c r="B2" s="113" t="s">
         <v>172</v>
@@ -8699,7 +8706,7 @@
       <c r="X2" s="112"/>
       <c r="Y2" s="112"/>
     </row>
-    <row r="3" spans="1:25" ht="12.5">
+    <row r="3" spans="1:25" ht="12.75">
       <c r="A3" s="112"/>
       <c r="B3" s="112"/>
       <c r="C3" s="112"/>
@@ -8726,7 +8733,7 @@
       <c r="X3" s="112"/>
       <c r="Y3" s="112"/>
     </row>
-    <row r="4" spans="1:25" ht="37.5">
+    <row r="4" spans="1:25" ht="38.25">
       <c r="A4" s="115"/>
       <c r="B4" s="163" t="s">
         <v>173</v>
@@ -8785,7 +8792,7 @@
       <c r="X4" s="115"/>
       <c r="Y4" s="116"/>
     </row>
-    <row r="5" spans="1:25" ht="12.5">
+    <row r="5" spans="1:25" ht="12.75">
       <c r="A5" s="112"/>
       <c r="B5" s="164" t="s">
         <v>12</v>
@@ -8855,7 +8862,7 @@
       <c r="X5" s="112"/>
       <c r="Y5" s="112"/>
     </row>
-    <row r="6" spans="1:25" ht="12.5">
+    <row r="6" spans="1:25" ht="12.75">
       <c r="A6" s="112"/>
       <c r="B6" s="164" t="s">
         <v>185</v>
@@ -8916,7 +8923,7 @@
       <c r="X6" s="112"/>
       <c r="Y6" s="112"/>
     </row>
-    <row r="7" spans="1:25" ht="12.5">
+    <row r="7" spans="1:25" ht="12.75">
       <c r="A7" s="112"/>
       <c r="B7" s="164" t="s">
         <v>138</v>
@@ -8989,7 +8996,7 @@
       <c r="X7" s="112"/>
       <c r="Y7" s="112"/>
     </row>
-    <row r="8" spans="1:25" ht="12.5">
+    <row r="8" spans="1:25" ht="12.75">
       <c r="A8" s="112"/>
       <c r="B8" s="164" t="s">
         <v>186</v>
@@ -9052,7 +9059,7 @@
       <c r="X8" s="112"/>
       <c r="Y8" s="118"/>
     </row>
-    <row r="9" spans="1:25" ht="12.5">
+    <row r="9" spans="1:25" ht="12.75">
       <c r="A9" s="112"/>
       <c r="B9" s="164" t="s">
         <v>187</v>
@@ -9115,7 +9122,7 @@
       <c r="X9" s="112"/>
       <c r="Y9" s="112"/>
     </row>
-    <row r="10" spans="1:25" ht="12.5">
+    <row r="10" spans="1:25" ht="12.75">
       <c r="A10" s="112"/>
       <c r="B10" s="164" t="s">
         <v>188</v>
@@ -9245,7 +9252,7 @@
       <c r="X11" s="112"/>
       <c r="Y11" s="118"/>
     </row>
-    <row r="12" spans="1:25" ht="12.5">
+    <row r="12" spans="1:25" ht="12.75">
       <c r="A12" s="112"/>
       <c r="B12" s="164" t="s">
         <v>256</v>
@@ -9312,7 +9319,7 @@
       <c r="X12" s="112"/>
       <c r="Y12" s="118"/>
     </row>
-    <row r="13" spans="1:25" ht="12.5">
+    <row r="13" spans="1:25" ht="12.75">
       <c r="A13" s="112"/>
       <c r="B13" s="164"/>
       <c r="C13" s="131"/>
@@ -9344,7 +9351,7 @@
       <c r="X13" s="112"/>
       <c r="Y13" s="118"/>
     </row>
-    <row r="14" spans="1:25" ht="12.5">
+    <row r="14" spans="1:25" ht="12.75">
       <c r="A14" s="112"/>
       <c r="B14" s="164"/>
       <c r="C14" s="131"/>
@@ -9393,7 +9400,7 @@
       <c r="X14" s="112"/>
       <c r="Y14" s="118"/>
     </row>
-    <row r="15" spans="1:25" ht="12.5">
+    <row r="15" spans="1:25" ht="12.75">
       <c r="A15" s="112"/>
       <c r="B15" s="164"/>
       <c r="C15" s="131"/>
@@ -9442,7 +9449,7 @@
       <c r="X15" s="112"/>
       <c r="Y15" s="118"/>
     </row>
-    <row r="16" spans="1:25" ht="12.5">
+    <row r="16" spans="1:25" ht="12.75">
       <c r="A16" s="112"/>
       <c r="B16" s="165"/>
       <c r="C16" s="112"/>
@@ -9492,7 +9499,7 @@
       <c r="X16" s="112"/>
       <c r="Y16" s="112"/>
     </row>
-    <row r="17" spans="1:25" ht="12.5">
+    <row r="17" spans="1:25" ht="12.75">
       <c r="A17" s="112"/>
       <c r="B17" s="165"/>
       <c r="C17" s="112"/>
@@ -9533,7 +9540,7 @@
       <c r="X17" s="112"/>
       <c r="Y17" s="112"/>
     </row>
-    <row r="18" spans="1:25" ht="12.5">
+    <row r="18" spans="1:25" ht="12.75">
       <c r="A18" s="112"/>
       <c r="B18" s="165"/>
       <c r="C18" s="112"/>
@@ -9560,7 +9567,7 @@
       <c r="X18" s="112"/>
       <c r="Y18" s="112"/>
     </row>
-    <row r="19" spans="1:25" ht="12.5">
+    <row r="19" spans="1:25" ht="12.75">
       <c r="A19" s="112"/>
       <c r="B19" s="165"/>
       <c r="C19" s="112"/>
@@ -9589,7 +9596,7 @@
       <c r="X19" s="112"/>
       <c r="Y19" s="112"/>
     </row>
-    <row r="20" spans="1:25" ht="37.5">
+    <row r="20" spans="1:25" ht="38.25">
       <c r="A20" s="115"/>
       <c r="B20" s="163" t="s">
         <v>190</v>
@@ -9628,7 +9635,7 @@
       <c r="X20" s="115"/>
       <c r="Y20" s="115"/>
     </row>
-    <row r="21" spans="1:25" ht="12.5">
+    <row r="21" spans="1:25" ht="12.75">
       <c r="A21" s="112"/>
       <c r="B21" s="164" t="s">
         <v>163</v>
@@ -9704,7 +9711,7 @@
       <c r="X21" s="112"/>
       <c r="Y21" s="112"/>
     </row>
-    <row r="22" spans="1:25" ht="12.5">
+    <row r="22" spans="1:25" ht="12.75">
       <c r="A22" s="112"/>
       <c r="B22" s="164" t="s">
         <v>195</v>
@@ -9764,7 +9771,7 @@
       <c r="X22" s="112"/>
       <c r="Y22" s="118"/>
     </row>
-    <row r="23" spans="1:25" ht="12.5">
+    <row r="23" spans="1:25" ht="12.75">
       <c r="A23" s="112"/>
       <c r="B23" s="164" t="s">
         <v>196</v>
@@ -9825,7 +9832,7 @@
       <c r="X23" s="112"/>
       <c r="Y23" s="112"/>
     </row>
-    <row r="24" spans="1:25" ht="12.5">
+    <row r="24" spans="1:25" ht="12.75">
       <c r="A24" s="112"/>
       <c r="B24" s="164" t="s">
         <v>197</v>
@@ -9893,7 +9900,7 @@
       <c r="X24" s="112"/>
       <c r="Y24" s="112"/>
     </row>
-    <row r="25" spans="1:25" ht="12.5">
+    <row r="25" spans="1:25" ht="12.75">
       <c r="A25" s="112"/>
       <c r="B25" s="164" t="s">
         <v>198</v>
@@ -9961,7 +9968,7 @@
       <c r="X25" s="112"/>
       <c r="Y25" s="112"/>
     </row>
-    <row r="26" spans="1:25" ht="12.5">
+    <row r="26" spans="1:25" ht="12.75">
       <c r="A26" s="112"/>
       <c r="B26" s="164" t="s">
         <v>199</v>
@@ -10027,7 +10034,7 @@
       <c r="X26" s="112"/>
       <c r="Y26" s="112"/>
     </row>
-    <row r="27" spans="1:25" ht="12.5">
+    <row r="27" spans="1:25" ht="12.75">
       <c r="A27" s="112"/>
       <c r="B27" s="164" t="s">
         <v>200</v>
@@ -10079,7 +10086,7 @@
       <c r="X27" s="112"/>
       <c r="Y27" s="112"/>
     </row>
-    <row r="28" spans="1:25" ht="12.5">
+    <row r="28" spans="1:25" ht="12.75">
       <c r="A28" s="112"/>
       <c r="B28" s="164" t="s">
         <v>201</v>
@@ -10131,7 +10138,7 @@
       <c r="X28" s="112"/>
       <c r="Y28" s="112"/>
     </row>
-    <row r="29" spans="1:25" ht="12.5">
+    <row r="29" spans="1:25" ht="12.75">
       <c r="A29" s="112"/>
       <c r="B29" s="165"/>
       <c r="C29" s="112"/>
@@ -10164,7 +10171,7 @@
       <c r="X29" s="112"/>
       <c r="Y29" s="112"/>
     </row>
-    <row r="30" spans="1:25" ht="12.5">
+    <row r="30" spans="1:25" ht="12.75">
       <c r="A30" s="112"/>
       <c r="B30" s="164"/>
       <c r="C30" s="112"/>
@@ -10214,7 +10221,7 @@
       <c r="X30" s="112"/>
       <c r="Y30" s="112"/>
     </row>
-    <row r="31" spans="1:25" ht="12.5">
+    <row r="31" spans="1:25" ht="12.75">
       <c r="A31" s="112"/>
       <c r="B31" s="164"/>
       <c r="C31" s="112"/>
@@ -10255,7 +10262,7 @@
       <c r="X31" s="112"/>
       <c r="Y31" s="112"/>
     </row>
-    <row r="32" spans="1:25" ht="12.5">
+    <row r="32" spans="1:25" ht="12.75">
       <c r="A32" s="112"/>
       <c r="B32" s="164"/>
       <c r="C32" s="112"/>
@@ -10282,7 +10289,7 @@
       <c r="X32" s="112"/>
       <c r="Y32" s="112"/>
     </row>
-    <row r="33" spans="1:25" ht="12.5">
+    <row r="33" spans="1:25" ht="12.75">
       <c r="A33" s="112"/>
       <c r="B33" s="164"/>
       <c r="C33" s="112"/>
@@ -10309,15 +10316,15 @@
       <c r="X33" s="112"/>
       <c r="Y33" s="112"/>
     </row>
-    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B34" s="165"/>
     </row>
-    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B35" s="164" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B36" s="164" t="s">
         <v>218</v>
       </c>
@@ -10325,7 +10332,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B37" s="164" t="s">
         <v>220</v>
       </c>
@@ -10333,10 +10340,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B38" s="165"/>
     </row>
-    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B39" s="164" t="s">
         <v>227</v>
       </c>
@@ -10344,7 +10351,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B40" s="164" t="s">
         <v>224</v>
       </c>
@@ -10352,7 +10359,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B41" s="164" t="s">
         <v>226</v>
       </c>
@@ -10360,10 +10367,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B42" s="166"/>
     </row>
-    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B43" s="164" t="s">
         <v>230</v>
       </c>
@@ -10371,7 +10378,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B44" s="164" t="s">
         <v>232</v>
       </c>
@@ -10379,7 +10386,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B45" s="164" t="s">
         <v>276</v>
       </c>
@@ -10387,10 +10394,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B46" s="166"/>
     </row>
-    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B47" s="164" t="s">
         <v>235</v>
       </c>
@@ -10398,7 +10405,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B48" s="164" t="s">
         <v>234</v>
       </c>
@@ -10406,7 +10413,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B49" s="164" t="s">
         <v>278</v>
       </c>
@@ -10414,13 +10421,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B50" s="164"/>
     </row>
-    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B51" s="164"/>
     </row>
-    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B52" s="164" t="s">
         <v>238</v>
       </c>
@@ -10428,7 +10435,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B53" s="164" t="s">
         <v>239</v>
       </c>
@@ -10436,7 +10443,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B54" s="164" t="s">
         <v>244</v>
       </c>
@@ -10444,7 +10451,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B55" s="164" t="s">
         <v>246</v>
       </c>
@@ -10452,10 +10459,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B56" s="164"/>
     </row>
-    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B57" s="164" t="s">
         <v>253</v>
       </c>
@@ -10463,7 +10470,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B58" s="164" t="s">
         <v>248</v>
       </c>
@@ -10471,7 +10478,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B59" s="164" t="s">
         <v>250</v>
       </c>
@@ -10479,7 +10486,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B60" s="164" t="s">
         <v>251</v>
       </c>
@@ -10487,10 +10494,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B61" s="164"/>
     </row>
-    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B62" s="164" t="s">
         <v>257</v>
       </c>
@@ -10498,7 +10505,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B63" s="164" t="s">
         <v>258</v>
       </c>
@@ -10506,7 +10513,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B64" s="164" t="s">
         <v>259</v>
       </c>
@@ -10514,7 +10521,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B65" s="164" t="s">
         <v>260</v>
       </c>
@@ -10522,7 +10529,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B66" s="164" t="s">
         <v>261</v>
       </c>
@@ -10530,10 +10537,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B67" s="164"/>
     </row>
-    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B68" s="164" t="s">
         <v>267</v>
       </c>
@@ -10541,7 +10548,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B69" s="164" t="s">
         <v>269</v>
       </c>
@@ -10549,10 +10556,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B70" s="164"/>
     </row>
-    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B71" s="164" t="s">
         <v>273</v>
       </c>
@@ -10560,7 +10567,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B72" s="164" t="s">
         <v>271</v>
       </c>
@@ -10568,7 +10575,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B73" s="164" t="s">
         <v>275</v>
       </c>
@@ -10576,10 +10583,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B74" s="164"/>
     </row>
-    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B75" s="164" t="s">
         <v>282</v>
       </c>
@@ -10587,7 +10594,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B76" s="164" t="s">
         <v>281</v>
       </c>
@@ -10595,7 +10602,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B77" s="164" t="s">
         <v>283</v>
       </c>
@@ -10603,7 +10610,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B78" s="164" t="s">
         <v>285</v>
       </c>
@@ -10611,7 +10618,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B79" s="164" t="s">
         <v>286</v>
       </c>
@@ -10619,10 +10626,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B80" s="164"/>
     </row>
-    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B81" s="164" t="s">
         <v>288</v>
       </c>
@@ -10630,7 +10637,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B82" s="164" t="s">
         <v>289</v>
       </c>
@@ -10638,7 +10645,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B83" s="164" t="s">
         <v>290</v>
       </c>
@@ -10646,7 +10653,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B84" s="164" t="s">
         <v>291</v>
       </c>
@@ -10654,7 +10661,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B85" s="164" t="s">
         <v>292</v>
       </c>
@@ -10662,10 +10669,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B86" s="164"/>
     </row>
-    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B87" s="164" t="s">
         <v>295</v>
       </c>
@@ -10673,7 +10680,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B88" s="164" t="s">
         <v>297</v>
       </c>
@@ -10681,7 +10688,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B89" s="164" t="s">
         <v>298</v>
       </c>
@@ -10689,7 +10696,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B90" s="164" t="s">
         <v>301</v>
       </c>
@@ -10697,7 +10704,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B91" s="164" t="s">
         <v>303</v>
       </c>
@@ -10705,8 +10712,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.5"/>
-    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.75"/>
+    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B93" s="164" t="s">
         <v>200</v>
       </c>
@@ -10714,7 +10721,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B94" s="164" t="s">
         <v>201</v>
       </c>
@@ -10722,10 +10729,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B95" s="165"/>
     </row>
-    <row r="96" spans="2:3" ht="12.5">
+    <row r="96" spans="2:3" ht="12.75">
       <c r="B96" s="164" t="s">
         <v>222</v>
       </c>
@@ -10857,9 +10864,9 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="2" max="7" width="15.77734375" customWidth="1"/>
+    <col min="2" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11542,18 +11549,18 @@
       <selection activeCell="B3" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12543,13 +12550,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -12636,7 +12643,7 @@
         <f>'Main Page'!$B$29</f>
         <v>11.190581936148892</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>464</v>
       </c>
       <c r="K8" s="376"/>
@@ -12652,7 +12659,7 @@
         <f>'Main Page'!$B$34</f>
         <v>2.6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>466</v>
       </c>
       <c r="K9" s="376"/>
@@ -12668,7 +12675,7 @@
         <f>'Main Page'!$B$35</f>
         <v>90</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>468</v>
       </c>
       <c r="K10" s="376"/>
@@ -12684,7 +12691,7 @@
         <f>'Main Page'!$B$40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>470</v>
       </c>
       <c r="K11" s="376"/>
@@ -12700,7 +12707,7 @@
         <f>'Main Page'!$B$37*PI()/180</f>
         <v>4.5378560551852569E-2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>473</v>
       </c>
       <c r="K12" s="376"/>
@@ -12716,7 +12723,7 @@
         <f>'Main Page'!$B$38*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>475</v>
       </c>
       <c r="K13" s="376"/>
@@ -12732,7 +12739,7 @@
         <f>1/C12^C15</f>
         <v>0.21302244142778143</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>477</v>
       </c>
       <c r="K14" s="376"/>
@@ -12748,27 +12755,60 @@
         <f>'Main Page'!$B$39</f>
         <v>-0.5</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>479</v>
       </c>
       <c r="K15" s="376"/>
     </row>
     <row r="16" spans="1:14">
+      <c r="B16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" s="101">
+        <f>(4*'Main Page'!$B$29/30*PI())^2</f>
+        <v>21.972656250000007</v>
+      </c>
+      <c r="D16" s="101">
+        <v>0</v>
+      </c>
+      <c r="E16" s="101">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>511</v>
+      </c>
       <c r="K16" s="376"/>
     </row>
-    <row r="17" spans="11:11">
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="101">
+        <f>(4*'Main Page'!$B$29/30*PI())^2</f>
+        <v>21.972656250000007</v>
+      </c>
+      <c r="D17" s="101">
+        <f>2*0.8*(4*'Main Page'!$B$29/30*PI())</f>
+        <v>7.5000000000000018</v>
+      </c>
+      <c r="E17" s="101">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>513</v>
+      </c>
       <c r="K17" s="102"/>
     </row>
-    <row r="19" spans="11:11">
+    <row r="19" spans="2:11">
       <c r="K19" s="377"/>
     </row>
-    <row r="20" spans="11:11">
+    <row r="20" spans="2:11">
       <c r="K20" s="102"/>
     </row>
-    <row r="21" spans="11:11">
+    <row r="21" spans="2:11">
       <c r="K21" s="102"/>
     </row>
-    <row r="22" spans="11:11">
+    <row r="22" spans="2:11">
       <c r="K22" s="102"/>
     </row>
   </sheetData>
@@ -12784,12 +12824,12 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -13058,14 +13098,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="15.77734375" customWidth="1"/>
+    <col min="3" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13419,18 +13459,18 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="16" style="18" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="11" width="12.44140625" customWidth="1"/>
+    <col min="10" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1">
@@ -13438,7 +13478,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="11" thickBot="1">
+    <row r="2" spans="1:11" ht="12" thickBot="1">
       <c r="A2" s="401" t="s">
         <v>84</v>
       </c>
@@ -13470,7 +13510,7 @@
       <c r="G3" s="77"/>
       <c r="H3" s="78"/>
     </row>
-    <row r="4" spans="1:11" ht="11" thickBot="1">
+    <row r="4" spans="1:11" ht="12" thickBot="1">
       <c r="A4" s="266">
         <v>0.01</v>
       </c>
@@ -13498,7 +13538,7 @@
       <c r="D6" s="59"/>
       <c r="E6" s="57"/>
     </row>
-    <row r="7" spans="1:11" s="19" customFormat="1" ht="32.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" s="19" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>1</v>
       </c>
@@ -13533,7 +13573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="10.5" thickBot="1">
+    <row r="8" spans="1:11" ht="12" thickBot="1">
       <c r="A8" s="47">
         <v>1</v>
       </c>
@@ -13576,7 +13616,7 @@
         <v>2949313618900.4307</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="10.5" thickBot="1">
+    <row r="9" spans="1:11" ht="12" thickBot="1">
       <c r="A9" s="48">
         <v>2</v>
       </c>
@@ -13619,7 +13659,7 @@
         <v>2278019361998.5259</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="10.5" thickBot="1">
+    <row r="10" spans="1:11" ht="12" thickBot="1">
       <c r="A10" s="48">
         <v>3</v>
       </c>
@@ -13662,7 +13702,7 @@
         <v>1728413822137.4292</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="10.5" thickBot="1">
+    <row r="11" spans="1:11" ht="12" thickBot="1">
       <c r="A11" s="48">
         <v>4</v>
       </c>
@@ -13705,7 +13745,7 @@
         <v>1284818865597.1003</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="10.5" thickBot="1">
+    <row r="12" spans="1:11" ht="12" thickBot="1">
       <c r="A12" s="48">
         <v>5</v>
       </c>
@@ -13748,7 +13788,7 @@
         <v>932637953883.65283</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="10.5" thickBot="1">
+    <row r="13" spans="1:11" ht="12" thickBot="1">
       <c r="A13" s="48">
         <v>6</v>
       </c>
@@ -13791,7 +13831,7 @@
         <v>658356143729.35046</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="10.5" thickBot="1">
+    <row r="14" spans="1:11" ht="12" thickBot="1">
       <c r="A14" s="48">
         <v>7</v>
       </c>
@@ -13834,7 +13874,7 @@
         <v>449540087092.60992</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="10.5" thickBot="1">
+    <row r="15" spans="1:11" ht="12" thickBot="1">
       <c r="A15" s="48">
         <v>8</v>
       </c>
@@ -13877,7 +13917,7 @@
         <v>294838031157.99896</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="10.5" thickBot="1">
+    <row r="16" spans="1:11" ht="12" thickBot="1">
       <c r="A16" s="48">
         <v>9</v>
       </c>
@@ -14173,7 +14213,7 @@
       <c r="J31" s="29"/>
       <c r="K31" s="30"/>
     </row>
-    <row r="32" spans="1:11" ht="10.5" thickBot="1">
+    <row r="32" spans="1:11" ht="12" thickBot="1">
       <c r="A32" s="49">
         <v>25</v>
       </c>
@@ -14210,33 +14250,33 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.65" customHeight="1" thickBot="1">
+    <row r="1" spans="1:20" ht="15.6" customHeight="1" thickBot="1">
       <c r="A1" s="55" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="57"/>
     </row>
-    <row r="2" spans="1:20" ht="20.5" thickBot="1">
+    <row r="2" spans="1:20" ht="23.25" thickBot="1">
       <c r="A2" s="96" t="s">
         <v>56</v>
       </c>
@@ -14250,7 +14290,7 @@
       <c r="E2" s="389"/>
       <c r="F2" s="390"/>
     </row>
-    <row r="3" spans="1:20" ht="20.5" thickBot="1">
+    <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
         <v>57</v>
       </c>
@@ -14273,7 +14313,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="11" thickBot="1">
+    <row r="4" spans="1:20" ht="12" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="D4" s="266">
@@ -14291,7 +14331,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="10.5">
+    <row r="5" spans="1:20">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="F5" s="4"/>
@@ -14301,7 +14341,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="13">
+    <row r="6" spans="1:20" ht="12.75">
       <c r="A6" s="55" t="s">
         <v>32</v>
       </c>
@@ -14315,7 +14355,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="10.5">
+    <row r="7" spans="1:20">
       <c r="A7" s="52" t="s">
         <v>34</v>
       </c>
@@ -14327,7 +14367,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:20" s="5" customFormat="1" ht="10.5">
+    <row r="8" spans="1:20" s="5" customFormat="1">
       <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
@@ -14348,7 +14388,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:20" s="19" customFormat="1" ht="30">
+    <row r="9" spans="1:20" s="19" customFormat="1" ht="33.75">
       <c r="A9" s="87" t="s">
         <v>0</v>
       </c>
@@ -16005,7 +16045,7 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
     </row>
-    <row r="32" spans="1:20" ht="10.5">
+    <row r="32" spans="1:20">
       <c r="A32" s="7">
         <v>23</v>
       </c>
@@ -16424,27 +16464,27 @@
       <selection activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1"/>
     <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">

--- a/FAST_models/WindPACT/excel_proc/turbines/5.0A04V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/5.0A04V00_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="150" windowWidth="8070" windowHeight="7575" activeTab="3"/>
+    <workbookView xWindow="105" yWindow="150" windowWidth="8070" windowHeight="7575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -4437,11 +4437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121399936"/>
-        <c:axId val="121414400"/>
+        <c:axId val="134195456"/>
+        <c:axId val="134209920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121399936"/>
+        <c:axId val="134195456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4525,12 +4525,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121414400"/>
+        <c:crossAx val="134209920"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121414400"/>
+        <c:axId val="134209920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4613,7 +4613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121399936"/>
+        <c:crossAx val="134195456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11545,8 +11545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12550,8 +12550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12821,7 +12821,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -13099,7 +13099,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H14"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/FAST_models/WindPACT/excel_proc/turbines/5.0A04V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/5.0A04V00_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="150" windowWidth="8070" windowHeight="7575" activeTab="2"/>
+    <workbookView xWindow="105" yWindow="150" windowWidth="8070" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="517">
   <si>
     <t>number</t>
   </si>
@@ -1612,9 +1612,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>cylinder</t>
-  </si>
-  <si>
     <t>Initial value = 0.03*D (shorter than for 750 kW?)</t>
   </si>
   <si>
@@ -2035,6 +2032,18 @@
   </si>
   <si>
     <t>denominator blade pitch actuator TF</t>
+  </si>
+  <si>
+    <t>PrnElm</t>
+  </si>
+  <si>
+    <t>NOPRINT</t>
+  </si>
+  <si>
+    <t>cylinder.dat</t>
+  </si>
+  <si>
+    <t>&lt;-- added ".dat" (JR)</t>
   </si>
 </sst>
 </file>
@@ -2946,7 +2955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="405">
+  <cellXfs count="404">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3735,7 +3744,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4437,11 +4445,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="134195456"/>
-        <c:axId val="134209920"/>
+        <c:axId val="115919488"/>
+        <c:axId val="115921664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134195456"/>
+        <c:axId val="115919488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4525,12 +4533,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134209920"/>
+        <c:crossAx val="115921664"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134209920"/>
+        <c:axId val="115921664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4613,7 +4621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134195456"/>
+        <c:crossAx val="115919488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5652,8 +5660,8 @@
   </sheetPr>
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144:F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5676,16 +5684,16 @@
         <v>40</v>
       </c>
       <c r="B1" s="183" t="s">
-        <v>400</v>
-      </c>
-      <c r="C1" s="397" t="s">
-        <v>394</v>
-      </c>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
-      <c r="F1" s="398"/>
-      <c r="G1" s="398"/>
-      <c r="H1" s="399"/>
+        <v>399</v>
+      </c>
+      <c r="C1" s="396" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1" s="397"/>
+      <c r="E1" s="397"/>
+      <c r="F1" s="397"/>
+      <c r="G1" s="397"/>
+      <c r="H1" s="398"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5701,17 +5709,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="391" t="s">
+      <c r="B3" s="390" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="392"/>
-      <c r="D3" s="393"/>
+      <c r="C3" s="391"/>
+      <c r="D3" s="392"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="394" t="s">
+      <c r="F3" s="393" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="395"/>
-      <c r="H3" s="396"/>
+      <c r="G3" s="394"/>
+      <c r="H3" s="395"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -5923,31 +5931,31 @@
         <v>2300693019.9789252</v>
       </c>
       <c r="D14" s="348" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E14" s="349"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="61" t="s">
-        <v>421</v>
-      </c>
-      <c r="B15" s="373">
+        <v>420</v>
+      </c>
+      <c r="B15" s="372">
         <v>5</v>
       </c>
       <c r="D15" s="348" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E15" s="349"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="61" t="s">
-        <v>420</v>
-      </c>
-      <c r="B16" s="373">
+        <v>419</v>
+      </c>
+      <c r="B16" s="372">
         <v>64807728</v>
       </c>
       <c r="D16" s="348" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E16" s="349"/>
     </row>
@@ -5996,11 +6004,11 @@
       <c r="C19" s="331">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D19" s="400" t="s">
+      <c r="D19" s="399" t="s">
         <v>374</v>
       </c>
-      <c r="E19" s="399"/>
-      <c r="F19" s="399"/>
+      <c r="E19" s="398"/>
+      <c r="F19" s="398"/>
     </row>
     <row r="20" spans="1:21" ht="25.5" customHeight="1">
       <c r="A20" s="270" t="s">
@@ -6012,11 +6020,11 @@
       <c r="C20" s="331">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D20" s="400" t="s">
+      <c r="D20" s="399" t="s">
         <v>373</v>
       </c>
-      <c r="E20" s="399"/>
-      <c r="F20" s="399"/>
+      <c r="E20" s="398"/>
+      <c r="F20" s="398"/>
       <c r="I20" s="35" t="s">
         <v>68</v>
       </c>
@@ -6152,14 +6160,14 @@
     </row>
     <row r="31" spans="1:21" ht="9.75" customHeight="1">
       <c r="A31" s="350" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B31" s="271">
         <f>B92*1000/(B87*PI()/30)/(B19)</f>
         <v>27921.919840683397</v>
       </c>
       <c r="D31" s="348" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E31" s="349"/>
     </row>
@@ -6197,74 +6205,74 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1">
-      <c r="A37" s="374" t="s">
-        <v>422</v>
+      <c r="A37" s="373" t="s">
+        <v>421</v>
       </c>
       <c r="B37" s="277">
         <v>2.6</v>
       </c>
       <c r="D37" s="348" t="s">
+        <v>422</v>
+      </c>
+      <c r="E37" s="349"/>
+    </row>
+    <row r="38" spans="1:5" ht="12" customHeight="1">
+      <c r="A38" s="373" t="s">
         <v>423</v>
-      </c>
-      <c r="E37" s="349"/>
-    </row>
-    <row r="38" spans="1:5" ht="12" customHeight="1">
-      <c r="A38" s="374" t="s">
-        <v>424</v>
       </c>
       <c r="B38" s="277">
         <v>30</v>
       </c>
       <c r="D38" s="348" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E38" s="349"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1">
-      <c r="A39" s="374" t="s">
-        <v>425</v>
+      <c r="A39" s="373" t="s">
+        <v>424</v>
       </c>
       <c r="B39" s="277">
         <v>-0.5</v>
       </c>
       <c r="D39" s="348" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E39" s="349"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1">
-      <c r="A40" s="374" t="s">
-        <v>426</v>
+      <c r="A40" s="373" t="s">
+        <v>425</v>
       </c>
       <c r="B40" s="277">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D40" s="348" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E40" s="349"/>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="42" spans="1:5" ht="12.75" customHeight="1">
       <c r="A42" s="109" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B42" s="29"/>
       <c r="D42" s="348" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E42" s="349"/>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1">
-      <c r="A43" s="374" t="s">
-        <v>427</v>
+      <c r="A43" s="373" t="s">
+        <v>426</v>
       </c>
       <c r="B43" s="277">
         <f>B31/B87^2</f>
         <v>8.6178764940380848E-3</v>
       </c>
       <c r="D43" s="348" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E43" s="349"/>
     </row>
@@ -6317,7 +6325,7 @@
     </row>
     <row r="51" spans="1:4" ht="13.5" customHeight="1">
       <c r="A51" s="100" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B51" s="332">
         <v>5</v>
@@ -6325,13 +6333,13 @@
     </row>
     <row r="52" spans="1:4" ht="18" customHeight="1">
       <c r="A52" s="109" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B52" s="63"/>
     </row>
     <row r="53" spans="1:4" ht="13.5" customHeight="1">
       <c r="A53" s="100" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B53" s="105">
         <f>ABS(B8)+B13/2*(B11+B18)/57.3-0.5*(B47+B13/2/B9*(B49-B47))</f>
@@ -6369,7 +6377,7 @@
         <v>85</v>
       </c>
       <c r="D57" s="274" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="10.9" customHeight="1">
@@ -6468,7 +6476,7 @@
         <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6676,24 +6684,24 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B86" s="280">
         <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B87" s="280">
         <v>1800</v>
       </c>
       <c r="C87" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6714,7 +6722,7 @@
         <v>11.190581936148892</v>
       </c>
       <c r="D89" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -6894,12 +6902,12 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="333" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B109" s="334">
         <f>'Blade Data'!R32*B10+E8</f>
@@ -6911,7 +6919,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="333" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B110" s="334">
         <f>E5+E6+E7</f>
@@ -6923,7 +6931,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="333" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B111" s="334">
         <f>B109+B110</f>
@@ -6935,7 +6943,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B112" s="334">
         <f>GECtwrdata!O26</f>
@@ -7493,7 +7501,7 @@
         <v>351</v>
       </c>
       <c r="H131" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -7507,7 +7515,7 @@
         <v>364</v>
       </c>
       <c r="C134" s="351" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D134" s="190"/>
     </row>
@@ -7601,10 +7609,10 @@
     </row>
     <row r="143" spans="1:13" ht="12">
       <c r="A143" s="337" t="s">
+        <v>400</v>
+      </c>
+      <c r="B143" s="338" t="s">
         <v>401</v>
-      </c>
-      <c r="B143" s="338" t="s">
-        <v>402</v>
       </c>
       <c r="C143" s="339"/>
     </row>
@@ -7614,9 +7622,12 @@
       </c>
       <c r="B144" s="341"/>
       <c r="C144" s="342" t="s">
-        <v>379</v>
-      </c>
-      <c r="E144" s="354"/>
+        <v>515</v>
+      </c>
+      <c r="E144" s="348" t="s">
+        <v>516</v>
+      </c>
+      <c r="F144" s="349"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="340">
@@ -7624,10 +7635,10 @@
       </c>
       <c r="B145" s="343"/>
       <c r="C145" s="344" t="s">
+        <v>409</v>
+      </c>
+      <c r="E145" s="348" t="s">
         <v>410</v>
-      </c>
-      <c r="E145" s="348" t="s">
-        <v>411</v>
       </c>
       <c r="F145" s="349"/>
       <c r="G145" s="349"/>
@@ -7638,10 +7649,10 @@
       </c>
       <c r="B146" s="343"/>
       <c r="C146" s="344" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E146" s="348" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F146" s="349"/>
       <c r="G146" s="349"/>
@@ -7650,117 +7661,117 @@
       <c r="A147" s="345">
         <v>4</v>
       </c>
-      <c r="B147" s="355"/>
+      <c r="B147" s="354"/>
       <c r="C147" s="353" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E147" s="348" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F147" s="349"/>
       <c r="G147" s="349"/>
     </row>
     <row r="148" spans="1:7" ht="12" thickBot="1"/>
     <row r="149" spans="1:7" ht="12" thickBot="1">
-      <c r="A149" s="387" t="s">
+      <c r="A149" s="386" t="s">
+        <v>402</v>
+      </c>
+      <c r="B149" s="388"/>
+      <c r="C149" s="389"/>
+      <c r="E149" s="348" t="s">
         <v>403</v>
       </c>
-      <c r="B149" s="389"/>
-      <c r="C149" s="390"/>
-      <c r="E149" s="348" t="s">
-        <v>404</v>
-      </c>
       <c r="F149" s="349"/>
     </row>
     <row r="150" spans="1:7" ht="12" thickBot="1">
-      <c r="A150" s="356" t="s">
+      <c r="A150" s="355" t="s">
         <v>35</v>
       </c>
-      <c r="B150" s="357" t="s">
+      <c r="B150" s="356" t="s">
         <v>36</v>
       </c>
-      <c r="C150" s="357" t="s">
+      <c r="C150" s="356" t="s">
         <v>37</v>
       </c>
       <c r="E150" s="348" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F150" s="349"/>
     </row>
     <row r="151" spans="1:7" ht="12" thickBot="1">
-      <c r="A151" s="358">
+      <c r="A151" s="357">
         <v>3.882E-2</v>
       </c>
-      <c r="B151" s="359">
+      <c r="B151" s="358">
         <v>3.882E-2</v>
       </c>
-      <c r="C151" s="360">
+      <c r="C151" s="359">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="E151" s="348" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F151" s="349"/>
     </row>
     <row r="152" spans="1:7" ht="12" thickBot="1"/>
     <row r="153" spans="1:7" ht="12" thickBot="1">
-      <c r="A153" s="387" t="s">
-        <v>414</v>
-      </c>
-      <c r="B153" s="388"/>
-      <c r="C153" s="361"/>
+      <c r="A153" s="386" t="s">
+        <v>413</v>
+      </c>
+      <c r="B153" s="387"/>
+      <c r="C153" s="360"/>
       <c r="E153" s="348" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F153" s="349"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="362" t="s">
+      <c r="A154" s="361" t="s">
         <v>50</v>
       </c>
-      <c r="B154" s="363">
+      <c r="B154" s="362">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="C154" s="364"/>
+      <c r="C154" s="363"/>
       <c r="E154" s="348" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F154" s="349"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="365" t="s">
+      <c r="A155" s="364" t="s">
         <v>51</v>
       </c>
-      <c r="B155" s="366">
+      <c r="B155" s="365">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="C155" s="367"/>
+      <c r="C155" s="366"/>
       <c r="E155" s="348" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F155" s="349"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="368" t="s">
+      <c r="A156" s="367" t="s">
         <v>52</v>
       </c>
-      <c r="B156" s="366">
+      <c r="B156" s="365">
         <v>3.4349999999999999E-2</v>
       </c>
       <c r="E156" s="348" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F156" s="349"/>
     </row>
     <row r="157" spans="1:7" ht="12" thickBot="1">
-      <c r="A157" s="369" t="s">
+      <c r="A157" s="368" t="s">
         <v>53</v>
       </c>
-      <c r="B157" s="370">
+      <c r="B157" s="369">
         <v>3.4349999999999999E-2</v>
       </c>
       <c r="E157" s="348" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F157" s="349"/>
     </row>
@@ -7919,14 +7930,14 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C11" s="154">
         <f>'Main Page'!B51</f>
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -7970,7 +7981,7 @@
         <v>310</v>
       </c>
       <c r="O13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -9571,12 +9582,12 @@
       <c r="A19" s="112"/>
       <c r="B19" s="165"/>
       <c r="C19" s="112"/>
-      <c r="D19" s="404" t="s">
+      <c r="D19" s="403" t="s">
         <v>240</v>
       </c>
-      <c r="E19" s="404"/>
-      <c r="F19" s="404"/>
-      <c r="G19" s="404"/>
+      <c r="E19" s="403"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="403"/>
       <c r="H19" s="112"/>
       <c r="I19" s="112"/>
       <c r="J19" s="121"/>
@@ -10858,10 +10869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B3" sqref="B3:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -10869,50 +10880,50 @@
     <col min="2" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
         <v>429</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>430</v>
       </c>
-      <c r="C1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="18">
         <f>'Main Page'!B17</f>
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" t="s">
         <v>433</v>
-      </c>
-      <c r="B4" t="s">
-        <v>434</v>
       </c>
       <c r="C4">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B5" t="s">
         <v>435</v>
-      </c>
-      <c r="B5" t="s">
-        <v>436</v>
       </c>
       <c r="C5" s="18" t="str">
         <f>'Main Page'!C144</f>
-        <v>cylinder</v>
+        <v>cylinder.dat</v>
       </c>
       <c r="D5" s="18" t="str">
         <f>'Main Page'!C145</f>
@@ -10927,12 +10938,12 @@
         <v>s826_1603.dat</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C6" s="18">
         <v>15</v>
@@ -10941,32 +10952,35 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" t="s">
         <v>438</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>439</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>440</v>
-      </c>
-      <c r="E7" t="s">
-        <v>441</v>
       </c>
       <c r="F7" t="s">
         <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" s="375">
+        <v>441</v>
+      </c>
+      <c r="H7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="374">
         <f>C37*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>5.2266666666666666</v>
       </c>
-      <c r="D8" s="376">
+      <c r="D8" s="375">
         <f>(F39-F38)/($D39-$D38)*($C8-$D39)+F38</f>
         <v>11.1</v>
       </c>
@@ -10974,7 +10988,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F8" s="376">
+      <c r="F8" s="375">
         <f>(E$39-E$38)/(D$39-D$38)*(C8-D$38)+E$38</f>
         <v>3.5642550729545901</v>
       </c>
@@ -10982,13 +10996,16 @@
         <f>ROUND((G$39-G$38)/(D$39-D$38)*(C8-D$38)+G$38,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="C9" s="375">
+      <c r="H8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="374">
         <f>C38*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>9.2800000000000011</v>
       </c>
-      <c r="D9" s="376">
+      <c r="D9" s="375">
         <f>(F39-F38)/($D39-$D38)*($C9-$D39)+F38</f>
         <v>11.1</v>
       </c>
@@ -10996,7 +11013,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F9" s="376">
+      <c r="F9" s="375">
         <f t="shared" ref="F9" si="0">(E$39-E$38)/(D$39-D$38)*(C9-D$38)+E$38</f>
         <v>4.149542799085598</v>
       </c>
@@ -11004,13 +11021,16 @@
         <f>ROUNDUP((G$39-G$38)/(D$39-D$38)*(C9-D$38)+G$38,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="C10" s="375">
+      <c r="H9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="374">
         <f>C39*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>13.333333333333332</v>
       </c>
-      <c r="D10" s="376">
+      <c r="D10" s="375">
         <f>(F39-F38)/($D39-$D38)*($C10-$D39)+F38</f>
         <v>11.1</v>
       </c>
@@ -11018,7 +11038,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F10" s="376">
+      <c r="F10" s="375">
         <f>(E$39-E$38)/(D$39-D$38)*(C10-D$38)+E$38</f>
         <v>4.7348305252166059</v>
       </c>
@@ -11026,13 +11046,16 @@
         <f>ROUND((G$39-G$38)/(D$39-D$38)*(C10-D$38)+G$38,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="C11" s="375">
+      <c r="H10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="374">
         <f>C40*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>17.386666666666667</v>
       </c>
-      <c r="D11" s="376">
+      <c r="D11" s="375">
         <f>(F40-F39)/($D40-$D39)*($C11-$D39)+F39</f>
         <v>10.406666666666666</v>
       </c>
@@ -11040,7 +11063,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F11" s="376">
+      <c r="F11" s="375">
         <f>(E$40-E$39)/(D$40-D$39)*(C11-D$39)+E$39</f>
         <v>5.0163813394293459</v>
       </c>
@@ -11048,13 +11071,16 @@
         <f>ROUND((G$40-G$39)/(D$40-D$39)*(C11-D$39)+G$39,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" s="375">
+      <c r="H11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="374">
         <f>C41*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>21.439999999999998</v>
       </c>
-      <c r="D12" s="376">
+      <c r="D12" s="375">
         <f>(F40-F39)/($D40-$D39)*($C12-$D39)+F39</f>
         <v>8.3800000000000008</v>
       </c>
@@ -11062,7 +11088,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F12" s="376">
+      <c r="F12" s="375">
         <f t="shared" ref="F12:F13" si="1">(E$40-E$39)/(D$40-D$39)*(C12-D$39)+E$39</f>
         <v>4.7138227076454156</v>
       </c>
@@ -11070,13 +11096,16 @@
         <f t="shared" ref="G12:G14" si="2">ROUND((G$40-G$39)/(D$40-D$39)*(C12-D$39)+G$39,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" s="375">
+      <c r="H12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="374">
         <f>C42*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>25.493333333333329</v>
       </c>
-      <c r="D13" s="376">
+      <c r="D13" s="375">
         <f>(F40-F39)/($D40-$D39)*($C13-$D39)+F39</f>
         <v>6.3533333333333353</v>
       </c>
@@ -11084,7 +11113,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F13" s="376">
+      <c r="F13" s="375">
         <f t="shared" si="1"/>
         <v>4.4112640758614861</v>
       </c>
@@ -11092,13 +11121,16 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="375">
+      <c r="H13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="374">
         <f>C43*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>29.546666666666667</v>
       </c>
-      <c r="D14" s="376">
+      <c r="D14" s="375">
         <f>(F40-F39)/($D40-$D39)*($C14-$D39)+F39</f>
         <v>4.3266666666666662</v>
       </c>
@@ -11106,7 +11138,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F14" s="376">
+      <c r="F14" s="375">
         <f>(E$40-E$39)/(D$40-D$39)*(C14-D$39)+E$39</f>
         <v>4.1087054440775557</v>
       </c>
@@ -11114,13 +11146,16 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="375">
+      <c r="H14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="374">
         <f>C44*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>33.6</v>
       </c>
-      <c r="D15" s="376">
+      <c r="D15" s="375">
         <f>(F41-F40)/($D41-$D40)*($C15-$D40)+F40</f>
         <v>2.8499999999999996</v>
       </c>
@@ -11128,7 +11163,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F15" s="376">
+      <c r="F15" s="375">
         <f>(E$41-E$40)/(D$41-D$40)*(C15-D$40)+E$40</f>
         <v>3.8061468122936248</v>
       </c>
@@ -11136,13 +11171,16 @@
         <f>ROUND((G$41-G$40)/(D$41-D$40)*(C15-D$40)+G$40,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" s="375">
+      <c r="H15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="374">
         <f>C45*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>37.653333333333336</v>
       </c>
-      <c r="D16" s="376">
+      <c r="D16" s="375">
         <f>(F41-F40)/($D41-$D40)*($C16-$D40)+F40</f>
         <v>2.2166666666666663</v>
       </c>
@@ -11150,7 +11188,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F16" s="376">
+      <c r="F16" s="375">
         <f t="shared" ref="F16:F18" si="3">(E$41-E$40)/(D$41-D$40)*(C16-D$40)+E$40</f>
         <v>3.5035881805096944</v>
       </c>
@@ -11158,13 +11196,16 @@
         <f t="shared" ref="G16:G18" si="4">ROUND((G$41-G$40)/(D$41-D$40)*(C16-D$40)+G$40,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="375">
+      <c r="H16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="374">
         <f>C46*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>41.706666666666663</v>
       </c>
-      <c r="D17" s="376">
+      <c r="D17" s="375">
         <f>(F41-F40)/($D41-$D40)*($C17-$D40)+F40</f>
         <v>1.5833333333333339</v>
       </c>
@@ -11172,7 +11213,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F17" s="376">
+      <c r="F17" s="375">
         <f t="shared" si="3"/>
         <v>3.2010295487257645</v>
       </c>
@@ -11180,13 +11221,16 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="375">
+      <c r="H17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="374">
         <f>C47*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>45.76</v>
       </c>
-      <c r="D18" s="376">
+      <c r="D18" s="375">
         <f>(F41-F40)/($D41-$D40)*($C18-$D40)+F40</f>
         <v>0.95000000000000062</v>
       </c>
@@ -11194,7 +11238,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F18" s="376">
+      <c r="F18" s="375">
         <f t="shared" si="3"/>
         <v>2.8984709169418341</v>
       </c>
@@ -11202,13 +11246,16 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="375">
+      <c r="H18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="374">
         <f>C48*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>49.81333333333334</v>
       </c>
-      <c r="D19" s="376">
+      <c r="D19" s="375">
         <f>(F42-F41)/($D42-$D41)*($C19-$D41)+F41</f>
         <v>0.5319999999999997</v>
       </c>
@@ -11216,7 +11263,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F19" s="376">
+      <c r="F19" s="375">
         <f>(E$42-E$41)/(D$42-D$41)*(C19-D$41)+E$41</f>
         <v>2.6094708322749978</v>
       </c>
@@ -11224,13 +11271,16 @@
         <f>ROUND((G$42-G$41)/(D$42-D$41)*(C19-D$41)+G$41,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="375">
+      <c r="H19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="374">
         <f>C49*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>53.866666666666667</v>
       </c>
-      <c r="D20" s="376">
+      <c r="D20" s="375">
         <f>(F42-F41)/($D42-$D41)*($C20-$D41)+F41</f>
         <v>0.38</v>
       </c>
@@ -11238,7 +11288,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F20" s="376">
+      <c r="F20" s="375">
         <f t="shared" ref="F20:F22" si="5">(E$42-E$41)/(D$42-D$41)*(C20-D$41)+E$41</f>
         <v>2.3372195411057488</v>
       </c>
@@ -11246,13 +11296,16 @@
         <f t="shared" ref="G20:G22" si="6">ROUND((G$42-G$41)/(D$42-D$41)*(C20-D$41)+G$41,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="375">
+      <c r="H20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="374">
         <f>C50*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>57.92</v>
       </c>
-      <c r="D21" s="376">
+      <c r="D21" s="375">
         <f>(F42-F41)/($D42-$D41)*($C21-$D41)+F41</f>
         <v>0.22799999999999992</v>
       </c>
@@ -11260,7 +11313,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F21" s="376">
+      <c r="F21" s="375">
         <f t="shared" si="5"/>
         <v>2.0649682499364999</v>
       </c>
@@ -11268,13 +11321,16 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="375">
+      <c r="H21" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="374">
         <f>C51*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>61.973333333333336</v>
       </c>
-      <c r="D22" s="376">
+      <c r="D22" s="375">
         <f>(F42-F41)/($D42-$D41)*($C22-$D41)+F41</f>
         <v>7.5999999999999845E-2</v>
       </c>
@@ -11282,7 +11338,7 @@
         <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
         <v>4.0533333333333328</v>
       </c>
-      <c r="F22" s="376">
+      <c r="F22" s="375">
         <f t="shared" si="5"/>
         <v>1.7927169587672509</v>
       </c>
@@ -11290,10 +11346,13 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
+      <c r="H22" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E36" t="s">
         <v>88</v>
@@ -11309,7 +11368,7 @@
       <c r="B37">
         <v>0.5</v>
       </c>
-      <c r="C37" s="377">
+      <c r="C37" s="376">
         <f>B37/C$6</f>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -11334,7 +11393,7 @@
       <c r="B38">
         <v>1.5</v>
       </c>
-      <c r="C38" s="377">
+      <c r="C38" s="376">
         <f t="shared" ref="C38:C51" si="7">B38/C$6</f>
         <v>0.1</v>
       </c>
@@ -11359,7 +11418,7 @@
       <c r="B39">
         <v>2.5</v>
       </c>
-      <c r="C39" s="377">
+      <c r="C39" s="376">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
@@ -11384,7 +11443,7 @@
       <c r="B40">
         <v>3.5</v>
       </c>
-      <c r="C40" s="377">
+      <c r="C40" s="376">
         <f t="shared" si="7"/>
         <v>0.23333333333333334</v>
       </c>
@@ -11409,7 +11468,7 @@
       <c r="B41">
         <v>4.5</v>
       </c>
-      <c r="C41" s="377">
+      <c r="C41" s="376">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
@@ -11434,7 +11493,7 @@
       <c r="B42">
         <v>5.5</v>
       </c>
-      <c r="C42" s="377">
+      <c r="C42" s="376">
         <f t="shared" si="7"/>
         <v>0.36666666666666664</v>
       </c>
@@ -11459,7 +11518,7 @@
       <c r="B43">
         <v>6.5</v>
       </c>
-      <c r="C43" s="377">
+      <c r="C43" s="376">
         <f t="shared" si="7"/>
         <v>0.43333333333333335</v>
       </c>
@@ -11468,7 +11527,7 @@
       <c r="B44">
         <v>7.5</v>
       </c>
-      <c r="C44" s="377">
+      <c r="C44" s="376">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
@@ -11477,7 +11536,7 @@
       <c r="B45">
         <v>8.5</v>
       </c>
-      <c r="C45" s="377">
+      <c r="C45" s="376">
         <f t="shared" si="7"/>
         <v>0.56666666666666665</v>
       </c>
@@ -11486,7 +11545,7 @@
       <c r="B46">
         <v>9.5</v>
       </c>
-      <c r="C46" s="377">
+      <c r="C46" s="376">
         <f t="shared" si="7"/>
         <v>0.6333333333333333</v>
       </c>
@@ -11495,7 +11554,7 @@
       <c r="B47">
         <v>10.5</v>
       </c>
-      <c r="C47" s="377">
+      <c r="C47" s="376">
         <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
@@ -11504,7 +11563,7 @@
       <c r="B48">
         <v>11.5</v>
       </c>
-      <c r="C48" s="377">
+      <c r="C48" s="376">
         <f t="shared" si="7"/>
         <v>0.76666666666666672</v>
       </c>
@@ -11513,7 +11572,7 @@
       <c r="B49">
         <v>12.5</v>
       </c>
-      <c r="C49" s="377">
+      <c r="C49" s="376">
         <f t="shared" si="7"/>
         <v>0.83333333333333337</v>
       </c>
@@ -11522,7 +11581,7 @@
       <c r="B50">
         <v>13.5</v>
       </c>
-      <c r="C50" s="377">
+      <c r="C50" s="376">
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
@@ -11531,7 +11590,7 @@
       <c r="B51">
         <v>14.5</v>
       </c>
-      <c r="C51" s="377">
+      <c r="C51" s="376">
         <f t="shared" si="7"/>
         <v>0.96666666666666667</v>
       </c>
@@ -11545,7 +11604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -11566,13 +11625,13 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
         <v>429</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>430</v>
-      </c>
-      <c r="C1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -11580,7 +11639,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C3" s="18">
         <f>'Main Page'!B13/2</f>
@@ -11607,7 +11666,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
       <c r="Y3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -11615,7 +11674,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C4" s="18">
         <f>'Main Page'!B56/2</f>
@@ -11642,15 +11701,15 @@
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
       <c r="Y4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C5" s="18">
         <f>'Main Page'!A151*100</f>
@@ -11660,7 +11719,7 @@
         <f>'Main Page'!B151*100</f>
         <v>3.8820000000000001</v>
       </c>
-      <c r="E5" s="378">
+      <c r="E5" s="377">
         <f>'Main Page'!C151*100</f>
         <v>5.8999999999999995</v>
       </c>
@@ -11682,40 +11741,40 @@
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
-      <c r="Y5" s="371" t="s">
-        <v>417</v>
+      <c r="Y5" s="370" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="B6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="378" t="s">
         <v>447</v>
       </c>
-      <c r="C6" s="379" t="s">
+      <c r="D6" s="378" t="s">
         <v>448</v>
       </c>
-      <c r="D6" s="379" t="s">
+      <c r="E6" s="378" t="s">
         <v>449</v>
       </c>
-      <c r="E6" s="379" t="s">
+      <c r="F6" s="378" t="s">
         <v>450</v>
       </c>
-      <c r="F6" s="379" t="s">
+      <c r="G6" s="378" t="s">
         <v>451</v>
       </c>
-      <c r="G6" s="379" t="s">
+      <c r="H6" s="378" t="s">
         <v>452</v>
       </c>
-      <c r="H6" s="379" t="s">
+      <c r="I6" s="378" t="s">
         <v>453</v>
       </c>
-      <c r="I6" s="379" t="s">
+      <c r="J6" s="378" t="s">
         <v>454</v>
       </c>
-      <c r="J6" s="379" t="s">
-        <v>455</v>
-      </c>
-      <c r="K6" s="379"/>
-      <c r="L6" s="379"/>
+      <c r="K6" s="378"/>
+      <c r="L6" s="378"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
@@ -11727,45 +11786,45 @@
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
-      <c r="Y6" s="371" t="s">
-        <v>418</v>
+      <c r="Y6" s="370" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="C7" s="380">
+      <c r="C7" s="379">
         <f>GECbladedata!$C28</f>
         <v>0</v>
       </c>
-      <c r="D7" s="380">
+      <c r="D7" s="379">
         <f>0.25+GECbladedata!$Q28/GECbladedata!$P28</f>
         <v>0.25</v>
       </c>
-      <c r="E7" s="380">
+      <c r="E7" s="379">
         <f>GECbladedata!$K28</f>
         <v>11.1</v>
       </c>
-      <c r="F7" s="380">
+      <c r="F7" s="379">
         <f>GECbladedata!$D28</f>
         <v>3708.4116472912633</v>
       </c>
-      <c r="G7" s="381">
+      <c r="G7" s="380">
         <f>GECbladedata!$O28</f>
         <v>63720689411.753181</v>
       </c>
-      <c r="H7" s="382">
+      <c r="H7" s="381">
         <f>GECbladedata!$N28</f>
         <v>63720689411.753181</v>
       </c>
-      <c r="I7" s="382">
+      <c r="I7" s="381">
         <f>GECbladedata!$L28</f>
         <v>22057695577.548672</v>
       </c>
-      <c r="J7" s="382">
+      <c r="J7" s="381">
         <f>GECbladedata!$M28</f>
         <v>42582928810.746231</v>
       </c>
-      <c r="K7" s="379"/>
-      <c r="L7" s="379"/>
+      <c r="K7" s="378"/>
+      <c r="L7" s="378"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
@@ -11779,40 +11838,40 @@
       <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="C8" s="380">
+      <c r="C8" s="379">
         <f>GECbladedata!$C29</f>
         <v>2.1052631578947371E-2</v>
       </c>
-      <c r="D8" s="380">
+      <c r="D8" s="379">
         <f>0.25+GECbladedata!$Q29/GECbladedata!$P29</f>
         <v>0.25</v>
       </c>
-      <c r="E8" s="380">
+      <c r="E8" s="379">
         <f>GECbladedata!$K29</f>
         <v>11.1</v>
       </c>
-      <c r="F8" s="380">
+      <c r="F8" s="379">
         <f>GECbladedata!$D29</f>
         <v>622.32317170970805</v>
       </c>
-      <c r="G8" s="381">
+      <c r="G8" s="380">
         <f>GECbladedata!$O29</f>
         <v>14036801421.634676</v>
       </c>
-      <c r="H8" s="382">
+      <c r="H8" s="381">
         <f>GECbladedata!$N29</f>
         <v>14036801421.634676</v>
       </c>
-      <c r="I8" s="382">
+      <c r="I8" s="381">
         <f>GECbladedata!$L29</f>
         <v>4904988079.2989025</v>
       </c>
-      <c r="J8" s="382">
+      <c r="J8" s="381">
         <f>GECbladedata!$M29</f>
         <v>9469182296.3330479</v>
       </c>
-      <c r="K8" s="379"/>
-      <c r="L8" s="379"/>
+      <c r="K8" s="378"/>
+      <c r="L8" s="378"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
@@ -11826,40 +11885,40 @@
       <c r="W8" s="18"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="C9" s="380">
+      <c r="C9" s="379">
         <f>GECbladedata!$C30</f>
         <v>5.2631578947368411E-2</v>
       </c>
-      <c r="D9" s="380">
+      <c r="D9" s="379">
         <f>0.25+GECbladedata!$Q30/GECbladedata!$P30</f>
         <v>0.22943093302493281</v>
       </c>
-      <c r="E9" s="380">
+      <c r="E9" s="379">
         <f>GECbladedata!$K30</f>
         <v>11.1</v>
       </c>
-      <c r="F9" s="380">
+      <c r="F9" s="379">
         <f>GECbladedata!$D30</f>
         <v>632.66939942027682</v>
       </c>
-      <c r="G9" s="381">
+      <c r="G9" s="380">
         <f>GECbladedata!$O30</f>
         <v>12397882204.057547</v>
       </c>
-      <c r="H9" s="382">
+      <c r="H9" s="381">
         <f>GECbladedata!$N30</f>
         <v>13799265880.204578</v>
       </c>
-      <c r="I9" s="382">
+      <c r="I9" s="381">
         <f>GECbladedata!$L30</f>
         <v>4111707386.3891439</v>
       </c>
-      <c r="J9" s="382">
+      <c r="J9" s="381">
         <f>GECbladedata!$M30</f>
         <v>9414556190.668129</v>
       </c>
-      <c r="K9" s="379"/>
-      <c r="L9" s="379"/>
+      <c r="K9" s="378"/>
+      <c r="L9" s="378"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
@@ -11873,40 +11932,40 @@
       <c r="W9" s="18"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="C10" s="380">
+      <c r="C10" s="379">
         <f>GECbladedata!$C31</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="D10" s="380">
+      <c r="D10" s="379">
         <f>0.25+GECbladedata!$Q31/GECbladedata!$P31</f>
         <v>0.20118976511421421</v>
       </c>
-      <c r="E10" s="380">
+      <c r="E10" s="379">
         <f>GECbladedata!$K31</f>
         <v>11.1</v>
       </c>
-      <c r="F10" s="380">
+      <c r="F10" s="379">
         <f>GECbladedata!$D31</f>
         <v>649.91311227122469</v>
       </c>
-      <c r="G10" s="381">
+      <c r="G10" s="380">
         <f>GECbladedata!$O31</f>
         <v>9666350174.7623291</v>
       </c>
-      <c r="H10" s="382">
+      <c r="H10" s="381">
         <f>GECbladedata!$N31</f>
         <v>13403373311.154413</v>
       </c>
-      <c r="I10" s="382">
+      <c r="I10" s="381">
         <f>GECbladedata!$L31</f>
         <v>2789572898.206214</v>
       </c>
-      <c r="J10" s="382">
+      <c r="J10" s="381">
         <f>GECbladedata!$M31</f>
         <v>9323512681.2265987</v>
       </c>
-      <c r="K10" s="379"/>
-      <c r="L10" s="379"/>
+      <c r="K10" s="378"/>
+      <c r="L10" s="378"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
@@ -11920,40 +11979,40 @@
       <c r="W10" s="18"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="C11" s="380">
+      <c r="C11" s="379">
         <f>GECbladedata!$C32</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="D11" s="380">
+      <c r="D11" s="379">
         <f>0.25+GECbladedata!$Q32/GECbladedata!$P32</f>
         <v>0.17855181001027015</v>
       </c>
-      <c r="E11" s="380">
+      <c r="E11" s="379">
         <f>GECbladedata!$K32</f>
         <v>11.1</v>
       </c>
-      <c r="F11" s="380">
+      <c r="F11" s="379">
         <f>GECbladedata!$D32</f>
         <v>667.15682512217268</v>
       </c>
-      <c r="G11" s="381">
+      <c r="G11" s="380">
         <f>GECbladedata!$O32</f>
         <v>6934818145.4671125</v>
       </c>
-      <c r="H11" s="382">
+      <c r="H11" s="381">
         <f>GECbladedata!$N32</f>
         <v>13007480742.104248</v>
       </c>
-      <c r="I11" s="382">
+      <c r="I11" s="381">
         <f>GECbladedata!$L32</f>
         <v>1467438410.0232835</v>
       </c>
-      <c r="J11" s="382">
+      <c r="J11" s="381">
         <f>GECbladedata!$M32</f>
         <v>9232469171.7850685</v>
       </c>
-      <c r="K11" s="379"/>
-      <c r="L11" s="379"/>
+      <c r="K11" s="378"/>
+      <c r="L11" s="378"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -11967,40 +12026,40 @@
       <c r="W11" s="18"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="C12" s="380">
+      <c r="C12" s="379">
         <f>GECbladedata!$C33</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="D12" s="380">
+      <c r="D12" s="379">
         <f>0.25+GECbladedata!$Q33/GECbladedata!$P33</f>
         <v>0.15999999999999998</v>
       </c>
-      <c r="E12" s="380">
+      <c r="E12" s="379">
         <f>GECbladedata!$K33</f>
         <v>11.1</v>
       </c>
-      <c r="F12" s="380">
+      <c r="F12" s="379">
         <f>GECbladedata!$D33</f>
         <v>684.40053797312055</v>
       </c>
-      <c r="G12" s="381">
+      <c r="G12" s="380">
         <f>GECbladedata!$O33</f>
         <v>4203286116.1718955</v>
       </c>
-      <c r="H12" s="382">
+      <c r="H12" s="381">
         <f>GECbladedata!$N33</f>
         <v>12611588173.054085</v>
       </c>
-      <c r="I12" s="382">
+      <c r="I12" s="381">
         <f>GECbladedata!$L33</f>
         <v>145303921.84035307</v>
       </c>
-      <c r="J12" s="382">
+      <c r="J12" s="381">
         <f>GECbladedata!$M33</f>
         <v>9141425662.3435383</v>
       </c>
-      <c r="K12" s="379"/>
-      <c r="L12" s="379"/>
+      <c r="K12" s="378"/>
+      <c r="L12" s="378"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -12014,343 +12073,343 @@
       <c r="W12" s="18"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="C13" s="380">
+      <c r="C13" s="379">
         <f>GECbladedata!$C34</f>
         <v>0.26315789473684209</v>
       </c>
-      <c r="D13" s="380">
+      <c r="D13" s="379">
         <f>0.25+GECbladedata!$Q34/GECbladedata!$P34</f>
         <v>0.16482551543977603</v>
       </c>
-      <c r="E13" s="380">
+      <c r="E13" s="379">
         <f>GECbladedata!$K34</f>
         <v>9.5</v>
       </c>
-      <c r="F13" s="380">
+      <c r="F13" s="379">
         <f>GECbladedata!$D34</f>
         <v>650.77448832242987</v>
       </c>
-      <c r="G13" s="381">
+      <c r="G13" s="380">
         <f>GECbladedata!$O34</f>
         <v>3566082052.4026623</v>
       </c>
-      <c r="H13" s="382">
+      <c r="H13" s="381">
         <f>GECbladedata!$N34</f>
         <v>10597335190.665302</v>
       </c>
-      <c r="I13" s="382">
+      <c r="I13" s="381">
         <f>GECbladedata!$L34</f>
         <v>127815352.69059727</v>
       </c>
-      <c r="J13" s="382">
+      <c r="J13" s="381">
         <f>GECbladedata!$M34</f>
         <v>8692878361.4346962</v>
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="C14" s="380">
+      <c r="C14" s="379">
         <f>GECbladedata!$C35</f>
         <v>0.31578947368421051</v>
       </c>
-      <c r="D14" s="380">
+      <c r="D14" s="379">
         <f>0.25+GECbladedata!$Q35/GECbladedata!$P35</f>
         <v>0.17014762368544883</v>
       </c>
-      <c r="E14" s="380">
+      <c r="E14" s="379">
         <f>GECbladedata!$K35</f>
         <v>7.9</v>
       </c>
-      <c r="F14" s="380">
+      <c r="F14" s="379">
         <f>GECbladedata!$D35</f>
         <v>617.14843867173909</v>
       </c>
-      <c r="G14" s="381">
+      <c r="G14" s="380">
         <f>GECbladedata!$O35</f>
         <v>2928877988.6334295</v>
       </c>
-      <c r="H14" s="382">
+      <c r="H14" s="381">
         <f>GECbladedata!$N35</f>
         <v>8583082208.2765217</v>
       </c>
-      <c r="I14" s="382">
+      <c r="I14" s="381">
         <f>GECbladedata!$L35</f>
         <v>110326783.54084146</v>
       </c>
-      <c r="J14" s="382">
+      <c r="J14" s="381">
         <f>GECbladedata!$M35</f>
         <v>8244331060.5258551</v>
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="C15" s="380">
+      <c r="C15" s="379">
         <f>GECbladedata!$C36</f>
         <v>0.36842105263157893</v>
       </c>
-      <c r="D15" s="380">
+      <c r="D15" s="379">
         <f>0.25+GECbladedata!$Q36/GECbladedata!$P36</f>
         <v>0.17604713944554043</v>
       </c>
-      <c r="E15" s="380">
+      <c r="E15" s="379">
         <f>GECbladedata!$K36</f>
         <v>6.2999999999999989</v>
       </c>
-      <c r="F15" s="380">
+      <c r="F15" s="379">
         <f>GECbladedata!$D36</f>
         <v>583.52238902104841</v>
       </c>
-      <c r="G15" s="381">
+      <c r="G15" s="380">
         <f>GECbladedata!$O36</f>
         <v>2291673924.8641958</v>
       </c>
-      <c r="H15" s="382">
+      <c r="H15" s="381">
         <f>GECbladedata!$N36</f>
         <v>6568829225.8877373</v>
       </c>
-      <c r="I15" s="382">
+      <c r="I15" s="381">
         <f>GECbladedata!$L36</f>
         <v>92838214.391085625</v>
       </c>
-      <c r="J15" s="382">
+      <c r="J15" s="381">
         <f>GECbladedata!$M36</f>
         <v>7795783759.617012</v>
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="C16" s="380">
+      <c r="C16" s="379">
         <f>GECbladedata!$C37</f>
         <v>0.42105263157894735</v>
       </c>
-      <c r="D16" s="380">
+      <c r="D16" s="379">
         <f>0.25+GECbladedata!$Q37/GECbladedata!$P37</f>
         <v>0.18262341876379959</v>
       </c>
-      <c r="E16" s="380">
+      <c r="E16" s="379">
         <f>GECbladedata!$K37</f>
         <v>4.6999999999999993</v>
       </c>
-      <c r="F16" s="380">
+      <c r="F16" s="379">
         <f>GECbladedata!$D37</f>
         <v>549.89633937035762</v>
       </c>
-      <c r="G16" s="381">
+      <c r="G16" s="380">
         <f>GECbladedata!$O37</f>
         <v>1654469861.0949631</v>
       </c>
-      <c r="H16" s="382">
+      <c r="H16" s="381">
         <f>GECbladedata!$N37</f>
         <v>4554576243.4989557</v>
       </c>
-      <c r="I16" s="382">
+      <c r="I16" s="381">
         <f>GECbladedata!$L37</f>
         <v>75349645.241329819</v>
       </c>
-      <c r="J16" s="382">
+      <c r="J16" s="381">
         <f>GECbladedata!$M37</f>
         <v>7347236458.7081709</v>
       </c>
     </row>
     <row r="17" spans="2:23">
-      <c r="C17" s="380">
+      <c r="C17" s="379">
         <f>GECbladedata!$C38</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="D17" s="380">
+      <c r="D17" s="379">
         <f>0.25+GECbladedata!$Q38/GECbladedata!$P38</f>
         <v>0.19</v>
       </c>
-      <c r="E17" s="380">
+      <c r="E17" s="379">
         <f>GECbladedata!$K38</f>
         <v>3.1</v>
       </c>
-      <c r="F17" s="380">
+      <c r="F17" s="379">
         <f>GECbladedata!$D38</f>
         <v>516.27028971966695</v>
       </c>
-      <c r="G17" s="381">
+      <c r="G17" s="380">
         <f>GECbladedata!$O38</f>
         <v>1017265797.32573</v>
       </c>
-      <c r="H17" s="382">
+      <c r="H17" s="381">
         <f>GECbladedata!$N38</f>
         <v>2540323261.1101747</v>
       </c>
-      <c r="I17" s="382">
+      <c r="I17" s="381">
         <f>GECbladedata!$L38</f>
         <v>57861076.091574006</v>
       </c>
-      <c r="J17" s="382">
+      <c r="J17" s="381">
         <f>GECbladedata!$M38</f>
         <v>6898689157.7993288</v>
       </c>
     </row>
     <row r="18" spans="2:23">
-      <c r="C18" s="380">
+      <c r="C18" s="379">
         <f>GECbladedata!$C39</f>
         <v>0.52631578947368418</v>
       </c>
-      <c r="D18" s="380">
+      <c r="D18" s="379">
         <f>0.25+GECbladedata!$Q39/GECbladedata!$P39</f>
         <v>0.194445041544376</v>
       </c>
-      <c r="E18" s="380">
+      <c r="E18" s="379">
         <f>GECbladedata!$K39</f>
         <v>2.5999999999999996</v>
       </c>
-      <c r="F18" s="380">
+      <c r="F18" s="379">
         <f>GECbladedata!$D39</f>
         <v>458.04767332933284</v>
       </c>
-      <c r="G18" s="381">
+      <c r="G18" s="380">
         <f>GECbladedata!$O39</f>
         <v>845657414.97322845</v>
       </c>
-      <c r="H18" s="382">
+      <c r="H18" s="381">
         <f>GECbladedata!$N39</f>
         <v>2154341469.8832569</v>
       </c>
-      <c r="I18" s="382">
+      <c r="I18" s="381">
         <f>GECbladedata!$L39</f>
         <v>48609907.71594812</v>
       </c>
-      <c r="J18" s="382">
+      <c r="J18" s="381">
         <f>GECbladedata!$M39</f>
         <v>6100410162.8420143</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="C19" s="380">
+      <c r="C19" s="379">
         <f>GECbladedata!$C40</f>
         <v>0.57894736842105254</v>
       </c>
-      <c r="D19" s="380">
+      <c r="D19" s="379">
         <f>0.25+GECbladedata!$Q40/GECbladedata!$P40</f>
         <v>0.19950597456940372</v>
       </c>
-      <c r="E19" s="380">
+      <c r="E19" s="379">
         <f>GECbladedata!$K40</f>
         <v>2.1000000000000005</v>
       </c>
-      <c r="F19" s="380">
+      <c r="F19" s="379">
         <f>GECbladedata!$D40</f>
         <v>399.8250569389989</v>
       </c>
-      <c r="G19" s="381">
+      <c r="G19" s="380">
         <f>GECbladedata!$O40</f>
         <v>674049032.6207273</v>
       </c>
-      <c r="H19" s="382">
+      <c r="H19" s="381">
         <f>GECbladedata!$N40</f>
         <v>1768359678.6563401</v>
       </c>
-      <c r="I19" s="382">
+      <c r="I19" s="381">
         <f>GECbladedata!$L40</f>
         <v>39358739.340322256</v>
       </c>
-      <c r="J19" s="382">
+      <c r="J19" s="381">
         <f>GECbladedata!$M40</f>
         <v>5302131167.8847008</v>
       </c>
     </row>
     <row r="20" spans="2:23">
-      <c r="B20" s="371"/>
-      <c r="C20" s="380">
+      <c r="B20" s="370"/>
+      <c r="C20" s="379">
         <f>GECbladedata!$C41</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="D20" s="380">
+      <c r="D20" s="379">
         <f>0.25+GECbladedata!$Q41/GECbladedata!$P41</f>
         <v>0.20532033117510171</v>
       </c>
-      <c r="E20" s="380">
+      <c r="E20" s="379">
         <f>GECbladedata!$K41</f>
         <v>1.5999999999999999</v>
       </c>
-      <c r="F20" s="380">
+      <c r="F20" s="379">
         <f>GECbladedata!$D41</f>
         <v>341.60244054866479</v>
       </c>
-      <c r="G20" s="381">
+      <c r="G20" s="380">
         <f>GECbladedata!$O41</f>
         <v>502440650.26822585</v>
       </c>
-      <c r="H20" s="382">
+      <c r="H20" s="381">
         <f>GECbladedata!$N41</f>
         <v>1382377887.4294226</v>
       </c>
-      <c r="I20" s="382">
+      <c r="I20" s="381">
         <f>GECbladedata!$L41</f>
         <v>30107570.96469637</v>
       </c>
-      <c r="J20" s="382">
+      <c r="J20" s="381">
         <f>GECbladedata!$M41</f>
         <v>4503852172.9273863</v>
       </c>
     </row>
     <row r="21" spans="2:23">
-      <c r="B21" s="371"/>
-      <c r="C21" s="380">
+      <c r="B21" s="370"/>
+      <c r="C21" s="379">
         <f>GECbladedata!$C42</f>
         <v>0.68421052631578938</v>
       </c>
-      <c r="D21" s="380">
+      <c r="D21" s="379">
         <f>0.25+GECbladedata!$Q42/GECbladedata!$P42</f>
         <v>0.21206988557647902</v>
       </c>
-      <c r="E21" s="380">
+      <c r="E21" s="379">
         <f>GECbladedata!$K42</f>
         <v>1.1000000000000005</v>
       </c>
-      <c r="F21" s="380">
+      <c r="F21" s="379">
         <f>GECbladedata!$D42</f>
         <v>283.37982415833085</v>
       </c>
-      <c r="G21" s="381">
+      <c r="G21" s="380">
         <f>GECbladedata!$O42</f>
         <v>330832267.91572475</v>
       </c>
-      <c r="H21" s="382">
+      <c r="H21" s="381">
         <f>GECbladedata!$N42</f>
         <v>996396096.20250583</v>
       </c>
-      <c r="I21" s="382">
+      <c r="I21" s="381">
         <f>GECbladedata!$L42</f>
         <v>20856402.589070506</v>
       </c>
-      <c r="J21" s="382">
+      <c r="J21" s="381">
         <f>GECbladedata!$M42</f>
         <v>3705573177.9700732</v>
       </c>
     </row>
     <row r="22" spans="2:23">
-      <c r="C22" s="380">
+      <c r="C22" s="379">
         <f>GECbladedata!$C43</f>
         <v>0.73684210526315785</v>
       </c>
-      <c r="D22" s="380">
+      <c r="D22" s="379">
         <f>0.25+GECbladedata!$Q43/GECbladedata!$P43</f>
         <v>0.21999999999999997</v>
       </c>
-      <c r="E22" s="380">
+      <c r="E22" s="379">
         <f>GECbladedata!$K43</f>
         <v>0.6</v>
       </c>
-      <c r="F22" s="380">
+      <c r="F22" s="379">
         <f>GECbladedata!$D43</f>
         <v>225.15720776799671</v>
       </c>
-      <c r="G22" s="381">
+      <c r="G22" s="380">
         <f>GECbladedata!$O43</f>
         <v>159223885.56322324</v>
       </c>
-      <c r="H22" s="382">
+      <c r="H22" s="381">
         <f>GECbladedata!$N43</f>
         <v>610414304.9755882</v>
       </c>
-      <c r="I22" s="382">
+      <c r="I22" s="381">
         <f>GECbladedata!$L43</f>
         <v>11605234.21344462</v>
       </c>
-      <c r="J22" s="382">
+      <c r="J22" s="381">
         <f>GECbladedata!$M43</f>
         <v>2907294183.0127583</v>
       </c>
@@ -12369,177 +12428,177 @@
       <c r="W22" s="102"/>
     </row>
     <row r="23" spans="2:23">
-      <c r="C23" s="380">
+      <c r="C23" s="379">
         <f>GECbladedata!$C44</f>
         <v>0.78947368421052622</v>
       </c>
-      <c r="D23" s="380">
+      <c r="D23" s="379">
         <f>0.25+GECbladedata!$Q44/GECbladedata!$P44</f>
         <v>0.22395001413170748</v>
       </c>
-      <c r="E23" s="380">
+      <c r="E23" s="379">
         <f>GECbladedata!$K44</f>
         <v>0.47999999999999987</v>
       </c>
-      <c r="F23" s="380">
+      <c r="F23" s="379">
         <f>GECbladedata!$D44</f>
         <v>184.52298204618276</v>
       </c>
-      <c r="G23" s="381">
+      <c r="G23" s="380">
         <f>GECbladedata!$O44</f>
         <v>127691063.55801517</v>
       </c>
-      <c r="H23" s="382">
+      <c r="H23" s="381">
         <f>GECbladedata!$N44</f>
         <v>499056317.91128469</v>
       </c>
-      <c r="I23" s="382">
+      <c r="I23" s="381">
         <f>GECbladedata!$L44</f>
         <v>9531690.6870213486</v>
       </c>
-      <c r="J23" s="382">
+      <c r="J23" s="381">
         <f>GECbladedata!$M44</f>
         <v>2372978143.1289206</v>
       </c>
     </row>
     <row r="24" spans="2:23">
-      <c r="C24" s="380">
+      <c r="C24" s="379">
         <f>GECbladedata!$C45</f>
         <v>0.84210526315789458</v>
       </c>
-      <c r="D24" s="380">
+      <c r="D24" s="379">
         <f>0.25+GECbladedata!$Q45/GECbladedata!$P45</f>
         <v>0.22863783855373815</v>
       </c>
-      <c r="E24" s="380">
+      <c r="E24" s="379">
         <f>GECbladedata!$K45</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="F24" s="380">
+      <c r="F24" s="379">
         <f>GECbladedata!$D45</f>
         <v>143.8887563243689</v>
       </c>
-      <c r="G24" s="381">
+      <c r="G24" s="380">
         <f>GECbladedata!$O45</f>
         <v>96158241.552807182</v>
       </c>
-      <c r="H24" s="382">
+      <c r="H24" s="381">
         <f>GECbladedata!$N45</f>
         <v>387698330.84698135</v>
       </c>
-      <c r="I24" s="382">
+      <c r="I24" s="381">
         <f>GECbladedata!$L45</f>
         <v>7458147.1605980825</v>
       </c>
-      <c r="J24" s="382">
+      <c r="J24" s="381">
         <f>GECbladedata!$M45</f>
         <v>1838662103.2450838</v>
       </c>
     </row>
     <row r="25" spans="2:23">
-      <c r="C25" s="380">
+      <c r="C25" s="379">
         <f>GECbladedata!$C46</f>
         <v>0.89473684210526305</v>
       </c>
-      <c r="D25" s="380">
+      <c r="D25" s="379">
         <f>0.25+GECbladedata!$Q46/GECbladedata!$P46</f>
         <v>0.23429148811842618</v>
       </c>
-      <c r="E25" s="380">
+      <c r="E25" s="379">
         <f>GECbladedata!$K46</f>
         <v>0.23999999999999994</v>
       </c>
-      <c r="F25" s="380">
+      <c r="F25" s="379">
         <f>GECbladedata!$D46</f>
         <v>103.25453060255496</v>
       </c>
-      <c r="G25" s="381">
+      <c r="G25" s="380">
         <f>GECbladedata!$O46</f>
         <v>64625419.547599107</v>
       </c>
-      <c r="H25" s="382">
+      <c r="H25" s="381">
         <f>GECbladedata!$N46</f>
         <v>276340343.78267783</v>
       </c>
-      <c r="I25" s="382">
+      <c r="I25" s="381">
         <f>GECbladedata!$L46</f>
         <v>5384603.6341748107</v>
       </c>
-      <c r="J25" s="382">
+      <c r="J25" s="381">
         <f>GECbladedata!$M46</f>
         <v>1304346063.3612461</v>
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="C26" s="380">
+      <c r="C26" s="379">
         <f>GECbladedata!$C47</f>
         <v>0.94736842105263142</v>
       </c>
-      <c r="D26" s="380">
+      <c r="D26" s="379">
         <f>0.25+GECbladedata!$Q47/GECbladedata!$P47</f>
         <v>0.24124372302597649</v>
       </c>
-      <c r="E26" s="380">
+      <c r="E26" s="379">
         <f>GECbladedata!$K47</f>
         <v>0.12000000000000011</v>
       </c>
-      <c r="F26" s="380">
+      <c r="F26" s="379">
         <f>GECbladedata!$D47</f>
         <v>62.620304880741116</v>
       </c>
-      <c r="G26" s="381">
+      <c r="G26" s="380">
         <f>GECbladedata!$O47</f>
         <v>33092597.542391106</v>
       </c>
-      <c r="H26" s="382">
+      <c r="H26" s="381">
         <f>GECbladedata!$N47</f>
         <v>164982356.71837449</v>
       </c>
-      <c r="I26" s="382">
+      <c r="I26" s="381">
         <f>GECbladedata!$L47</f>
         <v>3311060.1077515446</v>
       </c>
-      <c r="J26" s="382">
+      <c r="J26" s="381">
         <f>GECbladedata!$M47</f>
         <v>770030023.47740936</v>
       </c>
     </row>
     <row r="27" spans="2:23">
-      <c r="C27" s="380">
+      <c r="C27" s="379">
         <f>GECbladedata!$C48</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="D27" s="380">
+      <c r="D27" s="379">
         <f>0.25+GECbladedata!$Q48/GECbladedata!$P48</f>
         <v>0.25</v>
       </c>
-      <c r="E27" s="380">
+      <c r="E27" s="379">
         <f>GECbladedata!$K48</f>
         <v>0</v>
       </c>
-      <c r="F27" s="380">
+      <c r="F27" s="379">
         <f>GECbladedata!$D48</f>
         <v>21.986079158927165</v>
       </c>
-      <c r="G27" s="381">
+      <c r="G27" s="380">
         <f>GECbladedata!$O48</f>
         <v>1559775.5371830396</v>
       </c>
-      <c r="H27" s="382">
+      <c r="H27" s="381">
         <f>GECbladedata!$N48</f>
         <v>53624369.654070929</v>
       </c>
-      <c r="I27" s="382">
+      <c r="I27" s="381">
         <f>GECbladedata!$L48</f>
         <v>1237516.5813282721</v>
       </c>
-      <c r="J27" s="382">
+      <c r="J27" s="381">
         <f>GECbladedata!$M48</f>
         <v>235713983.59357151</v>
       </c>
     </row>
     <row r="29" spans="2:23">
-      <c r="D29" s="383"/>
+      <c r="D29" s="382"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12563,206 +12622,206 @@
   <sheetData>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" t="s">
         <v>429</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>430</v>
       </c>
-      <c r="C2" t="s">
-        <v>431</v>
-      </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="K3" s="376"/>
-      <c r="L3" s="372"/>
-      <c r="M3" s="372"/>
-      <c r="N3" s="371"/>
+      <c r="K3" s="375"/>
+      <c r="L3" s="371"/>
+      <c r="M3" s="371"/>
+      <c r="N3" s="370"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C4" s="101">
         <f>'Main Page'!B87</f>
         <v>1800</v>
       </c>
-      <c r="K4" s="376"/>
-      <c r="L4" s="372"/>
-      <c r="M4" s="372"/>
-      <c r="N4" s="371"/>
+      <c r="K4" s="375"/>
+      <c r="L4" s="371"/>
+      <c r="M4" s="371"/>
+      <c r="N4" s="370"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B5" t="s">
         <v>457</v>
       </c>
-      <c r="B5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C5" s="377">
+      <c r="C5" s="376">
         <f>'Main Page'!$B$31</f>
         <v>27921.919840683397</v>
       </c>
-      <c r="K5" s="376"/>
+      <c r="K5" s="375"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B6" t="s">
         <v>459</v>
       </c>
-      <c r="B6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C6" s="375">
+      <c r="C6" s="374">
         <f>'Main Page'!B43</f>
         <v>8.6178764940380848E-3</v>
       </c>
-      <c r="K6" s="376"/>
+      <c r="K6" s="375"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B7" t="s">
         <v>461</v>
       </c>
-      <c r="B7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C7" s="375">
+      <c r="C7" s="374">
         <v>2.6</v>
       </c>
-      <c r="K7" s="376"/>
+      <c r="K7" s="375"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C8">
         <f>'Main Page'!$B$29</f>
         <v>11.190581936148892</v>
       </c>
       <c r="G8" t="s">
-        <v>464</v>
-      </c>
-      <c r="K8" s="376"/>
+        <v>463</v>
+      </c>
+      <c r="K8" s="375"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9" s="102">
         <f>'Main Page'!$B$34</f>
         <v>2.6</v>
       </c>
       <c r="G9" t="s">
-        <v>466</v>
-      </c>
-      <c r="K9" s="376"/>
+        <v>465</v>
+      </c>
+      <c r="K9" s="375"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C10" s="102">
         <f>'Main Page'!$B$35</f>
         <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>468</v>
-      </c>
-      <c r="K10" s="376"/>
+        <v>467</v>
+      </c>
+      <c r="K10" s="375"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C11">
         <f>'Main Page'!$B$40</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>470</v>
-      </c>
-      <c r="K11" s="376"/>
+        <v>469</v>
+      </c>
+      <c r="K11" s="375"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B12" t="s">
         <v>471</v>
-      </c>
-      <c r="B12" t="s">
-        <v>472</v>
       </c>
       <c r="C12">
         <f>'Main Page'!$B$37*PI()/180</f>
         <v>4.5378560551852569E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>473</v>
-      </c>
-      <c r="K12" s="376"/>
+        <v>472</v>
+      </c>
+      <c r="K12" s="375"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C13">
         <f>'Main Page'!$B$38*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
       <c r="G13" t="s">
-        <v>475</v>
-      </c>
-      <c r="K13" s="376"/>
+        <v>474</v>
+      </c>
+      <c r="K13" s="375"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C14">
         <f>1/C12^C15</f>
         <v>0.21302244142778143</v>
       </c>
       <c r="G14" t="s">
-        <v>477</v>
-      </c>
-      <c r="K14" s="376"/>
+        <v>476</v>
+      </c>
+      <c r="K14" s="375"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C15">
         <f>'Main Page'!$B$39</f>
         <v>-0.5</v>
       </c>
       <c r="G15" t="s">
-        <v>479</v>
-      </c>
-      <c r="K15" s="376"/>
+        <v>478</v>
+      </c>
+      <c r="K15" s="375"/>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C16" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
@@ -12775,13 +12834,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>511</v>
-      </c>
-      <c r="K16" s="376"/>
+        <v>510</v>
+      </c>
+      <c r="K16" s="375"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C17" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
@@ -12795,12 +12854,12 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K17" s="102"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="K19" s="377"/>
+      <c r="K19" s="376"/>
     </row>
     <row r="20" spans="2:11">
       <c r="K20" s="102"/>
@@ -12834,13 +12893,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
         <v>429</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>430</v>
-      </c>
-      <c r="C1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12848,9 +12907,9 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C3" s="377">
+        <v>479</v>
+      </c>
+      <c r="C3" s="376">
         <f>'Main Page'!B61</f>
         <v>-6</v>
       </c>
@@ -12860,9 +12919,9 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C4" s="377">
+        <v>480</v>
+      </c>
+      <c r="C4" s="376">
         <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C11</f>
         <v>-0.32556971818134689</v>
       </c>
@@ -12873,9 +12932,9 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>482</v>
-      </c>
-      <c r="C5" s="377">
+        <v>481</v>
+      </c>
+      <c r="C5" s="376">
         <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C11</f>
         <v>0</v>
       </c>
@@ -12885,9 +12944,9 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C6" s="377">
+        <v>482</v>
+      </c>
+      <c r="C6" s="376">
         <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C11+'Main Page'!B46</f>
         <v>2.3429012413100061</v>
       </c>
@@ -12900,9 +12959,9 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C7" s="377">
+        <v>483</v>
+      </c>
+      <c r="C7" s="376">
         <f>'Main Page'!B9-'Main Page'!B46</f>
         <v>151.072</v>
       </c>
@@ -12915,9 +12974,9 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C8" s="377">
+        <v>484</v>
+      </c>
+      <c r="C8" s="376">
         <f>'Main Page'!B46</f>
         <v>2.9279999999999999</v>
       </c>
@@ -12927,12 +12986,12 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C9" s="377">
+        <v>485</v>
+      </c>
+      <c r="C9" s="376">
         <f>-'Main Page'!B11</f>
         <v>-5</v>
       </c>
@@ -12940,54 +12999,54 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
-        <v>487</v>
-      </c>
-      <c r="C10" s="377">
+        <v>486</v>
+      </c>
+      <c r="C10" s="376">
         <f>-'Main Page'!B18</f>
         <v>0</v>
       </c>
       <c r="I10" s="103"/>
-      <c r="M10" s="371"/>
+      <c r="M10" s="370"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>488</v>
-      </c>
-      <c r="C11" s="377">
+        <v>487</v>
+      </c>
+      <c r="C11" s="376">
         <f>SUM('Main Page'!E5+'Main Page'!E6+'Main Page'!E7)</f>
         <v>270668.70913834521</v>
       </c>
       <c r="I11" s="103"/>
-      <c r="M11" s="371"/>
+      <c r="M11" s="370"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>489</v>
-      </c>
-      <c r="C12" s="377">
+        <v>488</v>
+      </c>
+      <c r="C12" s="376">
         <f>'Main Page'!E8</f>
         <v>125969.62234646481</v>
       </c>
       <c r="I12" s="103"/>
-      <c r="M12" s="371"/>
+      <c r="M12" s="370"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>489</v>
+      </c>
+      <c r="B13" t="s">
         <v>490</v>
       </c>
-      <c r="B13" t="s">
-        <v>491</v>
-      </c>
-      <c r="C13" s="377">
+      <c r="C13" s="376">
         <f>SUM('Main Page'!H5:H7)</f>
         <v>739595.80544436211</v>
       </c>
@@ -12995,12 +13054,12 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B14" t="s">
-        <v>492</v>
-      </c>
-      <c r="C14" s="377">
+        <v>491</v>
+      </c>
+      <c r="C14" s="376">
         <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)/('Main Page'!$B$88)^2</f>
         <v>438.85452296241118</v>
       </c>
@@ -13008,34 +13067,34 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B15" t="s">
-        <v>493</v>
-      </c>
-      <c r="C15" s="377">
+        <v>492</v>
+      </c>
+      <c r="C15" s="376">
         <f>GECdrivetrain!M5</f>
         <v>668484.97012246738</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B16" t="s">
-        <v>494</v>
-      </c>
-      <c r="C16" s="386">
+        <v>493</v>
+      </c>
+      <c r="C16" s="385">
         <f>'Main Page'!B19*100</f>
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C17">
         <f>'Main Page'!$B$88</f>
@@ -13044,12 +13103,12 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
+        <v>495</v>
+      </c>
+      <c r="B18" t="s">
         <v>496</v>
       </c>
-      <c r="B18" t="s">
-        <v>497</v>
-      </c>
-      <c r="C18" s="385">
+      <c r="C18" s="384">
         <f>'Main Page'!B14</f>
         <v>2300693019.9789252</v>
       </c>
@@ -13057,12 +13116,12 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
+        <v>497</v>
+      </c>
+      <c r="B19" t="s">
         <v>498</v>
       </c>
-      <c r="B19" t="s">
-        <v>499</v>
-      </c>
-      <c r="C19" s="385">
+      <c r="C19" s="384">
         <f>2*'Main Page'!B15/100*SQRT(C18*'Main Page'!B16*C14*C17^2/('Main Page'!B16+C14*C17^2))</f>
         <v>14909175.1810933</v>
       </c>
@@ -13070,24 +13129,24 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
+        <v>499</v>
+      </c>
+      <c r="B20" t="s">
         <v>500</v>
-      </c>
-      <c r="B20" t="s">
-        <v>501</v>
       </c>
       <c r="C20" s="335">
         <f>'Main Page'!B92*1000</f>
         <v>5000000</v>
       </c>
-      <c r="M20" s="371"/>
+      <c r="M20" s="370"/>
     </row>
     <row r="21" spans="1:13">
       <c r="I21" s="103"/>
-      <c r="M21" s="371"/>
+      <c r="M21" s="370"/>
     </row>
     <row r="22" spans="1:13">
       <c r="I22" s="103"/>
-      <c r="M22" s="371"/>
+      <c r="M22" s="370"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13110,21 +13169,21 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
         <v>429</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>430</v>
-      </c>
-      <c r="C1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C3" s="103">
         <f>'Main Page'!B154*100</f>
@@ -13145,29 +13204,29 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C4" t="s">
         <v>503</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>504</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>505</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>506</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>507</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>508</v>
       </c>
-      <c r="H4" t="s">
-        <v>509</v>
-      </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="C5" s="376">
+      <c r="C5" s="375">
         <f>GECtwrdata!$B15/9</f>
         <v>0</v>
       </c>
@@ -13175,26 +13234,26 @@
         <f>GECtwrdata!$G15</f>
         <v>9401.5183391824921</v>
       </c>
-      <c r="E5" s="384">
+      <c r="E5" s="383">
         <f>GECtwrdata!$N15</f>
         <v>2949313618900.4307</v>
       </c>
-      <c r="F5" s="384">
+      <c r="F5" s="383">
         <f>GECtwrdata!$N15</f>
         <v>2949313618900.4307</v>
       </c>
-      <c r="G5" s="384">
+      <c r="G5" s="383">
         <f>GECtwrdata!$K15</f>
         <v>2268702783769.562</v>
       </c>
-      <c r="H5" s="384">
+      <c r="H5" s="383">
         <f>GECtwrdata!$H15</f>
         <v>228122980629.23849</v>
       </c>
-      <c r="N5" s="371"/>
+      <c r="N5" s="370"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="C6" s="376">
+      <c r="C6" s="375">
         <f>GECtwrdata!$B16/9</f>
         <v>0.1111111111111111</v>
       </c>
@@ -13202,26 +13261,26 @@
         <f>GECtwrdata!$G16</f>
         <v>8269.7152709443981</v>
       </c>
-      <c r="E6" s="384">
+      <c r="E6" s="383">
         <f>GECtwrdata!$N16</f>
         <v>2278019361998.5259</v>
       </c>
-      <c r="F6" s="384">
+      <c r="F6" s="383">
         <f>GECtwrdata!$N16</f>
         <v>2278019361998.5259</v>
       </c>
-      <c r="G6" s="384">
+      <c r="G6" s="383">
         <f>GECtwrdata!$K16</f>
         <v>1752322586152.7122</v>
       </c>
-      <c r="H6" s="384">
+      <c r="H6" s="383">
         <f>GECtwrdata!$H16</f>
         <v>200660364475.44794</v>
       </c>
-      <c r="N6" s="371"/>
+      <c r="N6" s="370"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="C7" s="376">
+      <c r="C7" s="375">
         <f>GECtwrdata!$B17/9</f>
         <v>0.22222222222222221</v>
       </c>
@@ -13229,26 +13288,26 @@
         <f>GECtwrdata!$G17</f>
         <v>7210.4630543628509</v>
       </c>
-      <c r="E7" s="384">
+      <c r="E7" s="383">
         <f>GECtwrdata!$N17</f>
         <v>1728413822137.4292</v>
       </c>
-      <c r="F7" s="384">
+      <c r="F7" s="383">
         <f>GECtwrdata!$N17</f>
         <v>1728413822137.4292</v>
       </c>
-      <c r="G7" s="384">
+      <c r="G7" s="383">
         <f>GECtwrdata!$K17</f>
         <v>1329549093951.8687</v>
       </c>
-      <c r="H7" s="384">
+      <c r="H7" s="383">
         <f>GECtwrdata!$H17</f>
         <v>174958157218.38885</v>
       </c>
-      <c r="N7" s="371"/>
+      <c r="N7" s="370"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="C8" s="376">
+      <c r="C8" s="375">
         <f>GECtwrdata!$B18/9</f>
         <v>0.33333333333333331</v>
       </c>
@@ -13256,26 +13315,26 @@
         <f>GECtwrdata!$G18</f>
         <v>6223.7616894378543</v>
       </c>
-      <c r="E8" s="384">
+      <c r="E8" s="383">
         <f>GECtwrdata!$N18</f>
         <v>1284818865597.1003</v>
       </c>
-      <c r="F8" s="384">
+      <c r="F8" s="383">
         <f>GECtwrdata!$N18</f>
         <v>1284818865597.1003</v>
       </c>
-      <c r="G8" s="384">
+      <c r="G8" s="383">
         <f>GECtwrdata!$K18</f>
         <v>988322204305.46167</v>
       </c>
-      <c r="H8" s="384">
+      <c r="H8" s="383">
         <f>GECtwrdata!$H18</f>
         <v>151016358858.06137</v>
       </c>
-      <c r="N8" s="371"/>
+      <c r="N8" s="370"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="C9" s="376">
+      <c r="C9" s="375">
         <f>GECtwrdata!$B19/9</f>
         <v>0.44444444444444442</v>
       </c>
@@ -13283,26 +13342,26 @@
         <f>GECtwrdata!$G19</f>
         <v>5309.6111761694065</v>
       </c>
-      <c r="E9" s="384">
+      <c r="E9" s="383">
         <f>GECtwrdata!$N19</f>
         <v>932637953883.65283</v>
       </c>
-      <c r="F9" s="384">
+      <c r="F9" s="383">
         <f>GECtwrdata!$N19</f>
         <v>932637953883.65283</v>
       </c>
-      <c r="G9" s="384">
+      <c r="G9" s="383">
         <f>GECtwrdata!$K19</f>
         <v>717413810679.73291</v>
       </c>
-      <c r="H9" s="384">
+      <c r="H9" s="383">
         <f>GECtwrdata!$H19</f>
         <v>128834969394.46544</v>
       </c>
-      <c r="N9" s="371"/>
+      <c r="N9" s="370"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="C10" s="376">
+      <c r="C10" s="375">
         <f>GECtwrdata!$B20/9</f>
         <v>0.55555555555555558</v>
       </c>
@@ -13310,26 +13369,26 @@
         <f>GECtwrdata!$G20</f>
         <v>4468.0115145575082</v>
       </c>
-      <c r="E10" s="384">
+      <c r="E10" s="383">
         <f>GECtwrdata!$N20</f>
         <v>658356143729.35046</v>
       </c>
-      <c r="F10" s="384">
+      <c r="F10" s="383">
         <f>GECtwrdata!$N20</f>
         <v>658356143729.35046</v>
       </c>
-      <c r="G10" s="384">
+      <c r="G10" s="383">
         <f>GECtwrdata!$K20</f>
         <v>506427802868.73114</v>
       </c>
-      <c r="H10" s="384">
+      <c r="H10" s="383">
         <f>GECtwrdata!$H20</f>
         <v>108413988827.60104</v>
       </c>
-      <c r="N10" s="371"/>
+      <c r="N10" s="370"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="C11" s="376">
+      <c r="C11" s="375">
         <f>GECtwrdata!$B21/9</f>
         <v>0.66666666666666663</v>
       </c>
@@ -13337,26 +13396,26 @@
         <f>GECtwrdata!$G21</f>
         <v>3698.9627046021596</v>
       </c>
-      <c r="E11" s="384">
+      <c r="E11" s="383">
         <f>GECtwrdata!$N21</f>
         <v>449540087092.60992</v>
       </c>
-      <c r="F11" s="384">
+      <c r="F11" s="383">
         <f>GECtwrdata!$N21</f>
         <v>449540087092.60992</v>
       </c>
-      <c r="G11" s="384">
+      <c r="G11" s="383">
         <f>GECtwrdata!$K21</f>
         <v>345800066994.31531</v>
       </c>
-      <c r="H11" s="384">
+      <c r="H11" s="383">
         <f>GECtwrdata!$H21</f>
         <v>89753417157.468246</v>
       </c>
-      <c r="N11" s="371"/>
+      <c r="N11" s="370"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="C12" s="376">
+      <c r="C12" s="375">
         <f>GECtwrdata!$B22/9</f>
         <v>0.77777777777777779</v>
       </c>
@@ -13364,26 +13423,26 @@
         <f>GECtwrdata!$G22</f>
         <v>3002.4647463033616</v>
       </c>
-      <c r="E12" s="384">
+      <c r="E12" s="383">
         <f>GECtwrdata!$N22</f>
         <v>294838031157.99896</v>
       </c>
-      <c r="F12" s="384">
+      <c r="F12" s="383">
         <f>GECtwrdata!$N22</f>
         <v>294838031157.99896</v>
       </c>
-      <c r="G12" s="384">
+      <c r="G12" s="383">
         <f>GECtwrdata!$K22</f>
         <v>226798485506.15305</v>
       </c>
-      <c r="H12" s="384">
+      <c r="H12" s="383">
         <f>GECtwrdata!$H22</f>
         <v>72853254384.067001</v>
       </c>
-      <c r="N12" s="371"/>
+      <c r="N12" s="370"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="C13" s="376">
+      <c r="C13" s="375">
         <f>GECtwrdata!$B23/9</f>
         <v>0.88888888888888884</v>
       </c>
@@ -13391,26 +13450,26 @@
         <f>GECtwrdata!$G23</f>
         <v>2378.5176396611114</v>
       </c>
-      <c r="E13" s="384">
+      <c r="E13" s="383">
         <f>GECtwrdata!$N23</f>
         <v>183979818336.23752</v>
       </c>
-      <c r="F13" s="384">
+      <c r="F13" s="383">
         <f>GECtwrdata!$N23</f>
         <v>183979818336.23752</v>
       </c>
-      <c r="G13" s="384">
+      <c r="G13" s="383">
         <f>GECtwrdata!$K23</f>
         <v>141522937181.72116</v>
       </c>
-      <c r="H13" s="384">
+      <c r="H13" s="383">
         <f>GECtwrdata!$H23</f>
         <v>57713500507.397308</v>
       </c>
-      <c r="N13" s="371"/>
+      <c r="N13" s="370"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="C14" s="376">
+      <c r="C14" s="375">
         <f>GECtwrdata!$B24/9</f>
         <v>1</v>
       </c>
@@ -13418,30 +13477,30 @@
         <f>GECtwrdata!$G24</f>
         <v>1827.1213846754108</v>
       </c>
-      <c r="E14" s="384">
+      <c r="E14" s="383">
         <f>GECtwrdata!$N24</f>
         <v>107776886264.19733</v>
       </c>
-      <c r="F14" s="384">
+      <c r="F14" s="383">
         <f>GECtwrdata!$N24</f>
         <v>107776886264.19733</v>
       </c>
-      <c r="G14" s="384">
+      <c r="G14" s="383">
         <f>GECtwrdata!$K24</f>
         <v>82905297126.305634</v>
       </c>
-      <c r="H14" s="384">
+      <c r="H14" s="383">
         <f>GECtwrdata!$H24</f>
         <v>44334155527.45916</v>
       </c>
-      <c r="I14" s="372"/>
-      <c r="J14" s="372"/>
-      <c r="K14" s="372"/>
-      <c r="L14" s="372"/>
-      <c r="N14" s="371"/>
+      <c r="I14" s="371"/>
+      <c r="J14" s="371"/>
+      <c r="K14" s="371"/>
+      <c r="L14" s="371"/>
+      <c r="N14" s="370"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="N15" s="371"/>
+      <c r="N15" s="370"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13479,12 +13538,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="401" t="s">
+      <c r="A2" s="400" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="402"/>
-      <c r="C2" s="402"/>
-      <c r="D2" s="403"/>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="402"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -14284,11 +14343,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>60.8</v>
       </c>
-      <c r="D2" s="387" t="s">
+      <c r="D2" s="386" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="389"/>
-      <c r="F2" s="390"/>
+      <c r="E2" s="388"/>
+      <c r="F2" s="389"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
@@ -14441,7 +14500,7 @@
         <v>41</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S9" s="89"/>
       <c r="T9" s="89"/>
@@ -17567,7 +17626,7 @@
         <v>370</v>
       </c>
       <c r="T26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="13.5">

--- a/FAST_models/WindPACT/excel_proc/turbines/5.0A04V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/5.0A04V00_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="150" windowWidth="8070" windowHeight="7575"/>
+    <workbookView xWindow="105" yWindow="150" windowWidth="8070" windowHeight="7575" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="526">
   <si>
     <t>number</t>
   </si>
@@ -1830,9 +1830,6 @@
     <t>HubRad</t>
   </si>
   <si>
-    <t>BldDmp</t>
-  </si>
-  <si>
     <t>DistBldProps</t>
   </si>
   <si>
@@ -1878,9 +1875,6 @@
     <t>deg</t>
   </si>
   <si>
-    <t>BlPitchF</t>
-  </si>
-  <si>
     <t>CNST(2)</t>
   </si>
   <si>
@@ -1953,9 +1947,6 @@
     <t>ShftTilt</t>
   </si>
   <si>
-    <t>PreCone</t>
-  </si>
-  <si>
     <t>NacMass</t>
   </si>
   <si>
@@ -1998,9 +1989,6 @@
     <t>RatedPwr</t>
   </si>
   <si>
-    <t>TwrDmp</t>
-  </si>
-  <si>
     <t>TwrSchedFields</t>
   </si>
   <si>
@@ -2044,6 +2032,45 @@
   </si>
   <si>
     <t>&lt;-- added ".dat" (JR)</t>
+  </si>
+  <si>
+    <t>BldFlDmp(1)</t>
+  </si>
+  <si>
+    <t>BldFlDmp(2)</t>
+  </si>
+  <si>
+    <t>BldEdDmp(1)</t>
+  </si>
+  <si>
+    <t>BlPitchF(1)</t>
+  </si>
+  <si>
+    <t>BlPitchF(2)</t>
+  </si>
+  <si>
+    <t>BlPitchF(3)</t>
+  </si>
+  <si>
+    <t>TwrFADmp(1)</t>
+  </si>
+  <si>
+    <t>TwrFADmp(2)</t>
+  </si>
+  <si>
+    <t>TwrSSDmp(1)</t>
+  </si>
+  <si>
+    <t>TwrSSDmp(2)</t>
+  </si>
+  <si>
+    <t>PreCone(1)</t>
+  </si>
+  <si>
+    <t>PreCone(2)</t>
+  </si>
+  <si>
+    <t>PreCone(3)</t>
   </si>
 </sst>
 </file>
@@ -2955,7 +2982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="404">
+  <cellXfs count="405">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3814,6 +3841,9 @@
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4445,11 +4475,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="115919488"/>
-        <c:axId val="115921664"/>
+        <c:axId val="126633472"/>
+        <c:axId val="126635392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115919488"/>
+        <c:axId val="126633472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4533,12 +4563,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115921664"/>
+        <c:crossAx val="126635392"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115921664"/>
+        <c:axId val="126635392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4621,7 +4651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115919488"/>
+        <c:crossAx val="126633472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5660,7 +5690,7 @@
   </sheetPr>
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C144" sqref="C144:F144"/>
     </sheetView>
   </sheetViews>
@@ -5686,14 +5716,14 @@
       <c r="B1" s="183" t="s">
         <v>399</v>
       </c>
-      <c r="C1" s="396" t="s">
+      <c r="C1" s="397" t="s">
         <v>393</v>
       </c>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="398"/>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
+      <c r="F1" s="398"/>
+      <c r="G1" s="398"/>
+      <c r="H1" s="399"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5709,17 +5739,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="390" t="s">
+      <c r="B3" s="391" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="391"/>
-      <c r="D3" s="392"/>
+      <c r="C3" s="392"/>
+      <c r="D3" s="393"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="393" t="s">
+      <c r="F3" s="394" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="394"/>
-      <c r="H3" s="395"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="396"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -6004,11 +6034,11 @@
       <c r="C19" s="331">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D19" s="399" t="s">
+      <c r="D19" s="400" t="s">
         <v>374</v>
       </c>
-      <c r="E19" s="398"/>
-      <c r="F19" s="398"/>
+      <c r="E19" s="399"/>
+      <c r="F19" s="399"/>
     </row>
     <row r="20" spans="1:21" ht="25.5" customHeight="1">
       <c r="A20" s="270" t="s">
@@ -6020,11 +6050,11 @@
       <c r="C20" s="331">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D20" s="399" t="s">
+      <c r="D20" s="400" t="s">
         <v>373</v>
       </c>
-      <c r="E20" s="398"/>
-      <c r="F20" s="398"/>
+      <c r="E20" s="399"/>
+      <c r="F20" s="399"/>
       <c r="I20" s="35" t="s">
         <v>68</v>
       </c>
@@ -7622,10 +7652,10 @@
       </c>
       <c r="B144" s="341"/>
       <c r="C144" s="342" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E144" s="348" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F144" s="349"/>
     </row>
@@ -7673,11 +7703,11 @@
     </row>
     <row r="148" spans="1:7" ht="12" thickBot="1"/>
     <row r="149" spans="1:7" ht="12" thickBot="1">
-      <c r="A149" s="386" t="s">
+      <c r="A149" s="387" t="s">
         <v>402</v>
       </c>
-      <c r="B149" s="388"/>
-      <c r="C149" s="389"/>
+      <c r="B149" s="389"/>
+      <c r="C149" s="390"/>
       <c r="E149" s="348" t="s">
         <v>403</v>
       </c>
@@ -7715,10 +7745,10 @@
     </row>
     <row r="152" spans="1:7" ht="12" thickBot="1"/>
     <row r="153" spans="1:7" ht="12" thickBot="1">
-      <c r="A153" s="386" t="s">
+      <c r="A153" s="387" t="s">
         <v>413</v>
       </c>
-      <c r="B153" s="387"/>
+      <c r="B153" s="388"/>
       <c r="C153" s="360"/>
       <c r="E153" s="348" t="s">
         <v>403</v>
@@ -9582,12 +9612,12 @@
       <c r="A19" s="112"/>
       <c r="B19" s="165"/>
       <c r="C19" s="112"/>
-      <c r="D19" s="403" t="s">
+      <c r="D19" s="404" t="s">
         <v>240</v>
       </c>
-      <c r="E19" s="403"/>
-      <c r="F19" s="403"/>
-      <c r="G19" s="403"/>
+      <c r="E19" s="404"/>
+      <c r="F19" s="404"/>
+      <c r="G19" s="404"/>
       <c r="H19" s="112"/>
       <c r="I19" s="112"/>
       <c r="J19" s="121"/>
@@ -10972,7 +11002,7 @@
         <v>441</v>
       </c>
       <c r="H7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -10997,7 +11027,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -11022,7 +11052,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -11047,7 +11077,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -11072,7 +11102,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -11097,7 +11127,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -11122,7 +11152,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11147,7 +11177,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -11172,7 +11202,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -11197,7 +11227,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="3:8">
@@ -11222,7 +11252,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="3:8">
@@ -11247,7 +11277,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="3:8">
@@ -11272,7 +11302,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="3:8">
@@ -11297,7 +11327,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="3:8">
@@ -11322,7 +11352,7 @@
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="3:8">
@@ -11347,7 +11377,7 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="2:7">
@@ -11605,7 +11635,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11639,14 +11669,12 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>513</v>
       </c>
       <c r="C3" s="18">
-        <f>'Main Page'!B13/2</f>
-        <v>64</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+        <f>'Main Page'!A151*100</f>
+        <v>3.8820000000000001</v>
+      </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -11674,14 +11702,14 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>514</v>
       </c>
       <c r="C4" s="18">
-        <f>'Main Page'!B56/2</f>
-        <v>3.2</v>
+        <f>'Main Page'!B151*100</f>
+        <v>3.8820000000000001</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="E4" s="377"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -11709,20 +11737,14 @@
         <v>387</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C5" s="18">
-        <f>'Main Page'!A151*100</f>
-        <v>3.8820000000000001</v>
-      </c>
-      <c r="D5" s="18">
-        <f>'Main Page'!B151*100</f>
-        <v>3.8820000000000001</v>
-      </c>
-      <c r="E5" s="377">
+        <v>515</v>
+      </c>
+      <c r="C5" s="377">
         <f>'Main Page'!C151*100</f>
         <v>5.8999999999999995</v>
       </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="377"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -11747,31 +11769,31 @@
     </row>
     <row r="6" spans="1:25">
       <c r="B6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="378" t="s">
         <v>446</v>
       </c>
-      <c r="C6" s="378" t="s">
+      <c r="D6" s="378" t="s">
         <v>447</v>
       </c>
-      <c r="D6" s="378" t="s">
+      <c r="E6" s="378" t="s">
         <v>448</v>
       </c>
-      <c r="E6" s="378" t="s">
+      <c r="F6" s="378" t="s">
         <v>449</v>
       </c>
-      <c r="F6" s="378" t="s">
+      <c r="G6" s="378" t="s">
         <v>450</v>
       </c>
-      <c r="G6" s="378" t="s">
+      <c r="H6" s="378" t="s">
         <v>451</v>
       </c>
-      <c r="H6" s="378" t="s">
+      <c r="I6" s="378" t="s">
         <v>452</v>
       </c>
-      <c r="I6" s="378" t="s">
+      <c r="J6" s="378" t="s">
         <v>453</v>
-      </c>
-      <c r="J6" s="378" t="s">
-        <v>454</v>
       </c>
       <c r="K6" s="378"/>
       <c r="L6" s="378"/>
@@ -11791,7 +11813,7 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="C7" s="379">
+      <c r="C7" s="386">
         <f>GECbladedata!$C28</f>
         <v>0</v>
       </c>
@@ -11838,7 +11860,7 @@
       <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="C8" s="379">
+      <c r="C8" s="386">
         <f>GECbladedata!$C29</f>
         <v>2.1052631578947371E-2</v>
       </c>
@@ -11885,7 +11907,7 @@
       <c r="W8" s="18"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="C9" s="379">
+      <c r="C9" s="386">
         <f>GECbladedata!$C30</f>
         <v>5.2631578947368411E-2</v>
       </c>
@@ -11932,7 +11954,7 @@
       <c r="W9" s="18"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="C10" s="379">
+      <c r="C10" s="386">
         <f>GECbladedata!$C31</f>
         <v>0.10526315789473684</v>
       </c>
@@ -11979,7 +12001,7 @@
       <c r="W10" s="18"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="C11" s="379">
+      <c r="C11" s="386">
         <f>GECbladedata!$C32</f>
         <v>0.15789473684210525</v>
       </c>
@@ -12026,7 +12048,7 @@
       <c r="W11" s="18"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="C12" s="379">
+      <c r="C12" s="386">
         <f>GECbladedata!$C33</f>
         <v>0.21052631578947367</v>
       </c>
@@ -12073,7 +12095,7 @@
       <c r="W12" s="18"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="C13" s="379">
+      <c r="C13" s="386">
         <f>GECbladedata!$C34</f>
         <v>0.26315789473684209</v>
       </c>
@@ -12107,7 +12129,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="C14" s="379">
+      <c r="C14" s="386">
         <f>GECbladedata!$C35</f>
         <v>0.31578947368421051</v>
       </c>
@@ -12141,7 +12163,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="C15" s="379">
+      <c r="C15" s="386">
         <f>GECbladedata!$C36</f>
         <v>0.36842105263157893</v>
       </c>
@@ -12175,7 +12197,7 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="C16" s="379">
+      <c r="C16" s="386">
         <f>GECbladedata!$C37</f>
         <v>0.42105263157894735</v>
       </c>
@@ -12209,7 +12231,7 @@
       </c>
     </row>
     <row r="17" spans="2:23">
-      <c r="C17" s="379">
+      <c r="C17" s="386">
         <f>GECbladedata!$C38</f>
         <v>0.47368421052631576</v>
       </c>
@@ -12243,7 +12265,7 @@
       </c>
     </row>
     <row r="18" spans="2:23">
-      <c r="C18" s="379">
+      <c r="C18" s="386">
         <f>GECbladedata!$C39</f>
         <v>0.52631578947368418</v>
       </c>
@@ -12277,7 +12299,7 @@
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="C19" s="379">
+      <c r="C19" s="386">
         <f>GECbladedata!$C40</f>
         <v>0.57894736842105254</v>
       </c>
@@ -12312,7 +12334,7 @@
     </row>
     <row r="20" spans="2:23">
       <c r="B20" s="370"/>
-      <c r="C20" s="379">
+      <c r="C20" s="386">
         <f>GECbladedata!$C41</f>
         <v>0.63157894736842102</v>
       </c>
@@ -12347,7 +12369,7 @@
     </row>
     <row r="21" spans="2:23">
       <c r="B21" s="370"/>
-      <c r="C21" s="379">
+      <c r="C21" s="386">
         <f>GECbladedata!$C42</f>
         <v>0.68421052631578938</v>
       </c>
@@ -12381,7 +12403,7 @@
       </c>
     </row>
     <row r="22" spans="2:23">
-      <c r="C22" s="379">
+      <c r="C22" s="386">
         <f>GECbladedata!$C43</f>
         <v>0.73684210526315785</v>
       </c>
@@ -12428,7 +12450,7 @@
       <c r="W22" s="102"/>
     </row>
     <row r="23" spans="2:23">
-      <c r="C23" s="379">
+      <c r="C23" s="386">
         <f>GECbladedata!$C44</f>
         <v>0.78947368421052622</v>
       </c>
@@ -12462,7 +12484,7 @@
       </c>
     </row>
     <row r="24" spans="2:23">
-      <c r="C24" s="379">
+      <c r="C24" s="386">
         <f>GECbladedata!$C45</f>
         <v>0.84210526315789458</v>
       </c>
@@ -12496,7 +12518,7 @@
       </c>
     </row>
     <row r="25" spans="2:23">
-      <c r="C25" s="379">
+      <c r="C25" s="386">
         <f>GECbladedata!$C46</f>
         <v>0.89473684210526305</v>
       </c>
@@ -12530,7 +12552,7 @@
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="C26" s="379">
+      <c r="C26" s="386">
         <f>GECbladedata!$C47</f>
         <v>0.94736842105263142</v>
       </c>
@@ -12564,7 +12586,7 @@
       </c>
     </row>
     <row r="27" spans="2:23">
-      <c r="C27" s="379">
+      <c r="C27" s="386">
         <f>GECbladedata!$C48</f>
         <v>0.99999999999999989</v>
       </c>
@@ -12607,10 +12629,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N22"/>
+  <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12642,7 +12664,7 @@
         <v>397</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C4" s="101">
         <f>'Main Page'!B87</f>
@@ -12655,10 +12677,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" t="s">
         <v>456</v>
-      </c>
-      <c r="B5" t="s">
-        <v>457</v>
       </c>
       <c r="C5" s="376">
         <f>'Main Page'!$B$31</f>
@@ -12668,10 +12690,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" t="s">
         <v>458</v>
-      </c>
-      <c r="B6" t="s">
-        <v>459</v>
       </c>
       <c r="C6" s="374">
         <f>'Main Page'!B43</f>
@@ -12681,10 +12703,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B7" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="C7" s="374">
         <v>2.6</v>
@@ -12693,182 +12715,206 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C8" s="374">
+        <v>2.6</v>
+      </c>
+      <c r="K8" s="375"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C9" s="374">
+        <v>2.6</v>
+      </c>
+      <c r="K9" s="375"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
         <v>397</v>
       </c>
-      <c r="B8" t="s">
-        <v>462</v>
-      </c>
-      <c r="C8">
+      <c r="B10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C10">
         <f>'Main Page'!$B$29</f>
         <v>11.190581936148892</v>
       </c>
-      <c r="G8" t="s">
-        <v>463</v>
-      </c>
-      <c r="K8" s="375"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>460</v>
-      </c>
-      <c r="B9" t="s">
-        <v>464</v>
-      </c>
-      <c r="C9" s="102">
+      <c r="G10" t="s">
+        <v>461</v>
+      </c>
+      <c r="K10" s="375"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C11" s="102">
         <f>'Main Page'!$B$34</f>
         <v>2.6</v>
       </c>
-      <c r="G9" t="s">
-        <v>465</v>
-      </c>
-      <c r="K9" s="375"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>460</v>
-      </c>
-      <c r="B10" t="s">
-        <v>466</v>
-      </c>
-      <c r="C10" s="102">
+      <c r="G11" t="s">
+        <v>463</v>
+      </c>
+      <c r="K11" s="375"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="102">
         <f>'Main Page'!$B$35</f>
         <v>90</v>
       </c>
-      <c r="G10" t="s">
-        <v>467</v>
-      </c>
-      <c r="K10" s="375"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
+      <c r="G12" t="s">
+        <v>465</v>
+      </c>
+      <c r="K12" s="375"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
         <v>432</v>
       </c>
-      <c r="B11" t="s">
-        <v>468</v>
-      </c>
-      <c r="C11">
+      <c r="B13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C13">
         <f>'Main Page'!$B$40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G13" t="s">
+        <v>467</v>
+      </c>
+      <c r="K13" s="375"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B14" t="s">
         <v>469</v>
       </c>
-      <c r="K11" s="375"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>470</v>
-      </c>
-      <c r="B12" t="s">
-        <v>471</v>
-      </c>
-      <c r="C12">
+      <c r="C14">
         <f>'Main Page'!$B$37*PI()/180</f>
         <v>4.5378560551852569E-2</v>
       </c>
-      <c r="G12" t="s">
-        <v>472</v>
-      </c>
-      <c r="K12" s="375"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
+      <c r="G14" t="s">
         <v>470</v>
       </c>
-      <c r="B13" t="s">
-        <v>473</v>
-      </c>
-      <c r="C13">
+      <c r="K14" s="375"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>468</v>
+      </c>
+      <c r="B15" t="s">
+        <v>471</v>
+      </c>
+      <c r="C15">
         <f>'Main Page'!$B$38*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
+        <v>472</v>
+      </c>
+      <c r="K15" s="375"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>434</v>
+      </c>
+      <c r="B16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16">
+        <f>1/C14^C17</f>
+        <v>0.21302244142778143</v>
+      </c>
+      <c r="G16" t="s">
         <v>474</v>
       </c>
-      <c r="K13" s="375"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
+      <c r="K16" s="375"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
         <v>434</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>475</v>
       </c>
-      <c r="C14">
-        <f>1/C12^C15</f>
-        <v>0.21302244142778143</v>
-      </c>
-      <c r="G14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K14" s="375"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>434</v>
-      </c>
-      <c r="B15" t="s">
-        <v>477</v>
-      </c>
-      <c r="C15">
+      <c r="C17">
         <f>'Main Page'!$B$39</f>
         <v>-0.5</v>
       </c>
-      <c r="G15" t="s">
-        <v>478</v>
-      </c>
-      <c r="K15" s="375"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" t="s">
-        <v>509</v>
-      </c>
-      <c r="C16" s="101">
+      <c r="G17" t="s">
+        <v>476</v>
+      </c>
+      <c r="K17" s="375"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C18" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
         <v>21.972656250000007</v>
       </c>
-      <c r="D16" s="101">
-        <v>0</v>
-      </c>
-      <c r="E16" s="101">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>510</v>
-      </c>
-      <c r="K16" s="375"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="101">
+      <c r="D18" s="101">
+        <v>0</v>
+      </c>
+      <c r="E18" s="101">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>506</v>
+      </c>
+      <c r="K18" s="375"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19" t="s">
+        <v>507</v>
+      </c>
+      <c r="C19" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
         <v>21.972656250000007</v>
       </c>
-      <c r="D17" s="101">
+      <c r="D19" s="101">
         <f>2*0.8*(4*'Main Page'!$B$29/30*PI())</f>
         <v>7.5000000000000018</v>
       </c>
-      <c r="E17" s="101">
+      <c r="E19" s="101">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>512</v>
-      </c>
-      <c r="K17" s="102"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="K19" s="376"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="K20" s="102"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="K21" s="102"/>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="G19" t="s">
+        <v>508</v>
+      </c>
+      <c r="K19" s="102"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="K21" s="376"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="K22" s="102"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="K23" s="102"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="K24" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12877,10 +12923,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12907,7 +12953,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C3" s="376">
         <f>'Main Page'!B61</f>
@@ -12919,10 +12965,10 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C4" s="376">
-        <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C11</f>
+        <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C13</f>
         <v>-0.32556971818134689</v>
       </c>
       <c r="I4" s="102"/>
@@ -12932,10 +12978,10 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C5" s="376">
-        <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C11</f>
+        <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C13</f>
         <v>0</v>
       </c>
     </row>
@@ -12944,10 +12990,10 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C6" s="376">
-        <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C11+'Main Page'!B46</f>
+        <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C13+'Main Page'!B46</f>
         <v>2.3429012413100061</v>
       </c>
       <c r="I6" s="103"/>
@@ -12959,7 +13005,7 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C7" s="376">
         <f>'Main Page'!B9-'Main Page'!B46</f>
@@ -12974,7 +13020,7 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C8" s="376">
         <f>'Main Page'!B46</f>
@@ -12986,10 +13032,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C9" s="376">
         <f>-'Main Page'!B11</f>
@@ -12999,154 +13045,200 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B10" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="C10" s="376">
         <f>-'Main Page'!B18</f>
         <v>0</v>
       </c>
       <c r="I10" s="103"/>
-      <c r="M10" s="370"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" s="376">
+        <f>-'Main Page'!B18</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="103"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C12" s="376">
+        <f>-'Main Page'!B18</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="M12" s="370"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
-        <v>487</v>
-      </c>
-      <c r="C11" s="376">
+      <c r="B13" t="s">
+        <v>484</v>
+      </c>
+      <c r="C13" s="376">
         <f>SUM('Main Page'!E5+'Main Page'!E6+'Main Page'!E7)</f>
         <v>270668.70913834521</v>
       </c>
-      <c r="I11" s="103"/>
-      <c r="M11" s="370"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+      <c r="I13" s="103"/>
+      <c r="M13" s="370"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>117</v>
       </c>
-      <c r="B12" t="s">
-        <v>488</v>
-      </c>
-      <c r="C12" s="376">
+      <c r="B14" t="s">
+        <v>485</v>
+      </c>
+      <c r="C14" s="376">
         <f>'Main Page'!E8</f>
         <v>125969.62234646481</v>
       </c>
-      <c r="I12" s="103"/>
-      <c r="M12" s="370"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>489</v>
-      </c>
-      <c r="B13" t="s">
-        <v>490</v>
-      </c>
-      <c r="C13" s="376">
+      <c r="I14" s="103"/>
+      <c r="M14" s="370"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B15" t="s">
+        <v>487</v>
+      </c>
+      <c r="C15" s="376">
         <f>SUM('Main Page'!H5:H7)</f>
         <v>739595.80544436211</v>
       </c>
-      <c r="I13" s="103"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>489</v>
-      </c>
-      <c r="B14" t="s">
-        <v>491</v>
-      </c>
-      <c r="C14" s="376">
+      <c r="I15" s="103"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C16" s="376">
         <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)/('Main Page'!$B$88)^2</f>
         <v>438.85452296241118</v>
       </c>
-      <c r="I14" s="103"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+      <c r="I16" s="103"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>486</v>
+      </c>
+      <c r="B17" t="s">
         <v>489</v>
       </c>
-      <c r="B15" t="s">
-        <v>492</v>
-      </c>
-      <c r="C15" s="376">
+      <c r="C17" s="376">
         <f>GECdrivetrain!M5</f>
         <v>668484.97012246738</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>387</v>
-      </c>
-      <c r="B16" t="s">
-        <v>493</v>
-      </c>
-      <c r="C16" s="385">
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" t="s">
+        <v>490</v>
+      </c>
+      <c r="C18" s="385">
         <f>'Main Page'!B19*100</f>
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
         <v>434</v>
       </c>
-      <c r="B17" t="s">
-        <v>494</v>
-      </c>
-      <c r="C17">
+      <c r="B19" t="s">
+        <v>491</v>
+      </c>
+      <c r="C19">
         <f>'Main Page'!$B$88</f>
         <v>160.84954386379741</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>495</v>
-      </c>
-      <c r="B18" t="s">
-        <v>496</v>
-      </c>
-      <c r="C18" s="384">
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>492</v>
+      </c>
+      <c r="B20" t="s">
+        <v>493</v>
+      </c>
+      <c r="C20" s="384">
         <f>'Main Page'!B14</f>
         <v>2300693019.9789252</v>
       </c>
-      <c r="I18" s="103"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
+      <c r="I20" s="103"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>494</v>
+      </c>
+      <c r="B21" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" s="384">
+        <f>2*'Main Page'!B15/100*SQRT(C20*'Main Page'!B16*C16*C19^2/('Main Page'!B16+C16*C19^2))</f>
+        <v>14909175.1810933</v>
+      </c>
+      <c r="I21" s="103"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>496</v>
+      </c>
+      <c r="B22" t="s">
         <v>497</v>
       </c>
-      <c r="B19" t="s">
-        <v>498</v>
-      </c>
-      <c r="C19" s="384">
-        <f>2*'Main Page'!B15/100*SQRT(C18*'Main Page'!B16*C14*C17^2/('Main Page'!B16+C14*C17^2))</f>
-        <v>14909175.1810933</v>
-      </c>
-      <c r="I19" s="103"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>499</v>
-      </c>
-      <c r="B20" t="s">
-        <v>500</v>
-      </c>
-      <c r="C20" s="335">
+      <c r="C22" s="335">
         <f>'Main Page'!B92*1000</f>
         <v>5000000</v>
       </c>
-      <c r="M20" s="370"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="I21" s="103"/>
-      <c r="M21" s="370"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="I22" s="103"/>
       <c r="M22" s="370"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" s="18">
+        <f>'Main Page'!B13/2</f>
+        <v>64</v>
+      </c>
+      <c r="I23" s="103"/>
+      <c r="M23" s="370"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>444</v>
+      </c>
+      <c r="C24" s="18">
+        <f>'Main Page'!B56/2</f>
+        <v>3.2</v>
+      </c>
+      <c r="I24" s="103"/>
+      <c r="M24" s="370"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13155,10 +13247,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -13183,315 +13275,261 @@
         <v>387</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="C3" s="103">
         <f>'Main Page'!B154*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="D3" s="103">
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C4" s="103">
         <f>'Main Page'!B155*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="E3" s="103">
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" s="103">
         <f>'Main Page'!B156*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="F3" s="103">
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="N5" s="370"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C6" s="103">
         <f>'Main Page'!B157*100</f>
         <v>3.4350000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="N6" s="370"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F7" t="s">
         <v>502</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G7" t="s">
         <v>503</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H7" t="s">
         <v>504</v>
       </c>
-      <c r="E4" t="s">
-        <v>505</v>
-      </c>
-      <c r="F4" t="s">
-        <v>506</v>
-      </c>
-      <c r="G4" t="s">
-        <v>507</v>
-      </c>
-      <c r="H4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="C5" s="375">
+      <c r="N7" s="370"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="C8" s="375">
         <f>GECtwrdata!$B15/9</f>
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <f>GECtwrdata!$G15</f>
         <v>9401.5183391824921</v>
       </c>
-      <c r="E5" s="383">
+      <c r="E8" s="383">
         <f>GECtwrdata!$N15</f>
         <v>2949313618900.4307</v>
       </c>
-      <c r="F5" s="383">
+      <c r="F8" s="383">
         <f>GECtwrdata!$N15</f>
         <v>2949313618900.4307</v>
       </c>
-      <c r="G5" s="383">
+      <c r="G8" s="383">
         <f>GECtwrdata!$K15</f>
         <v>2268702783769.562</v>
       </c>
-      <c r="H5" s="383">
+      <c r="H8" s="383">
         <f>GECtwrdata!$H15</f>
         <v>228122980629.23849</v>
       </c>
-      <c r="N5" s="370"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="C6" s="375">
+      <c r="N8" s="370"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="C9" s="375">
         <f>GECtwrdata!$B16/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <f>GECtwrdata!$G16</f>
         <v>8269.7152709443981</v>
       </c>
-      <c r="E6" s="383">
+      <c r="E9" s="383">
         <f>GECtwrdata!$N16</f>
         <v>2278019361998.5259</v>
       </c>
-      <c r="F6" s="383">
+      <c r="F9" s="383">
         <f>GECtwrdata!$N16</f>
         <v>2278019361998.5259</v>
       </c>
-      <c r="G6" s="383">
+      <c r="G9" s="383">
         <f>GECtwrdata!$K16</f>
         <v>1752322586152.7122</v>
       </c>
-      <c r="H6" s="383">
+      <c r="H9" s="383">
         <f>GECtwrdata!$H16</f>
         <v>200660364475.44794</v>
       </c>
-      <c r="N6" s="370"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="C7" s="375">
+      <c r="N9" s="370"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="C10" s="375">
         <f>GECtwrdata!$B17/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <f>GECtwrdata!$G17</f>
         <v>7210.4630543628509</v>
       </c>
-      <c r="E7" s="383">
+      <c r="E10" s="383">
         <f>GECtwrdata!$N17</f>
         <v>1728413822137.4292</v>
       </c>
-      <c r="F7" s="383">
+      <c r="F10" s="383">
         <f>GECtwrdata!$N17</f>
         <v>1728413822137.4292</v>
       </c>
-      <c r="G7" s="383">
+      <c r="G10" s="383">
         <f>GECtwrdata!$K17</f>
         <v>1329549093951.8687</v>
       </c>
-      <c r="H7" s="383">
+      <c r="H10" s="383">
         <f>GECtwrdata!$H17</f>
         <v>174958157218.38885</v>
       </c>
-      <c r="N7" s="370"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="C8" s="375">
+      <c r="N10" s="370"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11" s="375">
         <f>GECtwrdata!$B18/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <f>GECtwrdata!$G18</f>
         <v>6223.7616894378543</v>
       </c>
-      <c r="E8" s="383">
+      <c r="E11" s="383">
         <f>GECtwrdata!$N18</f>
         <v>1284818865597.1003</v>
       </c>
-      <c r="F8" s="383">
+      <c r="F11" s="383">
         <f>GECtwrdata!$N18</f>
         <v>1284818865597.1003</v>
       </c>
-      <c r="G8" s="383">
+      <c r="G11" s="383">
         <f>GECtwrdata!$K18</f>
         <v>988322204305.46167</v>
       </c>
-      <c r="H8" s="383">
+      <c r="H11" s="383">
         <f>GECtwrdata!$H18</f>
         <v>151016358858.06137</v>
       </c>
-      <c r="N8" s="370"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="C9" s="375">
+      <c r="N11" s="370"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="C12" s="375">
         <f>GECtwrdata!$B19/9</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <f>GECtwrdata!$G19</f>
         <v>5309.6111761694065</v>
       </c>
-      <c r="E9" s="383">
+      <c r="E12" s="383">
         <f>GECtwrdata!$N19</f>
         <v>932637953883.65283</v>
       </c>
-      <c r="F9" s="383">
+      <c r="F12" s="383">
         <f>GECtwrdata!$N19</f>
         <v>932637953883.65283</v>
       </c>
-      <c r="G9" s="383">
+      <c r="G12" s="383">
         <f>GECtwrdata!$K19</f>
         <v>717413810679.73291</v>
       </c>
-      <c r="H9" s="383">
+      <c r="H12" s="383">
         <f>GECtwrdata!$H19</f>
         <v>128834969394.46544</v>
       </c>
-      <c r="N9" s="370"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="C10" s="375">
+      <c r="N12" s="370"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="C13" s="375">
         <f>GECtwrdata!$B20/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <f>GECtwrdata!$G20</f>
         <v>4468.0115145575082</v>
       </c>
-      <c r="E10" s="383">
+      <c r="E13" s="383">
         <f>GECtwrdata!$N20</f>
         <v>658356143729.35046</v>
       </c>
-      <c r="F10" s="383">
+      <c r="F13" s="383">
         <f>GECtwrdata!$N20</f>
         <v>658356143729.35046</v>
       </c>
-      <c r="G10" s="383">
+      <c r="G13" s="383">
         <f>GECtwrdata!$K20</f>
         <v>506427802868.73114</v>
       </c>
-      <c r="H10" s="383">
+      <c r="H13" s="383">
         <f>GECtwrdata!$H20</f>
         <v>108413988827.60104</v>
       </c>
-      <c r="N10" s="370"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="C11" s="375">
+      <c r="N13" s="370"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="C14" s="375">
         <f>GECtwrdata!$B21/9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <f>GECtwrdata!$G21</f>
         <v>3698.9627046021596</v>
       </c>
-      <c r="E11" s="383">
+      <c r="E14" s="383">
         <f>GECtwrdata!$N21</f>
         <v>449540087092.60992</v>
       </c>
-      <c r="F11" s="383">
+      <c r="F14" s="383">
         <f>GECtwrdata!$N21</f>
         <v>449540087092.60992</v>
       </c>
-      <c r="G11" s="383">
+      <c r="G14" s="383">
         <f>GECtwrdata!$K21</f>
         <v>345800066994.31531</v>
       </c>
-      <c r="H11" s="383">
+      <c r="H14" s="383">
         <f>GECtwrdata!$H21</f>
         <v>89753417157.468246</v>
-      </c>
-      <c r="N11" s="370"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="C12" s="375">
-        <f>GECtwrdata!$B22/9</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D12">
-        <f>GECtwrdata!$G22</f>
-        <v>3002.4647463033616</v>
-      </c>
-      <c r="E12" s="383">
-        <f>GECtwrdata!$N22</f>
-        <v>294838031157.99896</v>
-      </c>
-      <c r="F12" s="383">
-        <f>GECtwrdata!$N22</f>
-        <v>294838031157.99896</v>
-      </c>
-      <c r="G12" s="383">
-        <f>GECtwrdata!$K22</f>
-        <v>226798485506.15305</v>
-      </c>
-      <c r="H12" s="383">
-        <f>GECtwrdata!$H22</f>
-        <v>72853254384.067001</v>
-      </c>
-      <c r="N12" s="370"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="C13" s="375">
-        <f>GECtwrdata!$B23/9</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D13">
-        <f>GECtwrdata!$G23</f>
-        <v>2378.5176396611114</v>
-      </c>
-      <c r="E13" s="383">
-        <f>GECtwrdata!$N23</f>
-        <v>183979818336.23752</v>
-      </c>
-      <c r="F13" s="383">
-        <f>GECtwrdata!$N23</f>
-        <v>183979818336.23752</v>
-      </c>
-      <c r="G13" s="383">
-        <f>GECtwrdata!$K23</f>
-        <v>141522937181.72116</v>
-      </c>
-      <c r="H13" s="383">
-        <f>GECtwrdata!$H23</f>
-        <v>57713500507.397308</v>
-      </c>
-      <c r="N13" s="370"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="C14" s="375">
-        <f>GECtwrdata!$B24/9</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f>GECtwrdata!$G24</f>
-        <v>1827.1213846754108</v>
-      </c>
-      <c r="E14" s="383">
-        <f>GECtwrdata!$N24</f>
-        <v>107776886264.19733</v>
-      </c>
-      <c r="F14" s="383">
-        <f>GECtwrdata!$N24</f>
-        <v>107776886264.19733</v>
-      </c>
-      <c r="G14" s="383">
-        <f>GECtwrdata!$K24</f>
-        <v>82905297126.305634</v>
-      </c>
-      <c r="H14" s="383">
-        <f>GECtwrdata!$H24</f>
-        <v>44334155527.45916</v>
       </c>
       <c r="I14" s="371"/>
       <c r="J14" s="371"/>
@@ -13500,7 +13538,83 @@
       <c r="N14" s="370"/>
     </row>
     <row r="15" spans="1:14">
+      <c r="C15" s="375">
+        <f>GECtwrdata!$B22/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D15">
+        <f>GECtwrdata!$G22</f>
+        <v>3002.4647463033616</v>
+      </c>
+      <c r="E15" s="383">
+        <f>GECtwrdata!$N22</f>
+        <v>294838031157.99896</v>
+      </c>
+      <c r="F15" s="383">
+        <f>GECtwrdata!$N22</f>
+        <v>294838031157.99896</v>
+      </c>
+      <c r="G15" s="383">
+        <f>GECtwrdata!$K22</f>
+        <v>226798485506.15305</v>
+      </c>
+      <c r="H15" s="383">
+        <f>GECtwrdata!$H22</f>
+        <v>72853254384.067001</v>
+      </c>
       <c r="N15" s="370"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="C16" s="375">
+        <f>GECtwrdata!$B23/9</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D16">
+        <f>GECtwrdata!$G23</f>
+        <v>2378.5176396611114</v>
+      </c>
+      <c r="E16" s="383">
+        <f>GECtwrdata!$N23</f>
+        <v>183979818336.23752</v>
+      </c>
+      <c r="F16" s="383">
+        <f>GECtwrdata!$N23</f>
+        <v>183979818336.23752</v>
+      </c>
+      <c r="G16" s="383">
+        <f>GECtwrdata!$K23</f>
+        <v>141522937181.72116</v>
+      </c>
+      <c r="H16" s="383">
+        <f>GECtwrdata!$H23</f>
+        <v>57713500507.397308</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="375">
+        <f>GECtwrdata!$B24/9</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>GECtwrdata!$G24</f>
+        <v>1827.1213846754108</v>
+      </c>
+      <c r="E17" s="383">
+        <f>GECtwrdata!$N24</f>
+        <v>107776886264.19733</v>
+      </c>
+      <c r="F17" s="383">
+        <f>GECtwrdata!$N24</f>
+        <v>107776886264.19733</v>
+      </c>
+      <c r="G17" s="383">
+        <f>GECtwrdata!$K24</f>
+        <v>82905297126.305634</v>
+      </c>
+      <c r="H17" s="383">
+        <f>GECtwrdata!$H24</f>
+        <v>44334155527.45916</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13538,12 +13652,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="400" t="s">
+      <c r="A2" s="401" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="402"/>
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="403"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -14343,11 +14457,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>60.8</v>
       </c>
-      <c r="D2" s="386" t="s">
+      <c r="D2" s="387" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="388"/>
-      <c r="F2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="390"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
